--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -44,7 +44,55 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 10:01 AM</t>
+    <t>BI-KETOGESIC 150 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>-26.7300</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>194.00</t>
+  </si>
+  <si>
+    <t>194.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 31 August, 2025 11:10 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +302,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +314,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,56 +722,136 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>21</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>11</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>12</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>13</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>23</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>24</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>25</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="P10" s="13">
+        <v>192.27000000000001</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
+        <v>27</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
+        <v>28</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
+        <v>29</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -737,10 +865,20 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -77,6 +77,27 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>PENTACOLD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
@@ -92,7 +113,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 11:10 AM</t>
+    <t>Sunday, 31 August, 2025 11:11 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -805,53 +826,119 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>192.27000000000001</v>
-      </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>18</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
         <v>27</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
         <v>28</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
+      <c t="s" r="Q10" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
         <v>29</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>30</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>31</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>32</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>248.27000000000001</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>34</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>35</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>36</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -875,10 +962,20 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>CEPOREX 1GM 8 TABLETS</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
   </si>
   <si>
@@ -74,7 +89,16 @@
     <t>194.0000</t>
   </si>
   <si>
-    <t>1:0</t>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
   </si>
   <si>
     <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
@@ -113,7 +137,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 11:11 AM</t>
+    <t>Sunday, 31 August, 2025 11:13 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -837,7 +861,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -853,7 +877,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -863,14 +887,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -879,20 +903,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -903,42 +927,108 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>248.27000000000001</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>34</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>23</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>35</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
         <v>36</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c t="s" r="Q12" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>37</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>38</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>39</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>40</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>309.26999999999998</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>42</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>43</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>44</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -972,10 +1062,20 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -137,7 +137,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 11:13 AM</t>
+    <t>Sunday, 31 August, 2025 11:44 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -101,6 +101,18 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -122,6 +134,18 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
@@ -137,7 +161,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 11:44 AM</t>
+    <t>Sunday, 31 August, 2025 12:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -943,7 +967,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -953,11 +977,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>18</v>
@@ -969,66 +993,132 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>309.26999999999998</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>41</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
         <v>42</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
         <v>43</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
         <v>44</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c t="s" r="Q14" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>45</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>46</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>47</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>48</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>380.26999999999998</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>50</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>51</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>52</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1072,10 +1162,20 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -77,6 +77,30 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
   </si>
   <si>
@@ -92,9 +116,6 @@
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>22.00</t>
   </si>
   <si>
@@ -113,6 +134,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
     <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -161,7 +191,19 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 12:13 PM</t>
+    <t>حلمة ببرونه</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 31 August, 2025 12:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -967,7 +1009,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -977,11 +1019,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>18</v>
@@ -993,14 +1035,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1033,7 +1075,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1043,14 +1085,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1059,66 +1101,198 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>380.26999999999998</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>48</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>31</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>49</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
         <v>50</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
+      <c t="s" r="Q16" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>51</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
         <v>52</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>53</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>55</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>56</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>57</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>58</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>60</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>61</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>57</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>62</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>694.76999999999998</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>64</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>65</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>66</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1172,10 +1346,30 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -89,6 +89,18 @@
     <t>188.0000</t>
   </si>
   <si>
+    <t>DEMARK FACE CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
     <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
   </si>
   <si>
@@ -104,15 +116,24 @@
     <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>194.00</t>
   </si>
   <si>
     <t>194.0000</t>
   </si>
   <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -167,15 +188,21 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
     <t>26.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
@@ -203,7 +230,16 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 12:43 PM</t>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 31 August, 2025 1:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1009,7 +1045,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1075,7 +1111,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1092,7 +1128,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1141,7 +1177,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1158,7 +1194,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1207,21 +1243,21 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>18</v>
@@ -1233,66 +1269,198 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>694.76999999999998</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>61</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>27</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>13</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>62</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>64</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
         <v>65</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
         <v>66</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>67</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>69</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>70</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>66</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>71</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>73</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>27</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>66</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>74</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>883.60000000000002</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>76</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>77</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>78</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1366,10 +1534,30 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -239,7 +239,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 1:04 PM</t>
+    <t>Sunday, 31 August, 2025 1:06 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -77,6 +77,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CERELAC تمر وقمح ولبن</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
   </si>
   <si>
@@ -104,9 +119,6 @@
     <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>44.00</t>
   </si>
   <si>
@@ -185,6 +197,9 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>PRIDOCAINE CREAM 15 GM</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -203,15 +218,24 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>ZOVIRAX 5% TOPICAL CREAM 10 GM</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
     <t>24:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
@@ -239,7 +263,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 1:06 PM</t>
+    <t>Sunday, 31 August, 2025 1:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -952,15 +976,15 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>18</v>
@@ -972,14 +996,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -989,11 +1013,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>18</v>
@@ -1005,14 +1029,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1022,11 +1046,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>18</v>
@@ -1038,14 +1062,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1055,11 +1079,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>18</v>
@@ -1071,14 +1095,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1111,7 +1135,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1121,11 +1145,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>18</v>
@@ -1137,14 +1161,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1177,7 +1201,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1187,14 +1211,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1203,14 +1227,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1227,7 +1251,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1243,7 +1267,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1253,11 +1277,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>18</v>
@@ -1269,14 +1293,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1286,11 +1310,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>18</v>
@@ -1302,14 +1326,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1319,14 +1343,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1335,28 +1359,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>18</v>
@@ -1368,31 +1392,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1401,66 +1425,165 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>73</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>74</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>24</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
         <v>75</v>
       </c>
-      <c t="s" r="Q23" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>883.60000000000002</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
         <v>76</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
+      <c t="s" r="Q24" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
         <v>77</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
         <v>78</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>24</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>79</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>81</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>32</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>24</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>82</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>1002.6</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>84</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>85</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>86</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1554,10 +1677,25 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -263,7 +263,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 1:07 PM</t>
+    <t>Sunday, 31 August, 2025 2:18 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALKAPRESS 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>BI-KETOGESIC 150 MG 30 TAB.</t>
   </si>
   <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>81.00</t>
   </si>
   <si>
@@ -65,9 +77,6 @@
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -176,18 +185,21 @@
     <t>72.5000</t>
   </si>
   <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
   </si>
   <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>PENTACOLD SYRUP 120 ML</t>
   </si>
   <si>
@@ -263,7 +275,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 2:18 PM</t>
+    <t>Sunday, 31 August, 2025 2:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -921,7 +933,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -930,14 +942,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -947,14 +959,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -963,31 +975,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -996,31 +1008,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1029,14 +1041,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1046,14 +1058,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1062,14 +1074,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1086,7 +1098,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1102,7 +1114,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1119,7 +1131,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1135,7 +1147,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1145,14 +1157,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1161,14 +1173,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1185,7 +1197,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1201,7 +1213,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1211,14 +1223,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1227,14 +1239,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1251,7 +1263,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1267,7 +1279,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1277,14 +1289,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1293,14 +1305,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1310,14 +1322,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1326,14 +1338,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1343,14 +1355,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1366,7 +1378,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1383,7 +1395,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1399,7 +1411,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1409,14 +1421,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1425,14 +1437,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1442,14 +1454,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1458,31 +1470,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1491,31 +1503,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1524,66 +1536,132 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>81</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>82</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>27</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
         <v>83</v>
       </c>
-      <c t="s" r="Q26" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>1002.6</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
         <v>84</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
+      <c t="s" r="Q27" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>85</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>35</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>27</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
         <v>86</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>1084.5999999999999</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>88</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>89</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>90</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1692,10 +1770,20 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -212,6 +212,18 @@
     <t>PRIDOCAINE CREAM 15 GM</t>
   </si>
   <si>
+    <t xml:space="preserve">STERONATE  5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -275,7 +287,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 2:51 PM</t>
+    <t>Sunday, 31 August, 2025 2:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1444,7 +1456,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1454,14 +1466,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1470,14 +1482,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1487,14 +1499,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1503,14 +1515,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1527,7 +1539,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1549,7 +1561,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1609,7 +1621,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1619,49 +1631,82 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>1084.5999999999999</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
-        <v>88</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
         <v>89</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>35</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>27</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
         <v>90</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>1112.5999999999999</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>92</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>93</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>94</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1780,10 +1825,15 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -222,6 +222,15 @@
   </si>
   <si>
     <t>28.0000</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
   </si>
   <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
@@ -1489,7 +1498,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1506,7 +1515,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1522,7 +1531,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1539,7 +1548,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1555,7 +1564,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1565,14 +1574,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1581,28 +1590,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1614,14 +1623,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1631,11 +1640,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1647,14 +1656,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1675,38 +1684,71 @@
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>1112.5999999999999</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
         <v>92</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>35</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>27</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
         <v>93</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
         <v>94</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c t="s" r="Q30" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1135.5999999999999</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>95</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>96</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>97</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1830,10 +1872,15 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -296,7 +296,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 2:52 PM</t>
+    <t>Sunday, 31 August, 2025 2:57 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -212,6 +212,18 @@
     <t>PRIDOCAINE CREAM 15 GM</t>
   </si>
   <si>
+    <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">STERONATE  5MG 20 TAB</t>
   </si>
   <si>
@@ -296,7 +308,19 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 2:57 PM</t>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 31 August, 2025 3:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1498,7 +1522,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1508,11 +1532,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>24</v>
@@ -1524,14 +1548,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1541,14 +1565,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1557,14 +1581,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1574,14 +1598,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1590,14 +1614,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1614,7 +1638,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1636,7 +1660,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1696,7 +1720,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1706,49 +1730,115 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1135.5999999999999</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
-        <v>95</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
         <v>96</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>35</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>27</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
         <v>97</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>99</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>100</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>27</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>101</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1225.5999999999999</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>103</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>104</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>105</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1877,10 +1967,20 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -185,6 +185,21 @@
     <t>72.5000</t>
   </si>
   <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>-8:0</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>1215.0000</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
     <t>ORACURE ORAL GEL 30 GM</t>
   </si>
   <si>
@@ -320,7 +335,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 3:14 PM</t>
+    <t>Sunday, 31 August, 2025 4:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1357,7 +1372,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1367,14 +1382,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1383,14 +1398,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1400,11 +1415,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1416,14 +1431,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1449,14 +1464,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1466,11 +1481,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1482,14 +1497,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1506,7 +1521,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1515,14 +1530,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1532,11 +1547,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>24</v>
@@ -1548,14 +1563,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1565,11 +1580,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>24</v>
@@ -1581,14 +1596,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1598,14 +1613,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1614,14 +1629,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1631,14 +1646,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1647,14 +1662,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1664,14 +1679,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1680,28 +1695,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1713,14 +1728,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1730,11 +1745,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1746,14 +1761,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1763,11 +1778,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1779,14 +1794,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1796,49 +1811,82 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1225.5999999999999</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
-        <v>103</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>104</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
         <v>105</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>27</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>106</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>2440.5999999999999</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>108</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>109</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>110</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1977,10 +2025,15 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -134,6 +134,15 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
   </si>
   <si>
@@ -176,6 +185,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
   </si>
   <si>
@@ -188,16 +206,10 @@
     <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
   </si>
   <si>
-    <t>-8:0</t>
-  </si>
-  <si>
     <t>135.00</t>
   </si>
   <si>
-    <t>1215.0000</t>
-  </si>
-  <si>
-    <t>9:0</t>
+    <t>135.0000</t>
   </si>
   <si>
     <t>ORACURE ORAL GEL 30 GM</t>
@@ -335,7 +347,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 4:01 PM</t>
+    <t>Sunday, 31 August, 2025 4:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1224,7 +1236,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1240,7 +1252,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1250,11 +1262,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1266,14 +1278,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1306,7 +1318,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1316,11 +1328,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1332,14 +1344,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1356,7 +1368,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1372,7 +1384,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1382,14 +1394,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1398,14 +1410,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1415,14 +1427,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1431,14 +1443,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1448,11 +1460,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1464,14 +1476,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1481,11 +1493,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1497,14 +1509,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1514,11 +1526,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1537,7 +1549,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1547,14 +1559,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1563,14 +1575,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1580,14 +1592,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1596,14 +1608,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1613,11 +1625,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>24</v>
@@ -1629,14 +1641,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1646,14 +1658,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1662,14 +1674,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1679,11 +1691,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>24</v>
@@ -1695,14 +1707,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1712,11 +1724,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1728,31 +1740,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1761,28 +1773,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1794,14 +1806,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1811,11 +1823,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1827,14 +1839,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1844,49 +1856,115 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>105</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>35</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>27</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>106</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
         <v>107</v>
       </c>
-      <c t="s" r="Q33" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>2440.5999999999999</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
+      <c t="s" r="Q34" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>108</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
         <v>109</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>27</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
         <v>110</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1397.23</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>112</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>113</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>114</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2030,10 +2108,20 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -59,6 +59,21 @@
     <t>58.0000</t>
   </si>
   <si>
+    <t>AMIPRIDE 50MG 30 TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>BI-KETOGESIC 150 MG 30 TAB.</t>
   </si>
   <si>
@@ -74,6 +89,15 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>BIOPREX 2.5 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
@@ -83,9 +107,6 @@
     <t>39.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CERELAC تمر وقمح ولبن</t>
   </si>
   <si>
@@ -101,6 +122,18 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>CIPRAPRO 10MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>78.2100</t>
+  </si>
+  <si>
     <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
   </si>
   <si>
@@ -212,6 +245,18 @@
     <t>135.0000</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>ORACURE ORAL GEL 30 GM</t>
   </si>
   <si>
@@ -254,9 +299,6 @@
     <t xml:space="preserve">STERONATE  5MG 20 TAB</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>56.00</t>
   </si>
   <si>
@@ -332,7 +374,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>8.0000</t>
   </si>
   <si>
     <t>معجون سيجنال 50 مل</t>
@@ -347,7 +389,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 4:02 PM</t>
+    <t>Sunday, 31 August, 2025 5:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1054,7 +1096,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1064,14 +1106,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1080,31 +1122,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1113,14 +1155,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1130,14 +1172,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1146,28 +1188,28 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1179,14 +1221,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1203,7 +1245,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1219,7 +1261,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1229,14 +1271,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1245,14 +1287,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1262,11 +1304,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1278,14 +1320,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1295,11 +1337,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1311,14 +1353,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1328,14 +1370,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1344,14 +1386,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1384,7 +1426,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1394,14 +1436,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1410,14 +1452,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1427,14 +1469,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1443,14 +1485,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1460,11 +1502,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1476,14 +1518,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1493,14 +1535,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1509,14 +1551,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1526,14 +1568,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1542,14 +1584,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1559,11 +1601,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1575,14 +1617,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1592,14 +1634,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1608,14 +1650,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1625,14 +1667,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1641,14 +1683,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1658,14 +1700,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1674,14 +1716,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1691,14 +1733,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1707,14 +1749,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1740,14 +1782,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1757,14 +1799,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1773,14 +1815,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1790,14 +1832,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1806,20 +1848,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1830,7 +1872,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1846,21 +1888,21 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1872,31 +1914,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1905,66 +1947,198 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1397.23</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>111</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
         <v>112</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>34</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
         <v>113</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
         <v>114</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c t="s" r="Q36" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>115</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>116</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>34</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>117</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>119</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>46</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>34</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>120</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>122</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>123</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>34</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>124</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1572.8499999999999</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>126</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>127</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>128</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2118,10 +2292,30 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -389,7 +389,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 5:07 PM</t>
+    <t>Sunday, 31 August, 2025 5:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -245,6 +245,27 @@
     <t>135.0000</t>
   </si>
   <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -254,9 +275,6 @@
     <t>33.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>ORACURE ORAL GEL 30 GM</t>
   </si>
   <si>
@@ -356,6 +374,18 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>بودره نلج اكياس</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>حلمة ببرونه</t>
   </si>
   <si>
@@ -389,7 +419,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 5:19 PM</t>
+    <t>Sunday, 31 August, 2025 5:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1624,7 +1654,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1634,14 +1664,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>81</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1650,14 +1680,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1700,14 +1730,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1716,14 +1746,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1733,11 +1763,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1749,14 +1779,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1766,11 +1796,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1782,14 +1812,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1799,14 +1829,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1815,14 +1845,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1832,14 +1862,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1848,14 +1878,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1888,7 +1918,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1905,7 +1935,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1921,7 +1951,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1954,7 +1984,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1964,11 +1994,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -1980,31 +2010,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2013,28 +2043,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2046,14 +2076,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2063,14 +2093,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2079,14 +2109,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2096,49 +2126,148 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
         <v>125</v>
       </c>
-      <c t="s" r="Q39" s="12">
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>126</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>34</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>127</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1572.8499999999999</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
-        <v>126</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
-        <v>127</v>
-      </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
-        <v>128</v>
-      </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>129</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>46</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>34</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>130</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>132</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>133</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>34</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>134</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1738.8499999999999</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>136</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>137</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>138</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2312,10 +2441,25 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -122,6 +122,18 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>CIPRAPRO 10MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -197,6 +209,18 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>FLUREST N 20 TABS</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -293,9 +317,6 @@
     <t>PENTACOLD SYRUP 120 ML</t>
   </si>
   <si>
-    <t>32.00</t>
-  </si>
-  <si>
     <t>32.0000</t>
   </si>
   <si>
@@ -353,9 +374,6 @@
     <t>ZOVIRAX 5% TOPICAL CREAM 10 GM</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>27.00</t>
   </si>
   <si>
@@ -419,7 +437,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 5:21 PM</t>
+    <t>Sunday, 31 August, 2025 5:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1264,7 +1282,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1275,7 +1293,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1308,7 +1326,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1357,7 +1375,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1367,11 +1385,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1383,14 +1401,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1400,14 +1418,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1416,14 +1434,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1433,14 +1451,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1449,14 +1467,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1489,7 +1507,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1499,11 +1517,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1515,14 +1533,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1532,14 +1550,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1548,14 +1566,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1565,14 +1583,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1581,14 +1599,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1598,14 +1616,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1614,14 +1632,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1631,14 +1649,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1647,14 +1665,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1664,14 +1682,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1680,14 +1698,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1697,11 +1715,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1713,14 +1731,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1730,14 +1748,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>82</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1746,14 +1764,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1763,11 +1781,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1779,14 +1797,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1796,14 +1814,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>90</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1812,14 +1830,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1829,11 +1847,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1845,14 +1863,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1862,11 +1880,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1878,14 +1896,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1895,14 +1913,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1911,14 +1929,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1928,14 +1946,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1951,7 +1969,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1961,11 +1979,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -1977,14 +1995,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1994,14 +2012,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2010,7 +2028,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2027,11 +2045,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2043,14 +2061,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2083,24 +2101,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2109,31 +2127,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2142,14 +2160,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2159,11 +2177,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2175,14 +2193,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2192,14 +2210,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2208,14 +2226,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2225,49 +2243,115 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1738.8499999999999</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>135</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>50</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>34</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
         <v>136</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
         <v>137</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+      <c t="s" r="Q43" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
         <v>138</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>139</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>34</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>140</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>1766.8499999999999</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>142</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>143</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>144</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2456,10 +2540,20 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -98,6 +98,18 @@
     <t>21.7800</t>
   </si>
   <si>
+    <t>BUDELIZER 400MCG 60 INH. CAPS. +INHALER DEVICE</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>255.00</t>
+  </si>
+  <si>
+    <t>40.8000</t>
+  </si>
+  <si>
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
@@ -221,6 +233,15 @@
     <t>16.0000</t>
   </si>
   <si>
+    <t>FORADIL12 MG 60 CAPS</t>
+  </si>
+  <si>
+    <t>560.00</t>
+  </si>
+  <si>
+    <t>89.6000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -437,7 +458,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 5:32 PM</t>
+    <t>Sunday, 31 August, 2025 5:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1210,7 +1231,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1220,11 +1241,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>20</v>
@@ -1236,31 +1257,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1269,20 +1290,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1315,7 +1336,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1326,7 +1347,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1359,7 +1380,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1408,7 +1429,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1418,11 +1439,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1434,14 +1455,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1451,14 +1472,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1467,14 +1488,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1484,14 +1505,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1500,14 +1521,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1557,7 +1578,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1573,7 +1594,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1583,14 +1604,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1599,20 +1620,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1623,7 +1644,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1639,7 +1660,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1656,7 +1677,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1672,7 +1693,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1682,14 +1703,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1698,14 +1719,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1715,14 +1736,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1731,14 +1752,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1748,14 +1769,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1764,14 +1785,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1804,7 +1825,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1814,14 +1835,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>90</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1837,7 +1858,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1847,11 +1868,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1863,14 +1884,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1880,14 +1901,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1896,14 +1917,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1913,11 +1934,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1929,14 +1950,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1946,11 +1967,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1962,14 +1983,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1979,14 +2000,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1995,14 +2016,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2012,14 +2033,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2035,7 +2056,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2045,11 +2066,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2061,14 +2082,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2078,14 +2099,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2094,7 +2115,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2111,11 +2132,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2127,14 +2148,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2144,11 +2165,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2160,20 +2181,20 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2184,7 +2205,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2200,24 +2221,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2226,28 +2247,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2259,20 +2280,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2283,7 +2304,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2305,7 +2326,7 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2320,38 +2341,104 @@
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>1766.8499999999999</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
         <v>142</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>54</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>38</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
         <v>143</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
         <v>144</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c t="s" r="Q45" s="12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>145</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>146</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>38</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>147</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>1897.25</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>149</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>150</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>151</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2550,10 +2637,20 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -191,6 +191,15 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>DIMICAP FACIAL WASH 250 ML</t>
+  </si>
+  <si>
+    <t>194.00</t>
+  </si>
+  <si>
+    <t>194.0000</t>
+  </si>
+  <si>
     <t>DOGMATIL 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -203,12 +212,6 @@
     <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
   </si>
   <si>
-    <t>194.00</t>
-  </si>
-  <si>
-    <t>194.0000</t>
-  </si>
-  <si>
     <t>FAYCID HAIR OIL 60 ML</t>
   </si>
   <si>
@@ -356,6 +359,18 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">STERONATE  5MG 20 TAB</t>
   </si>
   <si>
@@ -392,6 +407,24 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>WITHSTAND CREAM</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>ZISROCIN 500MG 3 CAP</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
     <t>ZOVIRAX 5% TOPICAL CREAM 10 GM</t>
   </si>
   <si>
@@ -416,9 +449,6 @@
     <t>بودره نلج اكياس</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>5.00</t>
   </si>
   <si>
@@ -458,7 +488,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 5:36 PM</t>
+    <t>Sunday, 31 August, 2025 5:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1512,7 +1542,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1545,7 +1575,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1561,7 +1591,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1571,11 +1601,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1587,14 +1617,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1604,14 +1634,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1620,28 +1650,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -1653,31 +1683,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1686,14 +1716,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1703,11 +1733,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1719,14 +1749,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1736,14 +1766,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1752,14 +1782,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1769,11 +1799,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -1785,14 +1815,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1802,14 +1832,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1818,7 +1848,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1835,14 +1865,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1851,14 +1881,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1868,14 +1898,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1884,14 +1914,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1901,14 +1931,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>97</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1917,14 +1947,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1934,14 +1964,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1950,14 +1980,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1967,11 +1997,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1983,14 +2013,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2000,11 +2030,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2016,14 +2046,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2033,11 +2063,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2056,7 +2086,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2066,14 +2096,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2082,14 +2112,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2099,11 +2129,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2115,14 +2145,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2132,14 +2162,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2148,14 +2178,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2165,14 +2195,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2181,14 +2211,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2198,11 +2228,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2214,14 +2244,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2231,11 +2261,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2247,31 +2277,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2280,14 +2310,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2297,14 +2327,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2313,28 +2343,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2346,31 +2376,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2379,14 +2409,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2396,49 +2426,181 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>145</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>117</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>38</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>146</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>148</v>
       </c>
-      <c t="s" r="Q46" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>1897.25</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
         <v>149</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>38</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
         <v>150</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
         <v>151</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c t="s" r="Q48" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>152</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>54</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>38</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>153</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>155</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>156</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>38</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>157</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>2259.25</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>159</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>160</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>161</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2647,10 +2809,30 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -170,12 +170,21 @@
     <t>188.0000</t>
   </si>
   <si>
+    <t>DALOLIFE 10 SACHET</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>DEMARK FACE CREAM 30 GM</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>140.00</t>
   </si>
   <si>
@@ -203,6 +212,9 @@
     <t>DOGMATIL 50MG 30 CAPS.</t>
   </si>
   <si>
+    <t>10:0</t>
+  </si>
+  <si>
     <t>63.00</t>
   </si>
   <si>
@@ -401,6 +413,9 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
+    <t>5:1</t>
+  </si>
+  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -488,7 +503,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 5:45 PM</t>
+    <t>Sunday, 31 August, 2025 5:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1465,7 +1480,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1492,7 +1507,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1525,7 +1540,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1575,7 +1590,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1591,7 +1606,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1601,14 +1616,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1617,14 +1632,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1634,11 +1649,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1674,7 +1689,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1690,21 +1705,21 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>20</v>
@@ -1716,31 +1731,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1749,14 +1764,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1789,7 +1804,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1799,14 +1814,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1815,14 +1830,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1832,11 +1847,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
@@ -1848,14 +1863,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1865,14 +1880,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1881,14 +1896,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1898,14 +1913,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1914,14 +1929,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1938,7 +1953,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1964,14 +1979,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>98</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1980,14 +1995,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1997,14 +2012,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2013,14 +2028,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2030,11 +2045,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2046,14 +2061,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2063,7 +2078,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2079,14 +2094,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2096,11 +2111,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2112,14 +2127,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2129,14 +2144,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2169,7 +2184,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2185,7 +2200,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2195,14 +2210,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2211,14 +2226,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2228,11 +2243,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2244,14 +2259,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2261,14 +2276,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2277,14 +2292,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2294,14 +2309,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2310,31 +2325,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2343,28 +2358,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2376,14 +2391,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2393,11 +2408,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2409,28 +2424,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2442,14 +2457,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2459,14 +2474,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2475,14 +2490,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2492,14 +2507,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2508,14 +2523,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2525,14 +2540,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2541,14 +2556,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2558,49 +2573,82 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>2259.25</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
-        <v>159</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
         <v>160</v>
       </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
         <v>161</v>
       </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>38</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>162</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>2379.25</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>164</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>165</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>166</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2829,10 +2877,15 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -503,7 +503,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 5:51 PM</t>
+    <t>Sunday, 31 August, 2025 5:56 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -110,6 +110,18 @@
     <t>40.8000</t>
   </si>
   <si>
+    <t>CARVID 6.25MG 30TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
@@ -125,9 +137,6 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -170,12 +179,21 @@
     <t>188.0000</t>
   </si>
   <si>
+    <t>CYNCHOLINE PLUS 20 CAPS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>DALOLIFE 10 SACHET</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>120.00</t>
   </si>
   <si>
@@ -260,10 +278,13 @@
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
+    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
   </si>
   <si>
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
@@ -272,12 +293,6 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -503,7 +518,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 5:56 PM</t>
+    <t>Sunday, 31 August, 2025 5:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1309,24 +1324,24 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1335,31 +1350,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1368,28 +1383,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1401,31 +1416,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1434,14 +1449,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1451,14 +1466,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1467,28 +1482,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1500,14 +1515,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1540,13 +1555,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1573,7 +1588,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1606,7 +1621,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1616,14 +1631,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1632,14 +1647,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1649,11 +1664,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1665,14 +1680,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1682,14 +1697,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1698,14 +1713,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1715,14 +1730,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1731,31 +1746,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1764,14 +1779,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1788,7 +1803,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1804,24 +1819,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1830,14 +1845,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1847,14 +1862,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1863,14 +1878,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1880,14 +1895,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1896,14 +1911,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1913,11 +1928,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1929,14 +1944,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1946,14 +1961,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1962,14 +1977,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1979,14 +1994,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1995,14 +2010,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2012,14 +2027,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2028,14 +2043,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2045,14 +2060,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2061,14 +2076,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2078,11 +2093,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2094,14 +2109,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2111,14 +2126,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2127,14 +2142,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2144,11 +2159,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2177,14 +2192,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2193,14 +2208,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2210,11 +2225,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2226,14 +2241,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2243,14 +2258,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2259,14 +2274,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2276,11 +2291,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2292,14 +2307,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2309,11 +2324,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2325,14 +2340,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2342,11 +2357,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2358,31 +2373,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2391,14 +2406,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2408,11 +2423,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2424,14 +2439,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2441,14 +2456,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2457,28 +2472,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2490,31 +2505,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2523,28 +2538,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2556,31 +2571,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>54</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2589,66 +2604,165 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>158</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>159</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>34</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>160</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>162</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>57</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>34</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
         <v>163</v>
       </c>
-      <c t="s" r="Q51" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>2379.25</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
         <v>164</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
+      <c t="s" r="Q53" s="12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
         <v>165</v>
       </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
         <v>166</v>
       </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>34</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>167</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>2568.25</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>169</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>170</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>171</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2882,10 +2996,25 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>APEXIDONE 4MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>BI-KETOGESIC 150 MG 30 TAB.</t>
   </si>
   <si>
@@ -156,9 +168,6 @@
   </si>
   <si>
     <t>CIPRAPRO 10MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
   </si>
   <si>
     <t>237.00</t>
@@ -1242,7 +1251,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1251,14 +1260,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1275,7 +1284,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1284,14 +1293,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1324,13 +1333,13 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1341,7 +1350,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1357,24 +1366,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1383,20 +1392,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1407,7 +1416,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1429,7 +1438,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1462,7 +1471,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1473,7 +1482,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1489,7 +1498,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1499,14 +1508,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1515,14 +1524,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1532,11 +1541,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1548,20 +1557,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1588,13 +1597,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1621,7 +1630,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1654,7 +1663,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1687,7 +1696,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1697,14 +1706,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1713,14 +1722,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1730,14 +1739,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1746,14 +1755,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1763,11 +1772,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1779,14 +1788,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1796,14 +1805,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1812,20 +1821,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1852,24 +1861,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1878,14 +1887,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1895,11 +1904,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1918,7 +1927,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1928,11 +1937,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1944,14 +1953,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1961,14 +1970,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1984,7 +1993,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2034,7 +2043,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2050,7 +2059,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2067,7 +2076,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2083,7 +2092,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2093,14 +2102,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2109,14 +2118,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2126,14 +2135,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2149,7 +2158,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2159,14 +2168,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2182,7 +2191,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2192,11 +2201,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2208,14 +2217,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2225,11 +2234,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2241,14 +2250,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2258,11 +2267,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2274,14 +2283,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2291,14 +2300,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2307,14 +2316,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2324,14 +2333,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2340,14 +2349,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2364,7 +2373,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2380,7 +2389,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2413,7 +2422,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2430,7 +2439,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2446,7 +2455,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2456,14 +2465,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2472,20 +2481,20 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2496,7 +2505,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2512,13 +2521,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2545,7 +2554,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2578,21 +2587,21 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>49</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2604,20 +2613,20 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2628,7 +2637,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>78</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2644,24 +2653,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2670,20 +2679,20 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2694,7 +2703,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>78</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2710,59 +2719,92 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>60</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
         <v>168</v>
       </c>
-      <c t="s" r="Q54" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>2568.25</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
         <v>169</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>38</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
         <v>170</v>
       </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
         <v>171</v>
       </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c t="s" r="Q55" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>2609.8299999999999</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>172</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>173</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>174</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3011,10 +3053,15 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -527,7 +527,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 5:57 PM</t>
+    <t>Sunday, 31 August, 2025 6:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -86,6 +86,9 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>ARTICU-SAFE 50MG 30 CAPS.</t>
+  </si>
+  <si>
     <t>BI-KETOGESIC 150 MG 30 TAB.</t>
   </si>
   <si>
@@ -284,6 +287,18 @@
     <t>89.6000</t>
   </si>
   <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -425,6 +440,24 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -446,6 +479,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>189.00</t>
+  </si>
+  <si>
+    <t>94.5000</t>
+  </si>
+  <si>
     <t>WITHSTAND CREAM</t>
   </si>
   <si>
@@ -527,7 +569,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 6:26 PM</t>
+    <t>Sunday, 31 August, 2025 6:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1267,7 +1309,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1277,14 +1319,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1293,14 +1335,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1310,14 +1352,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1326,14 +1368,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1343,11 +1385,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>20</v>
@@ -1359,31 +1401,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1392,31 +1434,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1425,31 +1467,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1458,28 +1500,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1491,31 +1533,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1524,14 +1566,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1541,14 +1583,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1557,14 +1599,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1574,11 +1616,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1590,28 +1632,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1623,28 +1665,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1656,14 +1698,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1673,11 +1715,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1689,14 +1731,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1706,11 +1748,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1722,14 +1764,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1739,14 +1781,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1755,14 +1797,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1772,14 +1814,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1795,7 +1837,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1805,11 +1847,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1821,14 +1863,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1838,14 +1880,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1854,28 +1896,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
@@ -1887,31 +1929,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1927,7 +1969,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1937,14 +1979,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1953,14 +1995,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1970,11 +2012,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1993,7 +2035,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2010,7 +2052,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2026,7 +2068,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2036,14 +2078,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2052,14 +2094,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2069,14 +2111,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2085,14 +2127,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2102,14 +2144,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2118,14 +2160,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2135,11 +2177,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2151,14 +2193,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2168,14 +2210,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>110</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2184,14 +2226,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2201,11 +2243,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2217,14 +2259,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2234,14 +2276,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2257,7 +2299,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2267,11 +2309,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2283,14 +2325,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2300,11 +2342,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2316,14 +2358,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2333,14 +2375,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2356,7 +2398,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2366,11 +2408,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2382,14 +2424,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2399,11 +2441,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2415,14 +2457,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2432,14 +2474,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2448,14 +2490,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2465,14 +2507,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2481,14 +2523,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2498,11 +2540,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2514,31 +2556,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2547,7 +2589,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2564,14 +2606,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2580,14 +2622,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2597,11 +2639,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2613,31 +2655,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2646,31 +2688,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2679,28 +2721,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>61</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2712,31 +2754,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>81</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2745,66 +2787,231 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>50</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>168</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>169</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>39</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>170</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
         <v>171</v>
       </c>
-      <c t="s" r="Q55" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>2609.8299999999999</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
+      <c t="s" r="Q56" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
         <v>172</v>
       </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>134</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>39</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
         <v>173</v>
       </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
         <v>174</v>
       </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c t="s" r="Q57" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>175</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>176</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>39</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>177</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>179</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>61</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>39</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>180</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>182</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>183</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>39</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>184</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>2859.7399999999998</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
+        <v>186</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
+        <v>187</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>188</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3058,10 +3265,35 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -137,6 +137,21 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>129.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
@@ -182,9 +197,6 @@
     <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>188.00</t>
   </si>
   <si>
@@ -317,6 +329,18 @@
     <t>6:0</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -356,9 +380,6 @@
     <t>MOTILIUM 10MG 40 F.C.TAB.</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>100.00</t>
   </si>
   <si>
@@ -401,9 +422,6 @@
     <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>110.00</t>
   </si>
   <si>
@@ -413,9 +431,6 @@
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>21.00</t>
   </si>
   <si>
@@ -554,7 +569,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>8.0000</t>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
   </si>
   <si>
     <t>معجون سيجنال 50 مل</t>
@@ -569,7 +587,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 6:35 PM</t>
+    <t>Sunday, 31 August, 2025 6:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1474,7 +1492,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1484,14 +1502,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1500,31 +1518,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1533,14 +1551,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1550,11 +1568,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1566,31 +1584,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1599,14 +1617,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1616,14 +1634,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1632,14 +1650,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1672,21 +1690,21 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1698,28 +1716,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1731,14 +1749,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1748,11 +1766,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1764,14 +1782,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1781,11 +1799,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1797,14 +1815,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1821,7 +1839,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1837,7 +1855,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1847,14 +1865,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1863,14 +1881,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1880,11 +1898,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1920,7 +1938,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1936,21 +1954,21 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -1962,20 +1980,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2002,7 +2020,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2012,14 +2030,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2028,14 +2046,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2045,11 +2063,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2061,14 +2079,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2078,11 +2096,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2094,14 +2112,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2111,14 +2129,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2127,14 +2145,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2144,14 +2162,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2160,14 +2178,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2177,14 +2195,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2193,14 +2211,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2210,14 +2228,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2226,14 +2244,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2243,11 +2261,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2259,14 +2277,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2276,14 +2294,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>115</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2292,14 +2310,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2309,11 +2327,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2325,14 +2343,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2342,14 +2360,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2358,14 +2376,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2375,11 +2393,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2391,14 +2409,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2408,11 +2426,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2424,14 +2442,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2441,14 +2459,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2457,14 +2475,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2474,11 +2492,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2490,14 +2508,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2507,11 +2525,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2523,14 +2541,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2540,14 +2558,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2556,14 +2574,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2573,11 +2591,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2589,14 +2607,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2606,11 +2624,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2622,14 +2640,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2639,14 +2657,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2655,14 +2673,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2672,11 +2690,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2688,14 +2706,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2705,14 +2723,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2721,31 +2739,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2754,14 +2772,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2771,14 +2789,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2787,28 +2805,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2820,28 +2838,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2853,31 +2871,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2886,14 +2904,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2903,11 +2921,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2919,14 +2937,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2936,14 +2954,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2952,14 +2970,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2969,49 +2987,148 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>184</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>65</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>39</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
         <v>185</v>
       </c>
-      <c t="s" r="Q60" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>2859.7399999999998</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
         <v>186</v>
       </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>65</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>39</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
         <v>187</v>
       </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>188</v>
       </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>189</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>39</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>190</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>3044.7399999999998</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>192</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>193</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>194</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3290,10 +3407,25 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -587,7 +587,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 6:37 PM</t>
+    <t>Sunday, 31 August, 2025 6:51 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -428,6 +428,15 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>SETRONOMET 8 MG 4 ORAL DIS. TABS.</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>220.0000</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -587,7 +596,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 6:51 PM</t>
+    <t>Sunday, 31 August, 2025 6:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2548,7 +2557,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2581,7 +2590,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2598,7 +2607,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2614,7 +2623,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2647,7 +2656,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2680,7 +2689,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2713,7 +2722,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2730,7 +2739,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2746,7 +2755,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>86</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2756,14 +2765,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2772,14 +2781,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2812,13 +2821,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2829,7 +2838,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2845,13 +2854,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2878,7 +2887,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2911,21 +2920,21 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>55</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2937,14 +2946,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2961,7 +2970,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>86</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2977,7 +2986,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2987,14 +2996,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3003,14 +3012,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3024,10 +3033,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>92</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3036,7 +3045,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3053,14 +3062,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3069,14 +3078,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>65</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3090,45 +3099,78 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
         <v>191</v>
       </c>
-      <c t="s" r="Q63" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>3044.7399999999998</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
         <v>192</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>39</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
         <v>193</v>
       </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
         <v>194</v>
       </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c t="s" r="Q64" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>3264.7399999999998</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>195</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>196</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>197</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3422,10 +3464,15 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -584,6 +584,21 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>سيتي بيبي رقم 5</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>200.0000</t>
+  </si>
+  <si>
+    <t>شامبو جونسون 100 مل</t>
+  </si>
+  <si>
+    <t>فرشه شعر اطفال الجو</t>
+  </si>
+  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
@@ -596,7 +611,13 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 6:52 PM</t>
+    <t>مناديل FINE</t>
+  </si>
+  <si>
+    <t>35:0</t>
+  </si>
+  <si>
+    <t>Sunday, 31 August, 2025 7:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3118,7 +3139,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>51</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3128,49 +3149,181 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
         <v>194</v>
       </c>
-      <c t="s" r="Q64" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>3264.7399999999998</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>65</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>39</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>178</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
         <v>195</v>
       </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>86</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>39</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>178</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
         <v>196</v>
       </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
         <v>197</v>
       </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>39</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>198</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>200</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>201</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>39</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>87</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>3544.7399999999998</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>202</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>203</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>204</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3469,10 +3622,30 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -194,6 +194,18 @@
     <t>78.2100</t>
   </si>
   <si>
+    <t>CLOZAPEX 100MG 50 TAB</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
   </si>
   <si>
@@ -362,12 +374,15 @@
     <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
   </si>
   <si>
-    <t>135.00</t>
-  </si>
-  <si>
     <t>135.0000</t>
   </si>
   <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
     <t>MOOV MASSAGE CREAM 40 GM</t>
   </si>
   <si>
@@ -389,10 +404,10 @@
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
-    <t>1:5</t>
-  </si>
-  <si>
-    <t>33.0000</t>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>1:3</t>
   </si>
   <si>
     <t>ORACURE ORAL GEL 30 GM</t>
@@ -416,6 +431,12 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>PK-MERZ 100MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
     <t>PRIDOCAINE CREAM 15 GM</t>
   </si>
   <si>
@@ -428,6 +449,15 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>RAMIXOLE 1 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
     <t>SETRONOMET 8 MG 4 ORAL DIS. TABS.</t>
   </si>
   <si>
@@ -437,6 +467,9 @@
     <t>220.0000</t>
   </si>
   <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -536,9 +569,6 @@
     <t>27.00</t>
   </si>
   <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
@@ -578,6 +608,12 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -617,7 +653,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 7:01 PM</t>
+    <t>Sunday, 31 August, 2025 7:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1687,7 +1723,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1697,14 +1733,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1713,14 +1749,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1753,21 +1789,21 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1779,28 +1815,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1812,14 +1848,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1829,11 +1865,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1845,14 +1881,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1862,11 +1898,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1878,14 +1914,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1902,7 +1938,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1918,7 +1954,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1928,14 +1964,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1944,14 +1980,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1961,11 +1997,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2001,7 +2037,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2017,21 +2053,21 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -2043,20 +2079,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2083,7 +2119,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2093,14 +2129,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2109,14 +2145,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2126,11 +2162,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2142,14 +2178,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2159,11 +2195,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2175,14 +2211,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2192,14 +2228,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>109</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2215,7 +2251,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2225,14 +2261,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2241,14 +2277,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2258,11 +2294,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2274,7 +2310,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2291,14 +2327,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2307,14 +2343,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2324,14 +2360,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2347,7 +2383,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2361,7 +2397,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2373,14 +2409,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2390,14 +2426,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>109</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2406,14 +2442,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2423,11 +2459,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2439,14 +2475,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2456,14 +2492,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2479,7 +2515,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2489,11 +2525,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2505,14 +2541,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2522,11 +2558,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2538,14 +2574,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2555,14 +2591,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2571,14 +2607,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2588,7 +2624,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2611,7 +2647,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2621,11 +2657,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2637,14 +2673,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2654,11 +2690,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2670,14 +2706,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2687,14 +2723,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2703,14 +2739,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2720,14 +2756,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2736,14 +2772,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2753,14 +2789,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2769,14 +2805,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2786,11 +2822,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2802,14 +2838,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2819,11 +2855,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -2835,14 +2871,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2852,11 +2888,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -2868,31 +2904,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2901,7 +2937,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2918,14 +2954,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2934,14 +2970,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2951,11 +2987,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2967,31 +3003,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3000,31 +3036,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>86</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3033,14 +3069,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>69</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3050,11 +3086,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3066,31 +3102,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>92</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3099,31 +3135,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>86</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3132,14 +3168,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3149,11 +3185,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3165,14 +3201,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3182,14 +3218,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3198,14 +3234,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>86</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3215,11 +3251,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3231,14 +3267,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>69</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3255,7 +3291,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3264,14 +3300,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>201</v>
+        <v>69</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3281,49 +3317,214 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>3544.7399999999998</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
-        <v>202</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
         <v>203</v>
       </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>51</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>39</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
         <v>204</v>
       </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>206</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>69</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>39</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>188</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>207</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>90</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>39</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>188</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>208</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>209</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>39</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>210</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>212</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>213</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>39</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>91</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>4056.7399999999998</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>214</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>215</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>216</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3642,10 +3843,35 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -569,6 +569,9 @@
     <t>27.00</t>
   </si>
   <si>
+    <t xml:space="preserve">اسبلاش </t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
@@ -653,7 +656,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 7:07 PM</t>
+    <t>Sunday, 31 August, 2025 7:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3175,7 +3178,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>69</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3185,11 +3188,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>52</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3201,14 +3204,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3218,14 +3221,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3234,14 +3237,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>43</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3251,14 +3254,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3267,14 +3270,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3284,14 +3287,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>200</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3300,7 +3303,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3317,14 +3320,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>57</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>90</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3333,14 +3336,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3350,14 +3353,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3366,14 +3369,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3383,11 +3386,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3406,7 +3409,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3416,11 +3419,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3439,7 +3442,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>90</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3449,11 +3452,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3465,14 +3468,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3482,49 +3485,82 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
+        <v>212</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>213</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>214</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>39</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>91</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
         <v>92</v>
       </c>
-      <c t="s" r="Q73" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>4056.7399999999998</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
-        <v>214</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
+      <c t="s" r="Q74" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>4116.7399999999998</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
         <v>215</v>
       </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
         <v>216</v>
       </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>217</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3868,10 +3904,15 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -656,7 +656,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 7:09 PM</t>
+    <t>Sunday, 31 August, 2025 7:10 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -215,6 +215,15 @@
     <t>188.0000</t>
   </si>
   <si>
+    <t>CO-TAREG 160/12.5MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>225.0000</t>
+  </si>
+  <si>
     <t>CYNCHOLINE PLUS 20 CAPS.</t>
   </si>
   <si>
@@ -497,6 +506,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
     <t>TARGOMASH 80MG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -656,7 +674,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 7:10 PM</t>
+    <t>Sunday, 31 August, 2025 7:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1792,7 +1810,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1802,14 +1820,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1818,20 +1836,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1858,13 +1876,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1891,7 +1909,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1924,7 +1942,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1957,7 +1975,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1967,14 +1985,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1983,14 +2001,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2000,14 +2018,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2016,14 +2034,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2033,11 +2051,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2049,14 +2067,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2066,14 +2084,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2082,20 +2100,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2122,21 +2140,21 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -2148,14 +2166,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2165,14 +2183,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2181,14 +2199,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2198,11 +2216,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2221,7 +2239,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2231,11 +2249,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2247,14 +2265,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2264,14 +2282,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>113</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2280,14 +2298,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2297,14 +2315,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>116</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2320,7 +2338,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2363,14 +2381,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2379,14 +2397,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2396,11 +2414,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2412,14 +2430,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2429,14 +2447,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2452,7 +2470,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2469,7 +2487,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2485,7 +2503,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2495,14 +2513,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>132</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2518,7 +2536,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2528,14 +2546,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>135</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2551,7 +2569,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2561,11 +2579,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2577,14 +2595,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2594,11 +2612,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2610,14 +2628,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2627,11 +2645,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2643,14 +2661,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2660,11 +2678,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2676,14 +2694,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2693,14 +2711,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2716,7 +2734,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2733,7 +2751,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2749,7 +2767,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2782,7 +2800,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2792,11 +2810,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2808,14 +2826,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2825,11 +2843,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2848,7 +2866,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2865,7 +2883,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2881,7 +2899,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2914,7 +2932,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2947,7 +2965,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2980,7 +2998,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2997,7 +3015,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3013,7 +3031,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3023,11 +3041,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3039,14 +3057,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3056,14 +3074,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3072,20 +3090,20 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>69</v>
+        <v>178</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3096,7 +3114,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3112,7 +3130,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3129,7 +3147,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3145,13 +3163,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3159,7 +3177,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>64</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3171,28 +3189,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>53</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3204,28 +3222,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>188</v>
+        <v>55</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3237,14 +3255,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3254,14 +3272,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>52</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3270,14 +3288,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3287,11 +3305,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3303,14 +3321,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3320,14 +3338,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>201</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3336,14 +3354,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>69</v>
+        <v>201</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3353,14 +3371,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>57</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3376,7 +3394,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3393,7 +3411,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3402,14 +3420,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3419,14 +3437,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>190</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3435,14 +3453,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3452,11 +3470,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3468,14 +3486,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3485,11 +3503,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3501,14 +3519,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>93</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3518,49 +3536,115 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>91</v>
+        <v>195</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>92</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>4116.7399999999998</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
         <v>215</v>
       </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
         <v>216</v>
       </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>39</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
         <v>217</v>
       </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>219</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>220</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>39</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>94</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>4386.7849999999999</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>221</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>222</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>223</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3909,10 +3993,20 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -545,7 +545,7 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>5:1</t>
+    <t>7:1</t>
   </si>
   <si>
     <t>51.00</t>
@@ -674,7 +674,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 7:17 PM</t>
+    <t>Sunday, 31 August, 2025 7:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -173,6 +173,12 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -522,6 +528,15 @@
   </si>
   <si>
     <t>24.7500</t>
+  </si>
+  <si>
+    <t>TAVACIN 500MG 5 F.C. TAB</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
   </si>
   <si>
     <t>TORSERETIC 20MG 30 TABS.</t>
@@ -1678,24 +1693,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1704,31 +1719,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1737,14 +1752,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1754,11 +1769,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -1770,14 +1785,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1787,14 +1802,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1803,14 +1818,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1820,14 +1835,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1836,14 +1851,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1853,14 +1868,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1869,28 +1884,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1902,28 +1917,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1935,14 +1950,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1952,11 +1967,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1968,14 +1983,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1985,11 +2000,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -2001,14 +2016,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2018,14 +2033,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2034,14 +2049,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2051,14 +2066,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2067,14 +2082,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2084,11 +2099,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2100,14 +2115,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2117,14 +2132,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2133,28 +2148,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -2166,28 +2181,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2199,14 +2214,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2216,14 +2231,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2232,14 +2247,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2249,11 +2264,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2265,14 +2280,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2282,11 +2297,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2315,14 +2330,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2331,14 +2346,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2348,14 +2363,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2364,14 +2379,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2381,11 +2396,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2397,7 +2412,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2414,14 +2429,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2437,7 +2452,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2447,11 +2462,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2470,7 +2485,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2484,10 +2499,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2496,14 +2511,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2513,14 +2528,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2529,14 +2544,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2546,14 +2561,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>135</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2562,14 +2577,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2579,14 +2594,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2595,14 +2610,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2612,11 +2627,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2635,7 +2650,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2645,11 +2660,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2668,7 +2683,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2678,7 +2693,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2701,7 +2716,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2711,11 +2726,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2727,14 +2742,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2744,14 +2759,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2760,14 +2775,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2777,14 +2792,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2793,14 +2808,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2810,11 +2825,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2826,14 +2841,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2843,11 +2858,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2859,14 +2874,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2876,11 +2891,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2892,14 +2907,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2909,14 +2924,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2925,14 +2940,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2942,11 +2957,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -2958,14 +2973,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2975,11 +2990,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -2991,14 +3006,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3008,11 +3023,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3024,14 +3039,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3041,11 +3056,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3057,14 +3072,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3074,11 +3089,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3090,14 +3105,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3107,11 +3122,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3123,14 +3138,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3140,14 +3155,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3156,31 +3171,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>72</v>
+        <v>183</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3189,14 +3204,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3206,14 +3221,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3222,28 +3237,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>64</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3262,21 +3277,21 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>52</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>53</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3288,28 +3303,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>194</v>
+        <v>57</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3328,7 +3343,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3338,14 +3353,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>52</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3354,14 +3369,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3371,11 +3386,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3387,14 +3402,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3404,14 +3419,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>207</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3420,14 +3435,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>72</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3437,14 +3452,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>57</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3453,14 +3468,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3470,14 +3485,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q72" s="12">
         <v>212</v>
-      </c>
-      <c t="s" r="Q72" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3493,7 +3508,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3503,14 +3518,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>196</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3519,14 +3534,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3536,11 +3551,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3552,14 +3567,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3569,11 +3584,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3592,7 +3607,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3602,49 +3617,115 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>94</v>
+        <v>200</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>95</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>4386.7849999999999</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>220</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
         <v>221</v>
       </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>39</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
         <v>222</v>
       </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
         <v>223</v>
       </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c t="s" r="Q77" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>224</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>225</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>39</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>96</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>4503.5150000000003</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
+        <v>226</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
+        <v>227</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>228</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4003,10 +4084,20 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -290,6 +290,18 @@
     <t>20.7900</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
   </si>
   <si>
@@ -371,12 +383,6 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
     <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
   </si>
   <si>
@@ -689,7 +695,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 7:26 PM</t>
+    <t>Sunday, 31 August, 2025 7:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2089,7 +2095,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2099,14 +2105,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2115,14 +2121,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2132,11 +2138,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2172,7 +2178,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2188,21 +2194,21 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2214,20 +2220,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2254,7 +2260,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2264,14 +2270,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2280,14 +2286,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2297,11 +2303,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2313,14 +2319,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2330,11 +2336,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2346,14 +2352,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2363,14 +2369,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>118</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2386,7 +2392,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2396,14 +2402,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2412,14 +2418,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2429,11 +2435,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2445,7 +2451,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2462,14 +2468,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2485,7 +2491,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2495,11 +2501,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2518,7 +2524,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2532,10 +2538,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2544,14 +2550,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2561,14 +2567,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2577,14 +2583,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2594,14 +2600,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>137</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2610,14 +2616,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2627,14 +2633,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2643,14 +2649,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2660,11 +2666,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2683,7 +2689,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2693,11 +2699,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2716,7 +2722,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2726,7 +2732,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2749,7 +2755,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2759,11 +2765,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2775,14 +2781,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2792,14 +2798,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2808,14 +2814,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2825,14 +2831,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2841,14 +2847,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2858,11 +2864,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2874,14 +2880,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2891,11 +2897,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2907,14 +2913,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2924,11 +2930,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2940,14 +2946,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2957,14 +2963,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2973,14 +2979,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2990,11 +2996,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3006,14 +3012,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3023,11 +3029,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3039,14 +3045,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3056,11 +3062,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3072,14 +3078,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3089,14 +3095,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3105,7 +3111,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3122,14 +3128,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3138,14 +3144,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3155,14 +3161,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3171,14 +3177,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>183</v>
+        <v>99</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3188,14 +3194,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3204,14 +3210,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3221,11 +3227,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3237,31 +3243,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3270,28 +3276,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3303,14 +3309,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3320,11 +3326,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3343,21 +3349,21 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>52</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3369,14 +3375,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>199</v>
+        <v>74</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3386,11 +3392,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>52</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3402,14 +3408,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>43</v>
+        <v>201</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3419,14 +3425,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>95</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3435,14 +3441,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>43</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3452,14 +3458,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3468,14 +3474,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3485,14 +3491,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>212</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3501,7 +3507,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3518,14 +3524,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>59</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>95</v>
+        <v>214</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3541,7 +3547,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3555,10 +3561,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3567,14 +3573,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3584,11 +3590,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3600,14 +3606,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3617,11 +3623,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3633,14 +3639,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>221</v>
+        <v>99</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3650,11 +3656,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3666,14 +3672,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3683,49 +3689,82 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>96</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>97</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>4503.5150000000003</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
         <v>226</v>
       </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
         <v>227</v>
       </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>39</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>100</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="P80" s="13">
+        <v>4519.3549999999996</v>
+      </c>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="14">
         <v>228</v>
       </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c t="s" r="G81" s="15">
+        <v>229</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c t="s" r="K81" s="17">
+        <v>230</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="377">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4094,10 +4133,15 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -431,6 +431,15 @@
     <t>1:3</t>
   </si>
   <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>ORACURE ORAL GEL 30 GM</t>
   </si>
   <si>
@@ -554,6 +563,15 @@
     <t>40.5900</t>
   </si>
   <si>
+    <t>TOTAVIT SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -590,9 +608,6 @@
     <t>76.00</t>
   </si>
   <si>
-    <t>76.0000</t>
-  </si>
-  <si>
     <t>ZISROCIN 500MG 3 CAP</t>
   </si>
   <si>
@@ -695,7 +710,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 7:30 PM</t>
+    <t>Sunday, 31 August, 2025 7:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2656,7 +2671,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2673,7 +2688,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2689,7 +2704,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2699,11 +2714,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2715,14 +2730,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2732,11 +2747,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2748,14 +2763,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2765,11 +2780,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2781,14 +2796,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2798,11 +2813,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2814,14 +2829,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2831,14 +2846,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2854,7 +2869,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2871,7 +2886,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2887,7 +2902,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2920,7 +2935,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2930,11 +2945,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2946,14 +2961,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2963,11 +2978,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2986,7 +3001,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3003,7 +3018,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3019,7 +3034,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3052,7 +3067,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3085,7 +3100,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3118,7 +3133,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3135,7 +3150,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3168,7 +3183,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3184,7 +3199,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3201,7 +3216,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3217,7 +3232,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3227,14 +3242,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3243,14 +3258,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3260,14 +3275,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3276,20 +3291,20 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3300,7 +3315,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3316,7 +3331,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3333,7 +3348,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3349,13 +3364,13 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3363,7 +3378,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3382,21 +3397,21 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>52</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>53</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3408,28 +3423,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>201</v>
+        <v>57</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3448,7 +3463,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3458,14 +3473,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>52</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3474,14 +3489,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3491,11 +3506,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3507,14 +3522,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3524,14 +3539,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>214</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3540,14 +3555,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>74</v>
+        <v>213</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3557,14 +3572,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>59</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3573,14 +3588,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3590,14 +3605,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q75" s="12">
         <v>219</v>
-      </c>
-      <c t="s" r="Q75" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3623,14 +3638,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>203</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3639,14 +3654,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3656,11 +3671,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3672,14 +3687,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3689,11 +3704,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3712,7 +3727,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>227</v>
+        <v>99</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3722,49 +3737,115 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
+        <v>208</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>227</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>228</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>39</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>229</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>230</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>231</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>232</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>39</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>100</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
         <v>101</v>
       </c>
-      <c t="s" r="Q79" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" ht="24.75" customHeight="1">
-      <c r="P80" s="13">
-        <v>4519.3549999999996</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="14">
-        <v>228</v>
-      </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c t="s" r="G81" s="15">
-        <v>229</v>
-      </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-      <c t="s" r="K81" s="17">
-        <v>230</v>
-      </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+      <c t="s" r="Q81" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>4647.3549999999996</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>233</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>234</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>235</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4138,10 +4219,20 @@
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -269,6 +269,12 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
     <t>DIMICAP FACIAL WASH 250 ML</t>
   </si>
   <si>
@@ -350,6 +356,15 @@
     <t>53.4400</t>
   </si>
   <si>
+    <t>FUNGIBACID 28% NAIL SOLN. 5 ML</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -401,9 +416,6 @@
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
     <t>MOOV MASSAGE CREAM 40 GM</t>
   </si>
   <si>
@@ -440,6 +452,15 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">OMEGA 3  SYRUP</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>ORACURE ORAL GEL 30 GM</t>
   </si>
   <si>
@@ -500,6 +521,15 @@
     <t>SINEMET 25/250 MG 20 TABS.</t>
   </si>
   <si>
+    <t>SOOTONIC HAIR LOTION 120 ML</t>
+  </si>
+  <si>
+    <t>169.00</t>
+  </si>
+  <si>
+    <t>169.0000</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -689,6 +719,12 @@
     <t>شامبو جونسون 100 مل</t>
   </si>
   <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
     <t>فرشه شعر اطفال الجو</t>
   </si>
   <si>
@@ -710,7 +746,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 7:41 PM</t>
+    <t>Sunday, 31 August, 2025 7:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2044,7 +2080,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2058,7 +2094,7 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2070,14 +2106,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2087,14 +2123,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2103,14 +2139,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2120,11 +2156,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -2136,14 +2172,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2153,14 +2189,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2169,14 +2205,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2186,11 +2222,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2202,14 +2238,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2219,14 +2255,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2235,28 +2271,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2268,28 +2304,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2301,14 +2337,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2318,14 +2354,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2334,7 +2370,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2351,11 +2387,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2367,14 +2403,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2384,11 +2420,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2407,7 +2443,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2417,14 +2453,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>122</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2433,14 +2469,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2450,14 +2486,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2473,7 +2509,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2483,14 +2519,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2499,14 +2535,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2516,14 +2552,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2539,7 +2575,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2553,10 +2589,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2565,14 +2601,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2582,14 +2618,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2605,7 +2641,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2615,11 +2651,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2631,14 +2667,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2648,14 +2684,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>139</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2664,14 +2700,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2681,14 +2717,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2697,14 +2733,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2714,14 +2750,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2730,14 +2766,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2747,14 +2783,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2763,24 +2799,24 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2803,7 +2839,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2813,11 +2849,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2829,14 +2865,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2846,11 +2882,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2862,14 +2898,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2879,14 +2915,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2895,7 +2931,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2912,7 +2948,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>28</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -2935,7 +2971,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2945,11 +2981,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2961,14 +2997,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2978,14 +3014,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3001,7 +3037,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3034,7 +3070,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3051,7 +3087,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3077,14 +3113,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3093,14 +3129,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3110,14 +3146,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3126,14 +3162,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3143,14 +3179,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3159,14 +3195,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3176,14 +3212,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3192,14 +3228,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3209,11 +3245,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3225,14 +3261,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3242,14 +3278,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3258,14 +3294,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3275,14 +3311,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3291,14 +3327,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3308,14 +3344,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3324,14 +3360,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3341,11 +3377,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3357,7 +3393,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3370,15 +3406,15 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3390,14 +3426,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3407,11 +3443,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3423,14 +3459,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>57</v>
+        <v>201</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3440,14 +3476,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3463,24 +3499,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>52</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>53</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3489,14 +3525,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>206</v>
+        <v>74</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3506,11 +3542,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3529,13 +3565,13 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3546,7 +3582,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3562,21 +3598,21 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>213</v>
+        <v>57</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3588,7 +3624,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3605,14 +3641,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>52</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>219</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3621,14 +3657,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3638,14 +3674,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>59</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3654,14 +3690,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3671,14 +3707,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3687,14 +3723,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>74</v>
+        <v>223</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3704,11 +3740,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3727,7 +3763,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3737,14 +3773,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>229</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3753,14 +3789,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>228</v>
+        <v>74</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3770,14 +3806,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3786,14 +3822,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>232</v>
+        <v>51</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3803,49 +3839,214 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>100</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>235</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>74</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>39</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>217</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>236</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>237</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>39</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>102</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>238</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
         <v>101</v>
       </c>
-      <c t="s" r="Q81" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>4647.3549999999996</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
-        <v>233</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
-        <v>234</v>
-      </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
-        <v>235</v>
-      </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>39</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>217</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>239</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>240</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>39</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>241</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>243</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>244</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>39</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>102</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>5074.3549999999996</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>245</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>246</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>247</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4229,10 +4430,35 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -59,6 +59,18 @@
     <t>58.0000</t>
   </si>
   <si>
+    <t>AMARYL 3 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AMIPRIDE 50MG 30 TAB</t>
   </si>
   <si>
@@ -71,9 +83,6 @@
     <t>36.6300</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>APEXIDONE 4MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -299,105 +308,108 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>7:2</t>
+    <t>7:1</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>FLUREST N 20 TABS</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>FORADIL12 MG 60 CAPS</t>
+  </si>
+  <si>
+    <t>560.00</t>
+  </si>
+  <si>
+    <t>89.6000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>FUNGIBACID 28% NAIL SOLN. 5 ML</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
     <t>15.8400</t>
   </si>
   <si>
-    <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>FAYCID HAIR OIL 60 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>FLUREST N 20 TABS</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>FORADIL12 MG 60 CAPS</t>
-  </si>
-  <si>
-    <t>560.00</t>
-  </si>
-  <si>
-    <t>89.6000</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>FUNGIBACID 28% NAIL SOLN. 5 ML</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>59.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
     <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
   </si>
   <si>
@@ -614,9 +626,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>7:1</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -746,7 +755,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 7:52 PM</t>
+    <t>Sunday, 31 August, 2025 8:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1420,7 +1429,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1430,14 +1439,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>18</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>19</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1446,14 +1455,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1463,14 +1472,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1479,14 +1488,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1496,14 +1505,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>19</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1512,14 +1521,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1529,14 +1538,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1545,14 +1554,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1562,14 +1571,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>33</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1585,7 +1594,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1595,14 +1604,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1611,31 +1620,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1644,31 +1653,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1677,14 +1686,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1694,14 +1703,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>49</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1717,24 +1726,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1743,31 +1752,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1776,31 +1785,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1809,20 +1818,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1833,7 +1842,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1849,7 +1858,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1859,14 +1868,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1875,14 +1884,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1899,7 +1908,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1915,7 +1924,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1932,7 +1941,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1948,7 +1957,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1958,14 +1967,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1974,20 +1983,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -2014,13 +2023,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2047,7 +2056,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2080,7 +2089,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2094,7 +2103,7 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2106,14 +2115,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2123,11 +2132,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2146,7 +2155,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2156,14 +2165,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2172,14 +2181,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2189,14 +2198,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2205,14 +2214,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2222,14 +2231,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2238,14 +2247,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2255,11 +2264,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2271,14 +2280,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2288,14 +2297,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2304,20 +2313,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2328,7 +2337,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2344,24 +2353,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2370,14 +2379,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2394,7 +2403,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2410,7 +2419,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2420,11 +2429,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2436,14 +2445,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2453,11 +2462,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2476,7 +2485,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2486,11 +2495,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2502,14 +2511,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2519,14 +2528,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>127</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2535,14 +2544,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2552,14 +2561,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2568,14 +2577,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2585,14 +2594,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2601,7 +2610,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2618,14 +2627,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2634,14 +2643,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2651,11 +2660,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2667,14 +2676,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2684,14 +2693,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2700,14 +2709,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2717,14 +2726,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2733,14 +2742,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2750,14 +2759,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>143</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2766,14 +2775,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2783,14 +2792,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2799,31 +2808,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2832,28 +2841,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2865,14 +2874,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2882,11 +2891,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2898,14 +2907,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2915,7 +2924,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -2931,14 +2940,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2948,11 +2957,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2964,14 +2973,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2981,11 +2990,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2997,14 +3006,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3014,14 +3023,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3030,14 +3039,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3047,14 +3056,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3063,14 +3072,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3080,11 +3089,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3096,14 +3105,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3113,11 +3122,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3129,14 +3138,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3146,11 +3155,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3162,14 +3171,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3179,11 +3188,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3195,14 +3204,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3212,14 +3221,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3228,14 +3237,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3245,14 +3254,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3261,14 +3270,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3278,14 +3287,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3294,14 +3303,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3311,14 +3320,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3327,14 +3336,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3344,14 +3353,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3360,7 +3369,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3377,14 +3386,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3393,14 +3402,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3410,14 +3419,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3426,14 +3435,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3443,11 +3452,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3459,14 +3468,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>201</v>
+        <v>104</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3483,7 +3492,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3499,7 +3508,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3516,7 +3525,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3532,13 +3541,13 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3546,10 +3555,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>146</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3558,28 +3567,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3598,7 +3607,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3612,7 +3621,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>66</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3624,28 +3633,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>52</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3657,28 +3666,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>55</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3690,20 +3699,20 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>43</v>
+        <v>219</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3714,7 +3723,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>101</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3730,24 +3739,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>223</v>
+        <v>46</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3756,20 +3765,20 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>74</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3780,7 +3789,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>229</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3789,31 +3798,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>59</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>101</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3822,31 +3831,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3862,21 +3871,21 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3888,28 +3897,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>102</v>
+        <v>220</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>103</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3921,28 +3930,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>101</v>
+        <v>240</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>217</v>
+        <v>105</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>218</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -3954,28 +3963,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>240</v>
+        <v>104</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -3987,66 +3996,99 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>102</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>103</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>5074.3549999999996</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
-        <v>245</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
         <v>246</v>
       </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
         <v>247</v>
       </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>42</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>105</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>5118.9049999999997</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>248</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>249</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>250</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4455,10 +4497,15 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -260,6 +260,18 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>DEMARK FACE CREAM 30 GM</t>
   </si>
   <si>
@@ -389,9 +401,6 @@
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -704,10 +713,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>17:0</t>
+    <t>38.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -755,7 +761,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 8:03 PM</t>
+    <t>Sunday, 31 August, 2025 8:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2056,7 +2062,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2066,14 +2072,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2082,14 +2088,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2099,11 +2105,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2115,14 +2121,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2132,11 +2138,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2148,14 +2154,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2165,11 +2171,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2181,14 +2187,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2205,7 +2211,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2238,7 +2244,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2254,7 +2260,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2264,14 +2270,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2280,14 +2286,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2297,11 +2303,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2337,7 +2343,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2353,21 +2359,21 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>19</v>
@@ -2379,20 +2385,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2419,7 +2425,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2429,14 +2435,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2445,14 +2451,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2462,11 +2468,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2478,14 +2484,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2495,11 +2501,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2511,14 +2517,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2528,11 +2534,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2544,14 +2550,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2561,14 +2567,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>130</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2577,14 +2583,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2594,14 +2600,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>19</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2610,14 +2616,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2627,7 +2633,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2660,14 +2666,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2676,14 +2682,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2693,11 +2699,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2709,14 +2715,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2726,14 +2732,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2749,7 +2755,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2766,7 +2772,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2782,7 +2788,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2792,14 +2798,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>147</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2815,7 +2821,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2825,14 +2831,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>35</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>150</v>
-      </c>
-      <c t="s" r="Q50" s="12">
-        <v>19</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2848,13 +2854,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2865,7 +2871,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2881,13 +2887,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2914,7 +2920,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2924,11 +2930,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2940,14 +2946,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2957,11 +2963,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2973,14 +2979,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2990,11 +2996,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3006,14 +3012,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3023,11 +3029,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3039,14 +3045,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3056,14 +3062,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3079,7 +3085,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3096,7 +3102,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3112,7 +3118,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3145,7 +3151,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3155,11 +3161,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3171,14 +3177,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3188,11 +3194,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3211,7 +3217,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3244,7 +3250,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3261,7 +3267,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3277,7 +3283,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3310,7 +3316,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3343,7 +3349,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3376,7 +3382,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3393,7 +3399,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3426,7 +3432,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3442,7 +3448,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3459,7 +3465,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3475,7 +3481,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3508,7 +3514,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3525,7 +3531,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3541,7 +3547,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3574,13 +3580,13 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3588,10 +3594,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3600,28 +3606,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3640,7 +3646,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3654,7 +3660,7 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>69</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3666,28 +3672,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>55</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3699,14 +3705,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3716,11 +3722,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>55</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3732,14 +3738,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>46</v>
+        <v>222</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3756,7 +3762,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>104</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3772,7 +3778,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>46</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3782,14 +3788,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3798,14 +3804,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3822,7 +3828,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>232</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3831,7 +3837,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3848,14 +3854,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>104</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3871,7 +3877,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3885,10 +3891,10 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3897,14 +3903,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3914,11 +3920,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3930,14 +3936,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3947,11 +3953,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>105</v>
+        <v>223</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>106</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -3970,7 +3976,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>104</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3980,11 +3986,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>220</v>
+        <v>109</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>221</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -3996,14 +4002,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>108</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4013,11 +4019,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4029,14 +4035,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4046,49 +4052,82 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>105</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>106</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>5118.9049999999997</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
         <v>248</v>
       </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
         <v>249</v>
       </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>42</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>109</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>5146.665</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
         <v>250</v>
       </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
+        <v>251</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>252</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4502,10 +4541,15 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -281,6 +281,15 @@
     <t>140.0000</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
     <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
   </si>
   <si>
@@ -638,7 +647,7 @@
     <t>51.00</t>
   </si>
   <si>
-    <t>16.8300</t>
+    <t>33.6600</t>
   </si>
   <si>
     <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
@@ -713,7 +722,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>38.0000</t>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>21:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -761,7 +773,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 8:05 PM</t>
+    <t>Sunday, 31 August, 2025 8:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2128,7 +2140,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2145,7 +2157,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2161,7 +2173,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2175,7 +2187,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2187,14 +2199,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2204,11 +2216,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2227,7 +2239,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2237,14 +2249,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2253,14 +2265,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2270,14 +2282,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2286,14 +2298,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2303,14 +2315,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2319,14 +2331,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2336,11 +2348,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2352,14 +2364,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2369,14 +2381,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2385,20 +2397,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2425,21 +2437,21 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>19</v>
@@ -2451,14 +2463,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2475,7 +2487,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2491,7 +2503,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2501,11 +2513,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2517,14 +2529,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2534,11 +2546,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2557,7 +2569,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2567,11 +2579,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2583,14 +2595,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2600,14 +2612,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>133</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2616,14 +2628,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2633,14 +2645,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>19</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2649,14 +2661,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2666,7 +2678,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2699,14 +2711,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2715,14 +2727,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2732,11 +2744,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2748,14 +2760,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2765,14 +2777,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2788,7 +2800,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2805,7 +2817,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2821,7 +2833,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2831,14 +2843,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>35</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>150</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2854,7 +2866,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2864,14 +2876,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q51" s="12">
         <v>153</v>
-      </c>
-      <c t="s" r="Q51" s="12">
-        <v>19</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2887,13 +2899,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2904,7 +2916,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2920,13 +2932,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2953,7 +2965,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>111</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2963,11 +2975,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2979,14 +2991,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2996,11 +3008,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3012,14 +3024,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3029,11 +3041,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3045,14 +3057,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3062,11 +3074,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3078,14 +3090,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3095,14 +3107,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3118,7 +3130,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3135,7 +3147,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3151,7 +3163,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3184,7 +3196,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3194,11 +3206,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3210,14 +3222,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3227,11 +3239,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3250,7 +3262,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3283,7 +3295,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3300,7 +3312,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3316,7 +3328,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3349,7 +3361,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3382,7 +3394,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3415,7 +3427,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3432,7 +3444,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3465,7 +3477,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3481,7 +3493,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3498,7 +3510,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3514,7 +3526,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3547,7 +3559,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3564,7 +3576,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3580,7 +3592,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3597,7 +3609,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3613,13 +3625,13 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3627,10 +3639,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3639,28 +3651,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3679,7 +3691,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3693,7 +3705,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>69</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3705,28 +3717,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>55</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3738,14 +3750,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3755,11 +3767,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>55</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3771,14 +3783,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3795,7 +3807,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>108</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3811,7 +3823,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>46</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3821,14 +3833,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3837,14 +3849,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3861,7 +3873,7 @@
         <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>229</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3891,10 +3903,10 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>62</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>108</v>
+        <v>238</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3903,14 +3915,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3920,14 +3932,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3936,14 +3948,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3953,11 +3965,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -3969,14 +3981,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3986,11 +3998,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>109</v>
+        <v>226</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>110</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4002,14 +4014,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>108</v>
+        <v>246</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4019,11 +4031,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>223</v>
+        <v>112</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>224</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4035,14 +4047,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>111</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4052,11 +4064,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4085,49 +4097,82 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>109</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>110</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>5146.665</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
-        <v>250</v>
-      </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
-        <v>251</v>
-      </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
         <v>252</v>
       </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>253</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>42</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>112</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>5184.4949999999999</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
+        <v>254</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
+        <v>255</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>256</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4546,10 +4591,15 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -437,6 +437,15 @@
     <t>72.5000</t>
   </si>
   <si>
+    <t>LIMITLESS MAN MAX 30 TABS</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
     <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
   </si>
   <si>
@@ -464,6 +473,12 @@
     <t>100.0000</t>
   </si>
   <si>
+    <t>MYOGREL 75MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -560,6 +575,12 @@
     <t>169.0000</t>
   </si>
   <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -632,6 +653,9 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -773,7 +797,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 8:22 PM</t>
+    <t>Sunday, 31 August, 2025 8:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2744,11 +2768,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2760,14 +2784,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2777,11 +2801,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2793,14 +2817,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2810,14 +2834,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2833,7 +2857,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2850,7 +2874,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2866,7 +2890,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2876,14 +2900,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>153</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2899,7 +2923,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2909,11 +2933,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>19</v>
@@ -2925,31 +2949,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2958,14 +2982,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2975,14 +2999,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2991,28 +3015,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3031,7 +3055,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3041,11 +3065,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3057,14 +3081,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3074,11 +3098,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3090,14 +3114,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3111,7 +3135,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3123,14 +3147,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3140,14 +3164,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3156,14 +3180,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3173,11 +3197,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3189,14 +3213,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3206,14 +3230,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3222,14 +3246,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3239,11 +3263,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3255,7 +3279,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3272,11 +3296,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3288,14 +3312,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3305,11 +3329,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3321,14 +3345,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3338,14 +3362,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3354,7 +3378,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3371,11 +3395,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>51</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>19</v>
@@ -3387,14 +3411,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3404,14 +3428,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3420,14 +3444,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3437,11 +3461,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>19</v>
@@ -3453,14 +3477,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3470,14 +3494,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3486,14 +3510,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3503,11 +3527,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>19</v>
@@ -3519,14 +3543,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3536,14 +3560,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3552,14 +3576,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3569,11 +3593,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3585,14 +3609,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3602,14 +3626,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3618,14 +3642,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3635,14 +3659,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3651,31 +3675,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3684,14 +3708,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3701,11 +3725,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3717,14 +3741,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3734,14 +3758,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>69</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3750,31 +3774,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>55</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>56</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3790,7 +3814,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3800,11 +3824,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3816,31 +3840,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>111</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3849,28 +3873,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>232</v>
+        <v>60</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3882,7 +3906,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3899,14 +3923,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>55</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>238</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3915,14 +3939,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3932,14 +3956,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>62</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>111</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3948,14 +3972,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3965,14 +3989,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3981,14 +4005,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3998,11 +4022,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4014,14 +4038,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4031,14 +4055,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>112</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>113</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>246</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4054,7 +4078,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4064,14 +4088,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>227</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4080,14 +4104,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>54</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4120,7 +4144,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4130,49 +4154,181 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>112</v>
+        <v>234</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
+        <v>235</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>253</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>254</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>42</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>112</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
         <v>113</v>
       </c>
-      <c t="s" r="Q89" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>5184.4949999999999</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
-        <v>254</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
+      <c t="s" r="Q90" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
         <v>255</v>
       </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>111</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>42</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>234</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>235</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
         <v>256</v>
       </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>257</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>42</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>258</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>259</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>260</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>261</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>42</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>112</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>5512.835</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
+        <v>262</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
+        <v>263</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>264</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4596,10 +4752,30 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -314,6 +314,15 @@
     <t>194.0000</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>DOGMATIL 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -786,9 +795,6 @@
   </si>
   <si>
     <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
   </si>
   <si>
     <t>مناديل FINE</t>
@@ -2296,7 +2302,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2306,11 +2312,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>19</v>
@@ -2322,14 +2328,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2339,14 +2345,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2355,14 +2361,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2372,14 +2378,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2388,14 +2394,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2405,11 +2411,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2421,14 +2427,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2438,14 +2444,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2454,20 +2460,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2494,21 +2500,21 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>19</v>
@@ -2520,14 +2526,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2544,7 +2550,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2560,7 +2566,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2570,11 +2576,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2586,14 +2592,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2603,11 +2609,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2626,7 +2632,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2636,11 +2642,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2652,14 +2658,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2669,14 +2675,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>136</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2685,14 +2691,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2702,14 +2708,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>19</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2718,14 +2724,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2735,7 +2741,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2775,7 +2781,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2801,11 +2807,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2817,14 +2823,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2834,11 +2840,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2850,14 +2856,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2867,14 +2873,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2890,7 +2896,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2907,7 +2913,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2923,7 +2929,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2933,14 +2939,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2949,14 +2955,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2966,14 +2972,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>158</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2989,7 +2995,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2999,14 +3005,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>161</v>
-      </c>
-      <c t="s" r="Q54" s="12">
-        <v>19</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3022,13 +3028,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3039,7 +3045,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3055,13 +3061,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3088,7 +3094,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3098,11 +3104,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3114,14 +3120,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3131,11 +3137,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3147,14 +3153,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3164,11 +3170,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3180,14 +3186,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3197,11 +3203,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3213,14 +3219,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3230,14 +3236,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3253,7 +3259,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3270,7 +3276,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3286,7 +3292,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3319,7 +3325,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3329,11 +3335,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3345,14 +3351,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3362,11 +3368,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3385,7 +3391,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3395,14 +3401,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>51</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3411,14 +3417,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3428,14 +3434,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>51</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3451,7 +3457,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3468,7 +3474,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3484,7 +3490,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3517,7 +3523,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3550,7 +3556,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3583,7 +3589,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3600,7 +3606,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3633,7 +3639,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3649,7 +3655,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3666,7 +3672,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3682,7 +3688,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3692,14 +3698,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3708,14 +3714,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3725,14 +3731,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3748,7 +3754,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3765,7 +3771,7 @@
         <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3781,7 +3787,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3798,7 +3804,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3814,13 +3820,13 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3828,10 +3834,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3840,28 +3846,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3880,7 +3886,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3894,7 +3900,7 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>69</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3906,28 +3912,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>55</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3939,14 +3945,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3956,11 +3962,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>55</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3972,14 +3978,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>46</v>
+        <v>236</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3996,7 +4002,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>111</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4012,7 +4018,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4022,14 +4028,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4038,14 +4044,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4062,7 +4068,7 @@
         <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>246</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4071,7 +4077,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4088,14 +4094,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>62</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>111</v>
+        <v>249</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4104,14 +4110,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4121,14 +4127,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4144,7 +4150,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4154,11 +4160,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4170,14 +4176,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4187,11 +4193,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>112</v>
+        <v>237</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>113</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4203,14 +4209,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>111</v>
+        <v>257</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4220,11 +4226,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>234</v>
+        <v>115</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>235</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4236,14 +4242,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>257</v>
+        <v>114</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4253,11 +4259,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4269,14 +4275,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4286,49 +4292,82 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>112</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>5512.835</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
         <v>262</v>
       </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
         <v>263</v>
       </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>42</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>115</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>5547.835</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
         <v>264</v>
       </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>265</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>266</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4772,10 +4811,15 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -299,6 +299,15 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>DIGENORM SYRUP 120 ML</t>
   </si>
   <si>
@@ -362,6 +371,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>FLEXOLYTE ORAL REHYDRATION SOL. 240 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>FLUREST N 20 TABS</t>
   </si>
   <si>
@@ -467,9 +485,6 @@
     <t>MOOV MASSAGE CREAM 40 GM</t>
   </si>
   <si>
-    <t>23.00</t>
-  </si>
-  <si>
     <t>46.0000</t>
   </si>
   <si>
@@ -551,9 +566,6 @@
     <t>110.00</t>
   </si>
   <si>
-    <t>55.0000</t>
-  </si>
-  <si>
     <t>RAMIXOLE 1 MG 30 TAB.</t>
   </si>
   <si>
@@ -614,9 +626,6 @@
     <t>46.00</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -803,7 +812,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 8:27 PM</t>
+    <t>Sunday, 31 August, 2025 9:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2250,7 +2259,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2262,14 +2271,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2279,11 +2288,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2302,7 +2311,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2319,7 +2328,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2335,7 +2344,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2345,11 +2354,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>19</v>
@@ -2361,14 +2370,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2378,14 +2387,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2394,14 +2403,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2411,14 +2420,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2427,14 +2436,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2444,11 +2453,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2460,14 +2469,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2477,14 +2486,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2493,31 +2502,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2526,14 +2535,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2543,11 +2552,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>19</v>
@@ -2559,31 +2568,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2592,14 +2601,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2609,14 +2618,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2625,7 +2634,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2642,11 +2651,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2658,14 +2667,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2675,11 +2684,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2691,14 +2700,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2708,14 +2717,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2724,14 +2733,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2741,14 +2750,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2764,7 +2773,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2774,14 +2783,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>19</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2790,14 +2799,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2807,14 +2816,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2840,14 +2849,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2856,14 +2865,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2873,11 +2882,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>52</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2889,14 +2898,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2906,14 +2915,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2922,14 +2931,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2939,11 +2948,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2962,7 +2971,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2972,14 +2981,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>19</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2995,7 +3004,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3005,14 +3014,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>161</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3028,7 +3037,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3038,11 +3047,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>19</v>
@@ -3054,31 +3063,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3087,14 +3096,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3104,14 +3113,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3120,28 +3129,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3160,7 +3169,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3170,11 +3179,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3186,14 +3195,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3203,11 +3212,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3219,14 +3228,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3236,11 +3245,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3252,14 +3261,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3269,14 +3278,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>31</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3285,14 +3294,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3302,11 +3311,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3318,14 +3327,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3335,14 +3344,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3351,14 +3360,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3368,11 +3377,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>134</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3434,14 +3443,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3450,14 +3459,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3467,11 +3476,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3483,14 +3492,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3500,11 +3509,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>51</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>19</v>
@@ -3516,14 +3525,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3533,14 +3542,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3549,14 +3558,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3566,11 +3575,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>19</v>
@@ -3582,14 +3591,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3599,11 +3608,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>19</v>
@@ -3615,14 +3624,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3632,14 +3641,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3648,14 +3657,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3665,11 +3674,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>19</v>
@@ -3681,14 +3690,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3698,11 +3707,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3714,7 +3723,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3731,11 +3740,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>19</v>
@@ -3747,14 +3756,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3764,11 +3773,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3780,14 +3789,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3797,14 +3806,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3813,14 +3822,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3830,14 +3839,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3846,31 +3855,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3879,14 +3888,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3896,14 +3905,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3912,28 +3921,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3945,28 +3954,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>55</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>56</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3985,21 +3994,21 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>236</v>
+        <v>60</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4011,14 +4020,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4028,14 +4037,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>55</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>114</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4044,14 +4053,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4061,11 +4070,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4077,14 +4086,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4094,14 +4103,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>249</v>
+        <v>117</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4110,14 +4119,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4127,14 +4136,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>62</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>114</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4143,14 +4152,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4160,14 +4169,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>252</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4176,7 +4185,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4193,14 +4202,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>238</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4209,14 +4218,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>257</v>
+        <v>54</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4226,11 +4235,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>115</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>116</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4249,7 +4258,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4259,11 +4268,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4292,11 +4301,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>118</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4308,14 +4317,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4325,49 +4334,115 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>115</v>
+        <v>240</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>116</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>5547.835</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>262</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>263</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>42</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
         <v>264</v>
       </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
         <v>265</v>
       </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
         <v>266</v>
       </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>42</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>118</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>5625.835</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>267</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>268</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>269</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4816,10 +4891,20 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -812,7 +812,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 9:02 PM</t>
+    <t>Sunday, 31 August, 2025 9:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADOLOR 30 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ALKAPRESS 5MG 20 TAB.</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>58.00</t>
   </si>
   <si>
@@ -68,9 +83,6 @@
     <t>28.7100</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AMIPRIDE 50MG 30 TAB</t>
   </si>
   <si>
@@ -98,6 +110,18 @@
     <t>ARTICU-SAFE 50MG 30 CAPS.</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
     <t>BI-KETOGESIC 150 MG 30 TAB.</t>
   </si>
   <si>
@@ -146,6 +170,21 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>CEFIDIME 1 GM VIAL I.M./I.V.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>212.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -173,9 +212,6 @@
     <t>CERELAC تمر وقمح ولبن</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -266,9 +302,6 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>23.7600</t>
   </si>
   <si>
@@ -362,9 +395,6 @@
     <t>FAYCID HAIR OIL 60 ML</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
@@ -503,6 +533,15 @@
     <t>39.6000</t>
   </si>
   <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -596,6 +635,15 @@
     <t>169.0000</t>
   </si>
   <si>
+    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -620,6 +668,12 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>STOPRRHEA 2 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
@@ -653,6 +707,9 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>TOPRO 10 SACHETS</t>
+  </si>
+  <si>
     <t>TORSERETIC 20MG 30 TABS.</t>
   </si>
   <si>
@@ -746,6 +803,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>72:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
     <t>حلمة ببرونه</t>
   </si>
   <si>
@@ -758,16 +824,19 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>21:0</t>
+    <t>22:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -776,6 +845,9 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>سيتي بيبي رقم 5</t>
   </si>
   <si>
@@ -797,6 +869,12 @@
     <t>فرشه شعر اطفال الجو</t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>38:0</t>
+  </si>
+  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
@@ -812,7 +890,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 9:03 PM</t>
+    <t>Sunday, 31 August, 2025 9:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1470,7 +1548,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1479,14 +1557,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1496,14 +1574,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1512,14 +1590,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1536,7 +1614,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1569,7 +1647,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1585,7 +1663,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1595,14 +1673,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1611,14 +1689,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1628,14 +1706,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1644,14 +1722,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1668,7 +1746,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1701,7 +1779,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1710,20 +1788,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1734,7 +1812,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1767,7 +1845,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1776,20 +1854,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1800,7 +1878,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1822,7 +1900,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1833,7 +1911,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1842,14 +1920,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1859,14 +1937,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1875,31 +1953,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1908,31 +1986,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1941,14 +2019,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1958,14 +2036,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1974,31 +2052,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2007,14 +2085,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2024,14 +2102,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2040,14 +2118,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2057,14 +2135,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2073,31 +2151,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2106,14 +2184,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2123,14 +2201,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2139,14 +2217,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2156,14 +2234,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2172,31 +2250,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2205,14 +2283,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2222,14 +2300,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2238,14 +2316,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2255,14 +2333,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2271,14 +2349,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2288,14 +2366,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2304,14 +2382,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2321,14 +2399,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2337,14 +2415,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2354,14 +2432,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2370,14 +2448,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2387,14 +2465,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2403,14 +2481,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2427,7 +2505,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2443,7 +2521,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2453,14 +2531,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2469,14 +2547,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2486,14 +2564,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2502,14 +2580,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2519,14 +2597,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2535,14 +2613,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2552,14 +2630,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2575,13 +2653,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2592,7 +2670,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2608,7 +2686,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2618,14 +2696,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2634,14 +2712,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2658,7 +2736,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2674,24 +2752,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2700,14 +2778,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2717,14 +2795,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2733,14 +2811,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2750,14 +2828,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2766,14 +2844,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2783,14 +2861,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>145</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2799,14 +2877,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2816,14 +2894,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2832,14 +2910,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2849,14 +2927,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>51</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2865,14 +2943,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2882,14 +2960,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2898,14 +2976,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2915,14 +2993,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2931,14 +3009,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2948,14 +3026,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2964,14 +3042,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2981,14 +3059,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2997,14 +3075,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3014,14 +3092,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3030,14 +3108,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3047,14 +3125,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3063,14 +3141,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3080,14 +3158,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>166</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3096,14 +3174,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3113,14 +3191,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3129,31 +3207,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>93</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3162,14 +3240,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3179,14 +3257,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3195,14 +3273,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3212,14 +3290,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>43</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3228,14 +3306,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3245,14 +3323,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3261,31 +3339,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>31</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3294,14 +3372,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3311,14 +3389,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3327,14 +3405,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3344,14 +3422,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>122</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3360,14 +3438,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3377,14 +3455,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>135</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3393,14 +3471,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3410,14 +3488,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3426,14 +3504,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3443,14 +3521,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3459,14 +3537,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3476,14 +3554,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3492,14 +3570,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3509,14 +3587,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>51</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3525,14 +3603,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3542,14 +3620,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3558,14 +3636,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3575,14 +3653,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>149</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3591,14 +3669,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3608,14 +3686,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>98</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3624,14 +3702,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3641,14 +3719,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3657,14 +3735,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3674,14 +3752,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>209</v>
+        <v>64</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3690,14 +3768,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3707,14 +3785,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3723,14 +3801,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3740,14 +3818,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3756,14 +3834,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3773,14 +3851,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3789,14 +3867,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3806,14 +3884,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3822,14 +3900,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3839,14 +3917,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3855,14 +3933,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3872,14 +3950,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3888,14 +3966,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3905,14 +3983,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3921,31 +3999,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>184</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3954,14 +4032,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3971,14 +4049,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3987,14 +4065,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4004,14 +4082,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>69</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4020,31 +4098,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>55</v>
+        <v>222</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4053,31 +4131,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>239</v>
+        <v>57</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4086,31 +4164,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>117</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4119,20 +4197,20 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>246</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
@@ -4143,7 +4221,7 @@
         <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4159,13 +4237,13 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
@@ -4173,10 +4251,10 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>252</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4185,31 +4263,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>62</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>117</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4218,31 +4296,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4251,31 +4329,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>240</v>
+        <v>67</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>241</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4284,31 +4362,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>118</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4324,24 +4402,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4350,31 +4428,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>106</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4383,66 +4461,396 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>118</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>119</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>5625.835</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
-        <v>267</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
-        <v>268</v>
-      </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
-        <v>269</v>
-      </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>271</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>89</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>50</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>272</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>273</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>89</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>50</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>274</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>276</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>89</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>50</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>277</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>278</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>279</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>54</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>50</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>280</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>281</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>282</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>89</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>50</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>259</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>283</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>284</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>50</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>128</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>285</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>57</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>50</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>259</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>286</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>287</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>50</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>187</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>288</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>289</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>50</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>290</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>291</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>292</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>50</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>128</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="P107" s="13">
+        <v>6158.7749999999996</v>
+      </c>
+      <c r="Q107" s="13"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c t="s" r="A108" s="14">
+        <v>293</v>
+      </c>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c t="s" r="G108" s="15">
+        <v>294</v>
+      </c>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c t="s" r="K108" s="17">
+        <v>295</v>
+      </c>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="512">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4901,10 +5309,60 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="K108:Q108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -890,7 +890,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 9:09 PM</t>
+    <t>Sunday, 31 August, 2025 9:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -413,423 +413,420 @@
     <t>FLUREST N 20 TABS</t>
   </si>
   <si>
-    <t>4:1</t>
-  </si>
-  <si>
     <t>32.00</t>
   </si>
   <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>FORADIL12 MG 60 CAPS</t>
+  </si>
+  <si>
+    <t>560.00</t>
+  </si>
+  <si>
+    <t>89.6000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>FUNGIBACID 28% NAIL SOLN. 5 ML</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
+    <t>LIMITLESS MAN MAX 30 TABS</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>MYOGREL 75MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMEGA 3  SYRUP</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>PENTACOLD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>PK-MERZ 100MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>PRIDOCAINE CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>RAMIXOLE 1 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
+    <t>SETRONOMET 8 MG 4 ORAL DIS. TABS.</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>220.0000</t>
+  </si>
+  <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>SOOTONIC HAIR LOTION 120 ML</t>
+  </si>
+  <si>
+    <t>169.00</t>
+  </si>
+  <si>
+    <t>169.0000</t>
+  </si>
+  <si>
+    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STERONATE  5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>STOPRRHEA 2 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
+    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
+    <t>TAVACIN 500MG 5 F.C. TAB</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>TOPRO 10 SACHETS</t>
+  </si>
+  <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
+    <t>TOTAVIT SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>189.00</t>
+  </si>
+  <si>
+    <t>94.5000</t>
+  </si>
+  <si>
+    <t>WITHSTAND CREAM</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>ZISROCIN 500MG 3 CAP</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
+    <t>ZOVIRAX 5% TOPICAL CREAM 10 GM</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسبلاش </t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>بودره نلج اكياس</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>72:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>حلمة ببرونه</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
     <t>16.0000</t>
   </si>
   <si>
-    <t>FORADIL12 MG 60 CAPS</t>
-  </si>
-  <si>
-    <t>560.00</t>
-  </si>
-  <si>
-    <t>89.6000</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>FUNGIBACID 28% NAIL SOLN. 5 ML</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>59.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
-  </si>
-  <si>
-    <t>145.00</t>
-  </si>
-  <si>
-    <t>72.5000</t>
-  </si>
-  <si>
-    <t>LIMITLESS MAN MAX 30 TABS</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>MOOV MASSAGE CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>MYOGREL 75MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>39.6000</t>
-  </si>
-  <si>
-    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OMEGA 3  SYRUP</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>ORACURE ORAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>PENTACOLD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>PK-MERZ 100MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>PRIDOCAINE CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>RAMIXOLE 1 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>159.00</t>
-  </si>
-  <si>
-    <t>159.0000</t>
-  </si>
-  <si>
-    <t>SETRONOMET 8 MG 4 ORAL DIS. TABS.</t>
-  </si>
-  <si>
-    <t>220.00</t>
-  </si>
-  <si>
-    <t>220.0000</t>
-  </si>
-  <si>
-    <t>SINEMET 25/250 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>SOOTONIC HAIR LOTION 120 ML</t>
-  </si>
-  <si>
-    <t>169.00</t>
-  </si>
-  <si>
-    <t>169.0000</t>
-  </si>
-  <si>
-    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STERONATE  5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>STOPRRHEA 2 MG 30 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>45.0450</t>
-  </si>
-  <si>
-    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>24.7500</t>
-  </si>
-  <si>
-    <t>TAVACIN 500MG 5 F.C. TAB</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>TOPRO 10 SACHETS</t>
-  </si>
-  <si>
-    <t>TORSERETIC 20MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>40.5900</t>
-  </si>
-  <si>
-    <t>TOTAVIT SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>189.00</t>
-  </si>
-  <si>
-    <t>94.5000</t>
-  </si>
-  <si>
-    <t>WITHSTAND CREAM</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>ZISROCIN 500MG 3 CAP</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>71.0000</t>
-  </si>
-  <si>
-    <t>ZOVIRAX 5% TOPICAL CREAM 10 GM</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اسبلاش </t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2.5 سم</t>
-  </si>
-  <si>
-    <t>24:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>بودره نلج اكياس</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>72:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>حلمة ببرونه</t>
-  </si>
-  <si>
-    <t>19:0</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -890,7 +887,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 9:11 PM</t>
+    <t>Sunday, 31 August, 2025 9:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2719,7 +2716,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2729,14 +2726,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2745,7 +2742,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2762,11 +2759,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2778,14 +2775,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2795,11 +2792,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2811,7 +2808,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2828,11 +2825,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2844,7 +2841,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2877,7 +2874,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2894,11 +2891,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -2910,7 +2907,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2943,14 +2940,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2964,10 +2961,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>154</v>
-      </c>
-      <c t="s" r="Q50" s="12">
-        <v>155</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2976,7 +2973,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2997,7 +2994,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3009,7 +3006,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3026,11 +3023,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3042,7 +3039,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3059,11 +3056,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>18</v>
@@ -3075,7 +3072,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3096,7 +3093,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -3108,7 +3105,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3141,7 +3138,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3162,7 +3159,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>54</v>
@@ -3174,14 +3171,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3191,11 +3188,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -3207,7 +3204,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3228,7 +3225,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3240,7 +3237,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3257,11 +3254,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3273,14 +3270,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3294,10 +3291,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q60" s="12">
         <v>178</v>
-      </c>
-      <c t="s" r="Q60" s="12">
-        <v>179</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3306,7 +3303,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3323,11 +3320,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3339,7 +3336,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3356,11 +3353,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3372,7 +3369,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3389,11 +3386,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3405,14 +3402,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3422,11 +3419,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3438,7 +3435,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3455,11 +3452,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3471,7 +3468,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3492,7 +3489,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3504,7 +3501,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3521,11 +3518,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3537,14 +3534,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3554,7 +3551,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3570,7 +3567,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3587,11 +3584,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3603,7 +3600,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3620,11 +3617,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3636,7 +3633,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3653,11 +3650,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3669,7 +3666,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3686,11 +3683,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3702,14 +3699,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3719,11 +3716,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3735,7 +3732,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3756,7 +3753,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3768,7 +3765,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3785,11 +3782,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3801,7 +3798,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3818,11 +3815,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3834,7 +3831,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3851,7 +3848,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3867,7 +3864,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3884,7 +3881,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -3900,7 +3897,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3917,11 +3914,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3933,7 +3930,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3950,11 +3947,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3966,7 +3963,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3983,11 +3980,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -3999,7 +3996,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4016,11 +4013,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -4032,7 +4029,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4049,11 +4046,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4065,7 +4062,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4082,11 +4079,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -4098,7 +4095,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4115,7 +4112,7 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4131,7 +4128,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4148,11 +4145,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4164,7 +4161,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4181,11 +4178,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>25</v>
@@ -4197,7 +4194,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4214,11 +4211,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4230,7 +4227,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4247,11 +4244,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4263,7 +4260,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4280,11 +4277,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4296,7 +4293,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4313,7 +4310,7 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4329,7 +4326,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4362,14 +4359,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4379,11 +4376,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4395,7 +4392,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4412,11 +4409,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>57</v>
@@ -4428,14 +4425,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4445,11 +4442,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4461,14 +4458,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4478,11 +4475,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4494,7 +4491,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4511,11 +4508,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>136</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>57</v>
@@ -4527,7 +4524,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4544,14 +4541,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4560,7 +4557,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4577,14 +4574,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4593,7 +4590,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4610,11 +4607,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4626,7 +4623,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4643,11 +4640,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4659,14 +4656,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4692,7 +4689,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4709,11 +4706,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4725,14 +4722,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4742,11 +4739,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4758,14 +4755,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4775,7 +4772,7 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
@@ -4791,14 +4788,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4820,13 +4817,13 @@
     </row>
     <row r="107" ht="25.5" customHeight="1">
       <c r="P107" s="13">
-        <v>6158.7749999999996</v>
+        <v>6174.7749999999996</v>
       </c>
       <c r="Q107" s="13"/>
     </row>
     <row r="108" ht="16.5" customHeight="1">
       <c t="s" r="A108" s="14">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -4834,13 +4831,13 @@
       <c r="E108" s="14"/>
       <c r="F108" s="14"/>
       <c t="s" r="G108" s="15">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H108" s="15"/>
       <c r="I108" s="15"/>
       <c r="J108" s="16"/>
       <c t="s" r="K108" s="17">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L108" s="17"/>
       <c r="M108" s="17"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -887,7 +887,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 9:12 PM</t>
+    <t>Sunday, 31 August, 2025 9:18 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -392,6 +392,15 @@
     <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
   </si>
   <si>
+    <t>EZAPRIL 10MG 30TABS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>FAYCID HAIR OIL 60 ML</t>
   </si>
   <si>
@@ -584,6 +593,9 @@
     <t>PENTACOLD SYRUP 120 ML</t>
   </si>
   <si>
+    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>PK-MERZ 100MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -887,7 +899,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 9:18 PM</t>
+    <t>Sunday, 31 August, 2025 9:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2650,13 +2662,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2683,7 +2695,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2716,7 +2728,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2749,13 +2761,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2766,7 +2778,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2782,21 +2794,21 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2808,14 +2820,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2832,7 +2844,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2848,7 +2860,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2858,11 +2870,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>18</v>
@@ -2874,14 +2886,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2891,11 +2903,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -2914,7 +2926,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2924,11 +2936,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -2940,14 +2952,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2957,14 +2969,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>154</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2973,14 +2985,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2990,14 +3002,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3006,14 +3018,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3023,7 +3035,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -3063,7 +3075,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3089,11 +3101,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -3105,14 +3117,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3122,11 +3134,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -3138,14 +3150,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3155,14 +3167,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3171,14 +3183,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>154</v>
+        <v>89</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3188,14 +3200,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3211,7 +3223,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3221,14 +3233,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3237,14 +3249,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3254,7 +3266,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3277,7 +3289,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3287,14 +3299,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>178</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3310,7 +3322,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3320,14 +3332,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>43</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q61" s="12">
         <v>181</v>
-      </c>
-      <c t="s" r="Q61" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3343,13 +3355,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3360,7 +3372,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3376,13 +3388,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3409,7 +3421,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>57</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3419,11 +3431,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3435,14 +3447,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>89</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3452,11 +3464,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3468,14 +3480,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3485,11 +3497,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3501,14 +3513,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>54</v>
+        <v>192</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3518,11 +3530,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3534,14 +3546,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3551,14 +3563,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>39</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3567,14 +3579,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3584,11 +3596,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3600,14 +3612,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3617,14 +3629,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3633,14 +3645,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3650,11 +3662,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3706,7 +3718,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3716,14 +3728,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3732,14 +3744,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3749,14 +3761,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>64</v>
+        <v>208</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3765,14 +3777,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3782,14 +3794,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3798,14 +3810,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3815,11 +3827,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>64</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3831,14 +3843,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3848,14 +3860,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>125</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3864,14 +3876,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3881,11 +3893,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3904,7 +3916,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3918,7 +3930,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3930,14 +3942,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3947,11 +3959,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3963,14 +3975,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3980,14 +3992,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3996,14 +4008,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4013,14 +4025,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4053,7 +4065,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4079,11 +4091,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -4095,7 +4107,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4112,11 +4124,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>109</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4135,7 +4147,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4168,7 +4180,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4178,14 +4190,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4194,14 +4206,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4211,14 +4223,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4227,31 +4239,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>181</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4260,14 +4272,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4277,14 +4289,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4293,28 +4305,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4326,28 +4338,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>67</v>
+        <v>254</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>68</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4359,20 +4371,20 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>256</v>
+        <v>72</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
@@ -4380,7 +4392,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>258</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4392,14 +4404,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4409,14 +4421,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>67</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4425,14 +4437,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4442,11 +4454,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4458,14 +4470,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>266</v>
+        <v>59</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4475,14 +4487,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4491,14 +4503,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>89</v>
+        <v>267</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4508,14 +4520,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4524,14 +4536,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>89</v>
+        <v>270</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4541,14 +4553,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>106</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>274</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4557,7 +4569,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4574,14 +4586,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>189</v>
+        <v>57</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4590,14 +4602,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4607,14 +4619,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>278</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4623,7 +4635,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4640,14 +4652,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>18</v>
+        <v>192</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4663,7 +4675,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>283</v>
+        <v>54</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4673,11 +4685,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>128</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>129</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4689,14 +4701,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4706,11 +4718,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4722,14 +4734,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4739,11 +4751,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>187</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4755,14 +4767,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>288</v>
+        <v>57</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4772,11 +4784,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>117</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -4788,14 +4800,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4805,49 +4817,115 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
-      <c r="P107" s="13">
-        <v>6174.7749999999996</v>
-      </c>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="14">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>291</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
         <v>292</v>
       </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c t="s" r="G108" s="15">
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>50</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
         <v>293</v>
       </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c t="s" r="K108" s="17">
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
         <v>294</v>
       </c>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>295</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>50</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>131</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>6252.7749999999996</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>296</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>297</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>298</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="512">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5356,10 +5434,20 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -899,7 +899,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 9:21 PM</t>
+    <t>Sunday, 31 August, 2025 9:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -899,7 +899,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 9:23 PM</t>
+    <t>Sunday, 31 August, 2025 9:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -122,6 +122,18 @@
     <t>9.1200</t>
   </si>
   <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>BI-KETOGESIC 150 MG 30 TAB.</t>
   </si>
   <si>
@@ -225,9 +237,6 @@
   </si>
   <si>
     <t>CEVA-FRESH TAB</t>
-  </si>
-  <si>
-    <t>8:0</t>
   </si>
   <si>
     <t>12.00</t>
@@ -1788,7 +1797,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1797,14 +1806,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1821,7 +1830,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1830,14 +1839,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1870,13 +1879,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1887,7 +1896,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1903,13 +1912,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1920,7 +1929,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1929,14 +1938,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1946,14 +1955,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>61</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>62</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1962,14 +1971,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1986,7 +1995,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1995,31 +2004,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2028,31 +2037,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2061,31 +2070,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2101,13 +2110,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -2118,7 +2127,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2134,7 +2143,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2144,11 +2153,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2160,14 +2169,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2184,7 +2193,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2200,7 +2209,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2217,7 +2226,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2233,7 +2242,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2243,14 +2252,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2259,20 +2268,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2299,24 +2308,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2332,7 +2341,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2342,14 +2351,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2365,7 +2374,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2382,7 +2391,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2398,7 +2407,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2415,7 +2424,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2431,7 +2440,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2464,7 +2473,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2478,7 +2487,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>18</v>
@@ -2490,14 +2499,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2507,11 +2516,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>18</v>
@@ -2530,7 +2539,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2547,7 +2556,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2563,7 +2572,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2573,11 +2582,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2589,14 +2598,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2606,14 +2615,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2622,14 +2631,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2639,14 +2648,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2655,28 +2664,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2695,13 +2704,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2728,7 +2737,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2761,7 +2770,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2794,13 +2803,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2811,7 +2820,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2827,21 +2836,21 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2853,14 +2862,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2877,7 +2886,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2893,7 +2902,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2903,11 +2912,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -2919,14 +2928,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2936,11 +2945,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -2959,7 +2968,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2969,11 +2978,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>52</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>18</v>
@@ -2985,14 +2994,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3002,14 +3011,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>157</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3018,14 +3027,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3035,14 +3044,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3051,14 +3060,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3068,7 +3077,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -3108,7 +3117,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3134,11 +3143,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -3150,14 +3159,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3167,11 +3176,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -3183,14 +3192,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3200,14 +3209,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3216,14 +3225,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3233,14 +3242,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>111</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3256,7 +3265,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3266,14 +3275,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3282,14 +3291,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3299,7 +3308,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3322,7 +3331,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3332,14 +3341,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>181</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3355,7 +3364,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3365,14 +3374,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>47</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q62" s="12">
         <v>184</v>
-      </c>
-      <c t="s" r="Q62" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3388,13 +3397,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3405,7 +3414,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3421,13 +3430,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3454,7 +3463,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>61</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3464,11 +3473,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3480,14 +3489,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>89</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3497,11 +3506,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3513,14 +3522,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>192</v>
+        <v>92</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3530,11 +3539,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3546,14 +3555,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3563,11 +3572,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>39</v>
+        <v>192</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3579,14 +3588,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3596,11 +3605,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3612,14 +3621,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>155</v>
+        <v>58</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3629,14 +3638,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>140</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3645,14 +3654,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3662,14 +3671,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3685,7 +3694,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3718,7 +3727,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3728,11 +3737,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3744,14 +3753,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3761,11 +3770,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3784,7 +3793,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3801,7 +3810,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3817,7 +3826,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>62</v>
+        <v>158</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3827,11 +3836,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>64</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3843,14 +3852,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3860,14 +3869,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>216</v>
+        <v>68</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3883,7 +3892,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3900,7 +3909,7 @@
         <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3916,7 +3925,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3930,7 +3939,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>125</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3942,14 +3951,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3959,11 +3968,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3975,14 +3984,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3992,11 +4001,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4015,7 +4024,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4048,7 +4057,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4065,7 +4074,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4081,7 +4090,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4091,11 +4100,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -4107,14 +4116,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4124,14 +4133,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>236</v>
+        <v>189</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4147,7 +4156,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4164,7 +4173,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4180,7 +4189,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4190,14 +4199,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>109</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4206,14 +4215,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4223,14 +4232,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4246,7 +4255,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4263,7 +4272,7 @@
         <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4279,7 +4288,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4296,7 +4305,7 @@
         <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4312,13 +4321,13 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4326,10 +4335,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4338,28 +4347,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>255</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4378,7 +4387,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4392,7 +4401,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>81</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4404,28 +4413,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>67</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4437,28 +4446,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>260</v>
+        <v>92</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>261</v>
+        <v>71</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4470,20 +4479,20 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>59</v>
+        <v>263</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
@@ -4494,7 +4503,7 @@
         <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4510,24 +4519,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>267</v>
+        <v>63</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4549,7 +4558,7 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
@@ -4557,7 +4566,7 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4569,20 +4578,20 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>89</v>
+        <v>273</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4593,7 +4602,7 @@
         <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4609,13 +4618,13 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
@@ -4623,10 +4632,10 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>106</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>278</v>
+        <v>61</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4642,13 +4651,13 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
@@ -4656,10 +4665,10 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q101" s="12">
         <v>281</v>
-      </c>
-      <c t="s" r="Q101" s="12">
-        <v>192</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4675,13 +4684,13 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
@@ -4692,7 +4701,7 @@
         <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>18</v>
+        <v>195</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4708,21 +4717,21 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4734,28 +4743,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>287</v>
+        <v>92</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>131</v>
+        <v>264</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>132</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4767,28 +4776,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>57</v>
+        <v>290</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>261</v>
+        <v>134</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>262</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -4800,28 +4809,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>290</v>
+        <v>61</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>189</v>
+        <v>264</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>190</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -4833,28 +4842,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>293</v>
+        <v>192</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>18</v>
@@ -4879,53 +4888,86 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>131</v>
+        <v>296</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>6252.7749999999996</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>296</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
         <v>297</v>
       </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
         <v>298</v>
       </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>54</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>134</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="P110" s="13">
+        <v>6270.7749999999996</v>
+      </c>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
+        <v>299</v>
+      </c>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
+        <v>300</v>
+      </c>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>301</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5444,10 +5486,15 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -908,7 +908,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 9:24 PM</t>
+    <t>Sunday, 31 August, 2025 9:25 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -557,6 +557,15 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>NASACORT AQ 55 MCG NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>151.00</t>
+  </si>
+  <si>
+    <t>151.0000</t>
+  </si>
+  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -908,7 +917,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 9:25 PM</t>
+    <t>Sunday, 31 August, 2025 9:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3364,7 +3373,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3374,14 +3383,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>47</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>184</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3397,7 +3406,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3407,14 +3416,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>47</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q63" s="12">
         <v>187</v>
-      </c>
-      <c t="s" r="Q63" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3430,13 +3439,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3447,7 +3456,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3463,13 +3472,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3496,7 +3505,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3506,11 +3515,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3522,14 +3531,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3539,11 +3548,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>141</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3555,14 +3564,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>195</v>
+        <v>92</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3572,11 +3581,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3588,14 +3597,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3605,11 +3614,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>43</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3621,14 +3630,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3638,11 +3647,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3654,14 +3663,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3671,14 +3680,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>140</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3687,14 +3696,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3704,14 +3713,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3727,7 +3736,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3760,7 +3769,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3770,11 +3779,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3786,14 +3795,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3803,11 +3812,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3826,7 +3835,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3843,7 +3852,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3859,7 +3868,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3869,11 +3878,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>68</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3885,14 +3894,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3902,14 +3911,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>219</v>
+        <v>68</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3925,7 +3934,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3942,7 +3951,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3958,7 +3967,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3972,7 +3981,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>128</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3984,14 +3993,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4001,11 +4010,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4017,14 +4026,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4034,11 +4043,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4057,7 +4066,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4090,7 +4099,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4107,7 +4116,7 @@
         <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4123,7 +4132,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4133,11 +4142,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>190</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4149,14 +4158,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4166,14 +4175,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4189,7 +4198,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4206,7 +4215,7 @@
         <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4222,7 +4231,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4232,14 +4241,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>112</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4248,14 +4257,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4265,14 +4274,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4288,7 +4297,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4305,7 +4314,7 @@
         <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4321,7 +4330,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4338,7 +4347,7 @@
         <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4354,13 +4363,13 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
@@ -4368,10 +4377,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>187</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4380,28 +4389,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>258</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4420,7 +4429,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4434,7 +4443,7 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>84</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4446,28 +4455,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>71</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4479,14 +4488,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>263</v>
+        <v>92</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4496,11 +4505,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>71</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4512,14 +4521,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>63</v>
+        <v>266</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4536,7 +4545,7 @@
         <v>268</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4552,7 +4561,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>270</v>
+        <v>63</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4562,14 +4571,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4599,7 +4608,7 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>18</v>
@@ -4611,14 +4620,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>92</v>
+        <v>276</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4635,7 +4644,7 @@
         <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4665,10 +4674,10 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>109</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>281</v>
+        <v>61</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4698,10 +4707,10 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q102" s="12">
         <v>284</v>
-      </c>
-      <c t="s" r="Q102" s="12">
-        <v>195</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4717,7 +4726,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4734,7 +4743,7 @@
         <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>18</v>
+        <v>198</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4750,7 +4759,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4760,11 +4769,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4776,14 +4785,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>290</v>
+        <v>92</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4793,11 +4802,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>134</v>
+        <v>267</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>135</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -4809,14 +4818,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>61</v>
+        <v>293</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4826,11 +4835,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>264</v>
+        <v>134</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>265</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -4842,14 +4851,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>293</v>
+        <v>61</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4859,11 +4868,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>192</v>
+        <v>267</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>193</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>18</v>
@@ -4875,14 +4884,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4892,11 +4901,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>296</v>
+        <v>195</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>18</v>
@@ -4925,49 +4934,82 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>134</v>
+        <v>299</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>300</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>301</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>54</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>134</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
         <v>135</v>
       </c>
-      <c t="s" r="Q109" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>6270.7749999999996</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
-        <v>299</v>
-      </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
-        <v>300</v>
-      </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
-        <v>301</v>
-      </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+      <c t="s" r="Q110" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>6421.7749999999996</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
+        <v>302</v>
+      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
+        <v>303</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>304</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5491,10 +5533,15 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -254,6 +254,27 @@
     <t>78.2100</t>
   </si>
   <si>
+    <t>CIPROFAR 750MG 10 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>CLINDAM 300 MG 16 CAPS.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>37.5000</t>
+  </si>
+  <si>
     <t>CLOZAPEX 100MG 50 TAB</t>
   </si>
   <si>
@@ -284,12 +305,18 @@
     <t>225.0000</t>
   </si>
   <si>
+    <t>COXORIZET CAPS</t>
+  </si>
+  <si>
+    <t>249.00</t>
+  </si>
+  <si>
+    <t>82.1700</t>
+  </si>
+  <si>
     <t>CYNCHOLINE PLUS 20 CAPS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>22.00</t>
   </si>
   <si>
@@ -557,6 +584,15 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>NAPIZOLE 20MG 14 CAP</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>NASACORT AQ 55 MCG NASAL SPRAY 120 DOSES</t>
   </si>
   <si>
@@ -566,6 +602,9 @@
     <t>151.0000</t>
   </si>
   <si>
+    <t>NEUROGLOPENTIN 100 MG 30 CAPS.</t>
+  </si>
+  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -716,9 +755,6 @@
     <t>TARGOMASH 80MG 30 F.C. TABS.</t>
   </si>
   <si>
-    <t>75.00</t>
-  </si>
-  <si>
     <t>24.7500</t>
   </si>
   <si>
@@ -755,6 +791,15 @@
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
+    <t>TRIOCOBAVIT 30 CAPS.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -917,7 +962,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 9:26 PM</t>
+    <t>Sunday, 31 August, 2025 9:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2202,7 +2247,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2218,7 +2263,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2235,7 +2280,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2251,7 +2296,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2261,14 +2306,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2277,14 +2322,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2317,13 +2362,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2334,7 +2379,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2350,24 +2395,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2383,7 +2428,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2416,13 +2461,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2433,7 +2478,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2449,7 +2494,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2459,14 +2504,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2482,7 +2527,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2529,10 +2574,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2541,14 +2586,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2558,11 +2603,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>18</v>
@@ -2574,14 +2619,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2591,14 +2636,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2607,14 +2652,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2628,10 +2673,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2640,14 +2685,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2657,14 +2702,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2673,14 +2718,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2690,14 +2735,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2713,24 +2758,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2739,14 +2784,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2756,14 +2801,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2772,14 +2817,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2789,11 +2834,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
@@ -2812,13 +2857,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2845,13 +2890,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2862,7 +2907,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2878,7 +2923,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2888,14 +2933,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2904,14 +2949,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2921,11 +2966,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -2937,31 +2982,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2970,14 +3015,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2987,14 +3032,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3003,14 +3048,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3020,11 +3065,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>56</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>18</v>
@@ -3036,14 +3081,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3053,14 +3098,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>160</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3069,14 +3114,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3086,14 +3131,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3102,14 +3147,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3119,14 +3164,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3142,7 +3187,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3152,14 +3197,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3168,14 +3213,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3185,14 +3230,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3201,14 +3246,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3218,14 +3263,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>114</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>69</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3234,14 +3279,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3251,14 +3296,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3267,14 +3312,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3284,11 +3329,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>90</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -3300,14 +3345,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3317,14 +3362,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3333,14 +3378,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3350,14 +3395,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3366,14 +3411,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3383,11 +3428,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3399,14 +3444,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3416,14 +3461,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>187</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3439,7 +3484,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3472,13 +3517,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3505,7 +3550,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3538,7 +3583,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>82</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3548,11 +3593,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>140</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3564,14 +3609,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3581,14 +3626,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>141</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3597,14 +3642,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>198</v>
+        <v>29</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3614,14 +3659,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3630,28 +3675,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>43</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3663,14 +3708,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3680,11 +3725,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3696,14 +3741,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3713,14 +3758,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>138</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3729,14 +3774,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3746,11 +3791,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3762,14 +3807,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>92</v>
+        <v>211</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3779,11 +3824,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3795,14 +3840,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3812,11 +3857,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3828,14 +3873,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3845,11 +3890,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>149</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3861,14 +3906,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3878,11 +3923,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3901,7 +3946,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3911,14 +3956,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>68</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3927,14 +3972,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3944,11 +3989,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3960,14 +4005,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3977,14 +4022,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3993,14 +4038,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4010,14 +4055,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>128</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4033,7 +4078,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4047,7 +4092,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>112</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4059,14 +4104,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4076,7 +4121,7 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>232</v>
+        <v>68</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
@@ -4099,7 +4144,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4116,7 +4161,7 @@
         <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4132,7 +4177,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4149,7 +4194,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4165,7 +4210,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4175,14 +4220,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4191,14 +4236,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4208,11 +4253,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4231,7 +4276,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4248,7 +4293,7 @@
         <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4264,7 +4309,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4274,11 +4319,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>230</v>
+        <v>86</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>112</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4290,14 +4335,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4307,11 +4352,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4323,14 +4368,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4340,14 +4385,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4356,14 +4401,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4373,11 +4418,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4389,28 +4434,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>190</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4439,14 +4484,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4455,14 +4500,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4472,11 +4517,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>84</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4488,28 +4533,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>71</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>72</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4521,20 +4566,20 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>266</v>
+        <v>63</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
@@ -4545,7 +4590,7 @@
         <v>268</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4561,13 +4606,13 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
@@ -4578,7 +4623,7 @@
         <v>271</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4594,7 +4639,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>273</v>
+        <v>82</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4604,11 +4649,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>271</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>18</v>
@@ -4620,28 +4665,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>276</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4653,31 +4698,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4686,14 +4731,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4703,14 +4748,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>283</v>
+        <v>71</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>284</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4719,14 +4764,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>92</v>
+        <v>281</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4736,14 +4781,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>198</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4752,14 +4797,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4769,14 +4814,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4785,14 +4830,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>92</v>
+        <v>288</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4802,11 +4847,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -4818,14 +4863,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4835,11 +4880,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>134</v>
+        <v>292</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>135</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -4858,7 +4903,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4868,14 +4913,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4884,14 +4929,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>296</v>
+        <v>82</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4901,14 +4946,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>195</v>
+        <v>298</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>18</v>
+        <v>299</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4917,14 +4962,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>298</v>
+        <v>82</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4934,14 +4979,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>120</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>18</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4950,14 +4995,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>301</v>
+        <v>58</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4967,49 +5012,247 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>134</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>135</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>6421.7749999999996</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
-        <v>302</v>
-      </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
-        <v>303</v>
-      </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
-        <v>304</v>
-      </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>306</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>82</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>54</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>282</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>283</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>307</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>308</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>54</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>143</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>309</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>61</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>54</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>282</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>283</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>310</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>311</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>54</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>208</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>312</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>313</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>54</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>314</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>315</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>316</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>54</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>143</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>6848.4449999999997</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
+        <v>317</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>318</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>319</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5538,10 +5781,40 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -962,7 +962,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 9:38 PM</t>
+    <t>Sunday, 31 August, 2025 9:41 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -497,6 +497,15 @@
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
+    <t>GAST-REG 24MG/5ML 125ML SUSP</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
   </si>
   <si>
@@ -623,6 +632,15 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">NEXICURE 5MG  SACHET</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>11.7600</t>
+  </si>
+  <si>
     <t xml:space="preserve">OMEGA 3  SYRUP</t>
   </si>
   <si>
@@ -818,6 +836,18 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8352:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
   </si>
   <si>
@@ -905,9 +935,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>22:0</t>
   </si>
   <si>
@@ -962,7 +989,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 9:41 PM</t>
+    <t>Sunday, 31 August, 2025 9:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3121,7 +3148,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3154,7 +3181,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3164,11 +3191,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -3180,14 +3207,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3197,14 +3224,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>169</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3213,14 +3240,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3230,14 +3257,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3246,14 +3273,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3263,7 +3290,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3303,7 +3330,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3329,11 +3356,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>90</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -3345,14 +3372,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3362,11 +3389,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>69</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>18</v>
@@ -3378,14 +3405,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3395,14 +3422,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3411,14 +3438,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3428,14 +3455,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3451,7 +3478,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>172</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3461,14 +3488,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>105</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3477,14 +3504,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3494,7 +3521,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>105</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3517,7 +3544,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3534,7 +3561,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3593,11 +3620,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>141</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3609,14 +3636,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3626,14 +3653,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>200</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3649,7 +3676,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3659,14 +3686,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>47</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q69" s="12">
         <v>203</v>
-      </c>
-      <c t="s" r="Q69" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3682,13 +3709,13 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3699,7 +3726,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3715,13 +3742,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3732,7 +3759,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3748,21 +3775,21 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3774,14 +3801,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3791,11 +3818,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>149</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3807,14 +3834,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3824,11 +3851,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3840,14 +3867,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3857,11 +3884,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3873,14 +3900,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>58</v>
+        <v>217</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3890,11 +3917,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>149</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3906,14 +3933,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>167</v>
+        <v>25</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3923,14 +3950,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>43</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>147</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3939,14 +3966,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3956,11 +3983,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3972,14 +3999,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3989,14 +4016,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4012,7 +4039,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4022,11 +4049,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>163</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>164</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -4038,7 +4065,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4055,11 +4082,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -4071,14 +4098,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>167</v>
+        <v>66</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4088,14 +4115,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>166</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4111,7 +4138,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4121,14 +4148,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>68</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4137,14 +4164,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4154,14 +4181,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4170,14 +4197,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4187,7 +4214,7 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>68</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4210,7 +4237,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4224,10 +4251,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>137</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4236,14 +4263,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4253,11 +4280,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>121</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4269,14 +4296,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4286,11 +4313,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4302,14 +4329,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4319,11 +4346,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>86</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4335,14 +4362,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4352,14 +4379,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4368,14 +4395,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4385,14 +4412,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>205</v>
+        <v>86</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>206</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4401,7 +4428,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4418,14 +4445,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4434,7 +4461,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4451,11 +4478,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>258</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4484,11 +4511,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>121</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4500,14 +4527,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4517,11 +4544,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4533,14 +4560,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4550,14 +4577,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4573,7 +4600,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4590,7 +4617,7 @@
         <v>268</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4606,7 +4633,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4623,7 +4650,7 @@
         <v>271</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4639,13 +4666,13 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4653,10 +4680,10 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>203</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4665,14 +4692,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>276</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4682,14 +4709,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4698,14 +4725,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4715,14 +4742,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>91</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4731,7 +4758,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4748,11 +4775,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>71</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>72</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4764,28 +4791,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>281</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4797,31 +4824,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>286</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4830,14 +4857,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>288</v>
+        <v>82</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4847,11 +4874,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>289</v>
+        <v>71</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>286</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -4903,7 +4930,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4936,7 +4963,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>82</v>
+        <v>298</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4946,14 +4973,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>118</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>299</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4969,7 +4996,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>82</v>
+        <v>301</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4979,14 +5006,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>211</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4995,14 +5022,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5012,14 +5039,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5028,7 +5055,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5045,14 +5072,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>283</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>18</v>
+        <v>308</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5061,14 +5088,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>308</v>
+        <v>82</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5078,14 +5105,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>143</v>
+        <v>310</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>144</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>18</v>
+        <v>217</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5094,14 +5121,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5111,11 +5138,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>18</v>
@@ -5127,14 +5154,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>311</v>
+        <v>82</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5144,11 +5171,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>18</v>
@@ -5160,14 +5187,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5177,11 +5204,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>314</v>
+        <v>143</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
@@ -5193,14 +5220,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>316</v>
+        <v>61</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5210,49 +5237,148 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>143</v>
+        <v>292</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
+        <v>293</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>319</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>320</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>54</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>214</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>321</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>322</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>54</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>323</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>324</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>325</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>54</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>143</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
         <v>144</v>
       </c>
-      <c t="s" r="Q116" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="117" ht="25.5" customHeight="1">
-      <c r="P117" s="13">
-        <v>6848.4449999999997</v>
-      </c>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
-        <v>317</v>
-      </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
-        <v>318</v>
-      </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
-        <v>319</v>
-      </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+      <c t="s" r="Q119" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>6897.2049999999999</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
+        <v>326</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
+        <v>327</v>
+      </c>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>328</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5811,10 +5937,25 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -830,10 +830,13 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
+    <t>6:2</t>
+  </si>
+  <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>33.6600</t>
+    <t>50.4900</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -935,7 +938,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>22:0</t>
+    <t>23:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -989,7 +992,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 9:42 PM</t>
+    <t>Sunday, 31 August, 2025 9:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4666,7 +4669,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>63</v>
+        <v>273</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4676,14 +4679,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>25</v>
+        <v>172</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4692,14 +4695,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4709,11 +4712,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>58</v>
@@ -4725,7 +4728,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4742,11 +4745,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4758,7 +4761,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4775,7 +4778,7 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
@@ -4791,7 +4794,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4808,11 +4811,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4824,7 +4827,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4841,7 +4844,7 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4857,7 +4860,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4890,14 +4893,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4907,11 +4910,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -4923,7 +4926,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4940,11 +4943,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>61</v>
@@ -4956,14 +4959,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4973,11 +4976,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>18</v>
@@ -4989,14 +4992,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5006,11 +5009,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>18</v>
@@ -5022,7 +5025,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5039,11 +5042,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>61</v>
@@ -5055,7 +5058,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5072,14 +5075,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>118</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5088,7 +5091,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5105,11 +5108,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>217</v>
@@ -5121,7 +5124,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5138,11 +5141,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>18</v>
@@ -5154,7 +5157,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5171,11 +5174,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>18</v>
@@ -5187,14 +5190,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5220,7 +5223,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5237,11 +5240,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>18</v>
@@ -5253,14 +5256,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5286,14 +5289,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5303,7 +5306,7 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
@@ -5319,14 +5322,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5348,13 +5351,13 @@
     </row>
     <row r="120" ht="24.75" customHeight="1">
       <c r="P120" s="13">
-        <v>6897.2049999999999</v>
+        <v>6916.0349999999999</v>
       </c>
       <c r="Q120" s="13"/>
     </row>
     <row r="121" ht="16.5" customHeight="1">
       <c t="s" r="A121" s="14">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B121" s="14"/>
       <c r="C121" s="14"/>
@@ -5362,13 +5365,13 @@
       <c r="E121" s="14"/>
       <c r="F121" s="14"/>
       <c t="s" r="G121" s="15">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H121" s="15"/>
       <c r="I121" s="15"/>
       <c r="J121" s="16"/>
       <c t="s" r="K121" s="17">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L121" s="17"/>
       <c r="M121" s="17"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -125,120 +125,120 @@
     <t>BETADERM 0.1% CREAM 15 GM</t>
   </si>
   <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>BI-KETOGESIC 150 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>-26.7300</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>BIOPREX 2.5 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
+    <t>BUDELIZER 400MCG 60 INH. CAPS. +INHALER DEVICE</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>255.00</t>
+  </si>
+  <si>
+    <t>40.8000</t>
+  </si>
+  <si>
+    <t>CARVID 6.25MG 30TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>CEFIDIME 1 GM VIAL I.M./I.V.</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>212.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>129.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>CEPOREX 1GM 8 TABLETS</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>CERELAC تمر وقمح ولبن</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
     <t>8:0</t>
   </si>
   <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>BI-KETOGESIC 150 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>-26.7300</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>BIOPREX 2.5 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>21.7800</t>
-  </si>
-  <si>
-    <t>BUDELIZER 400MCG 60 INH. CAPS. +INHALER DEVICE</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>255.00</t>
-  </si>
-  <si>
-    <t>40.8000</t>
-  </si>
-  <si>
-    <t>CARVID 6.25MG 30TAB</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>CEFIDIME 1 GM VIAL I.M./I.V.</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>53.00</t>
-  </si>
-  <si>
-    <t>212.0000</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>129.0000</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>CEPOREX 1GM 8 TABLETS</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>CERELAC تمر وقمح ولبن</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>CETAFEN PLUS 30 TAB.</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>CEVA-FRESH TAB</t>
-  </si>
-  <si>
     <t>12.00</t>
   </si>
   <si>
@@ -524,9 +524,6 @@
     <t>2:1</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
     <t>0:3</t>
   </si>
   <si>
@@ -992,7 +989,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 9:44 PM</t>
+    <t>Sunday, 31 August, 2025 9:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1881,7 +1878,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1890,14 +1887,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1907,14 +1904,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1923,7 +1920,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1940,11 +1937,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1956,14 +1953,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1973,11 +1970,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1989,7 +1986,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -2002,15 +1999,15 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>18</v>
@@ -2022,14 +2019,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2062,7 +2059,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2072,14 +2069,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>65</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>66</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2088,7 +2085,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -2105,11 +2102,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -2121,28 +2118,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>18</v>
@@ -2154,14 +2151,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2171,11 +2168,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2187,20 +2184,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -2359,7 +2356,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2392,7 +2389,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2431,7 +2428,7 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2497,7 +2494,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2590,7 +2587,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2623,7 +2620,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2656,7 +2653,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2689,7 +2686,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2703,7 +2700,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>18</v>
@@ -2755,7 +2752,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2893,7 +2890,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -3019,13 +3016,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -3118,7 +3115,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3227,11 +3224,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -3260,14 +3257,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q56" s="12">
         <v>171</v>
-      </c>
-      <c t="s" r="Q56" s="12">
-        <v>172</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3276,7 +3273,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3297,7 +3294,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3309,7 +3306,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3326,11 +3323,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3342,7 +3339,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3359,11 +3356,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -3375,7 +3372,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3396,7 +3393,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>18</v>
@@ -3408,14 +3405,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3429,7 +3426,7 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3441,7 +3438,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3462,10 +3459,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3474,14 +3471,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3491,11 +3488,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3507,7 +3504,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3528,7 +3525,7 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3540,7 +3537,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3557,11 +3554,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3573,7 +3570,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3590,11 +3587,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3606,7 +3603,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3623,11 +3620,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3639,7 +3636,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3672,7 +3669,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3689,14 +3686,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q69" s="12">
         <v>202</v>
-      </c>
-      <c t="s" r="Q69" s="12">
-        <v>203</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3705,7 +3702,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3722,11 +3719,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3738,7 +3735,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3751,15 +3748,15 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>25</v>
@@ -3771,7 +3768,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3784,15 +3781,15 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3804,7 +3801,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3821,11 +3818,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3837,14 +3834,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3854,11 +3851,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3870,7 +3867,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3903,14 +3900,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3920,11 +3917,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3936,7 +3933,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3953,11 +3950,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3969,14 +3966,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4002,7 +3999,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4019,7 +4016,7 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -4035,7 +4032,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4052,11 +4049,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -4068,7 +4065,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4085,11 +4082,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -4101,14 +4098,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4134,7 +4131,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4151,11 +4148,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -4167,7 +4164,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4184,11 +4181,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4200,14 +4197,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4217,11 +4214,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4233,14 +4230,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4250,11 +4247,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4266,7 +4263,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4283,11 +4280,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4299,7 +4296,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4316,7 +4313,7 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
@@ -4332,14 +4329,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4349,7 +4346,7 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
@@ -4365,14 +4362,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4382,11 +4379,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4398,7 +4395,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4419,7 +4416,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4431,7 +4428,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4448,11 +4445,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4464,7 +4461,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4481,11 +4478,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4497,7 +4494,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4514,11 +4511,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4530,7 +4527,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4547,11 +4544,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4563,7 +4560,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4580,7 +4577,7 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
@@ -4596,7 +4593,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4613,11 +4610,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4629,7 +4626,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4646,11 +4643,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4662,14 +4659,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4679,14 +4676,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4695,14 +4692,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4712,14 +4709,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4728,7 +4725,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4745,11 +4742,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4761,7 +4758,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4774,15 +4771,15 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4794,7 +4791,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4811,11 +4808,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4827,14 +4824,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4844,7 +4841,7 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4860,7 +4857,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4873,15 +4870,15 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -4893,28 +4890,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -4926,28 +4923,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>61</v>
@@ -4959,28 +4956,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>18</v>
@@ -4992,28 +4989,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>18</v>
@@ -5025,7 +5022,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5038,15 +5035,15 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>61</v>
@@ -5058,7 +5055,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5071,18 +5068,18 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5091,7 +5088,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5104,18 +5101,18 @@
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5124,28 +5121,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>18</v>
@@ -5157,7 +5154,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5170,15 +5167,15 @@
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>18</v>
@@ -5190,20 +5187,20 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
@@ -5223,7 +5220,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5236,15 +5233,15 @@
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>18</v>
@@ -5256,28 +5253,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>18</v>
@@ -5289,24 +5286,24 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
@@ -5322,20 +5319,20 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
@@ -5351,13 +5348,13 @@
     </row>
     <row r="120" ht="24.75" customHeight="1">
       <c r="P120" s="13">
-        <v>6916.0349999999999</v>
+        <v>6934.0349999999999</v>
       </c>
       <c r="Q120" s="13"/>
     </row>
     <row r="121" ht="16.5" customHeight="1">
       <c t="s" r="A121" s="14">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B121" s="14"/>
       <c r="C121" s="14"/>
@@ -5365,13 +5362,13 @@
       <c r="E121" s="14"/>
       <c r="F121" s="14"/>
       <c t="s" r="G121" s="15">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H121" s="15"/>
       <c r="I121" s="15"/>
       <c r="J121" s="16"/>
       <c t="s" r="K121" s="17">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L121" s="17"/>
       <c r="M121" s="17"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -113,13 +113,13 @@
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
-    <t>1:6</t>
+    <t>1:5</t>
   </si>
   <si>
     <t>57.00</t>
   </si>
   <si>
-    <t>9.1200</t>
+    <t>18.2400</t>
   </si>
   <si>
     <t>BETADERM 0.1% CREAM 15 GM</t>
@@ -296,6 +296,15 @@
     <t>188.0000</t>
   </si>
   <si>
+    <t>COSMOFER 50MG/ML FOR INF. 5 AMPS.</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>470.00</t>
+  </si>
+  <si>
     <t>CO-TAREG 160/12.5MG 14 F.C. TAB.</t>
   </si>
   <si>
@@ -368,6 +377,12 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
     <t>DIASMECT 20% SUSP. 60ML</t>
   </si>
   <si>
@@ -524,9 +539,6 @@
     <t>2:1</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -905,12 +917,15 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>72:0</t>
+    <t>71:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>حلمة ببرونه</t>
   </si>
   <si>
@@ -944,34 +959,46 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>سيتي بيبي رقم 5</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>200.0000</t>
+  </si>
+  <si>
+    <t>شامبو جونسون 100 مل</t>
+  </si>
+  <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>فرشه شعر اطفال الجو</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
     <t>15.0000</t>
   </si>
   <si>
-    <t>سيتي بيبي رقم 5</t>
-  </si>
-  <si>
-    <t>200.00</t>
-  </si>
-  <si>
-    <t>200.0000</t>
-  </si>
-  <si>
-    <t>شامبو جونسون 100 مل</t>
-  </si>
-  <si>
-    <t>صابون ديتول اوريجنيال 115 جم</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>فرشه شعر اطفال الجو</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>38:0</t>
+    <t>37:0</t>
+  </si>
+  <si>
+    <t>48.0000</t>
   </si>
   <si>
     <t>معجون سيجنال 50 مل</t>
@@ -989,7 +1016,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 9:48 PM</t>
+    <t>Sunday, 31 August, 2025 9:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1845,7 +1872,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -2389,7 +2416,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2399,14 +2426,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2422,13 +2449,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2439,7 +2466,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2461,7 +2488,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2472,7 +2499,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2494,7 +2521,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2521,24 +2548,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2554,7 +2581,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2564,14 +2591,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2587,7 +2614,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2604,7 +2631,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2620,7 +2647,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2637,7 +2664,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2653,7 +2680,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2686,7 +2713,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2696,14 +2723,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2719,7 +2746,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2752,7 +2779,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2766,10 +2793,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2778,14 +2805,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2795,14 +2822,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2811,14 +2838,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2828,14 +2855,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2844,14 +2871,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2861,14 +2888,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2884,24 +2911,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2910,14 +2937,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2927,11 +2954,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2943,28 +2970,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>18</v>
@@ -2976,7 +3003,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2993,11 +3020,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -3009,31 +3036,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3042,14 +3069,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>155</v>
+        <v>61</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3059,14 +3086,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3075,31 +3102,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3108,14 +3135,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3125,14 +3152,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3141,14 +3168,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3158,11 +3185,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>18</v>
@@ -3174,14 +3201,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3191,11 +3218,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -3207,14 +3234,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3224,11 +3251,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>57</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -3240,14 +3267,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3257,14 +3284,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>171</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3273,14 +3300,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3290,14 +3317,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3313,7 +3340,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3323,14 +3350,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3339,14 +3366,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3356,14 +3383,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3372,7 +3399,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3389,14 +3416,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>90</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3405,14 +3432,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3422,11 +3449,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>68</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3438,14 +3465,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3455,14 +3482,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3471,14 +3498,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>171</v>
+        <v>65</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3488,11 +3515,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3504,14 +3531,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3521,14 +3548,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3537,14 +3564,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3554,14 +3581,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3570,14 +3597,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3587,14 +3614,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>108</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3603,14 +3630,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3620,14 +3647,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3636,7 +3663,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3653,11 +3680,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>141</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3676,7 +3703,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3686,14 +3713,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>202</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3709,7 +3736,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3719,14 +3746,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>145</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3735,31 +3762,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>48</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>206</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3768,31 +3795,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3801,31 +3828,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3834,28 +3861,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>216</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3867,14 +3894,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3884,11 +3911,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>150</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3900,14 +3927,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3917,11 +3944,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3933,14 +3960,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3950,11 +3977,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3966,14 +3993,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>41</v>
+        <v>220</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3983,11 +4010,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>150</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3999,14 +4026,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4016,14 +4043,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>44</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>147</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4032,14 +4059,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4049,11 +4076,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>154</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -4065,14 +4092,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4082,14 +4109,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4098,14 +4125,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4115,11 +4142,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>166</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>167</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -4171,7 +4198,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4181,14 +4208,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>171</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4197,14 +4224,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4214,14 +4241,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>67</v>
+        <v>236</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4230,14 +4257,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4247,14 +4274,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4263,14 +4290,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4280,11 +4307,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>67</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4296,14 +4323,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4313,14 +4340,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>137</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4329,14 +4356,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4346,11 +4373,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>121</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4369,7 +4396,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4383,7 +4410,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4395,14 +4422,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4412,11 +4439,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>86</v>
+        <v>252</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4428,14 +4455,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4445,14 +4472,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4461,14 +4488,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4478,14 +4505,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>210</v>
+        <v>86</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4518,7 +4545,7 @@
         <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4544,11 +4571,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4560,7 +4587,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4577,11 +4604,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>121</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4600,7 +4627,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4633,7 +4660,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4643,14 +4670,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4659,14 +4686,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>272</v>
+        <v>25</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4676,14 +4703,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>171</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4692,14 +4719,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>276</v>
+        <v>61</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4709,14 +4736,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4725,14 +4752,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>276</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4742,14 +4769,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4758,31 +4785,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>82</v>
+        <v>280</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>205</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4791,14 +4818,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4808,14 +4835,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4824,28 +4851,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>91</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4857,28 +4884,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>70</v>
+        <v>289</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>71</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -4890,20 +4917,20 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>291</v>
+        <v>75</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
@@ -4911,7 +4938,7 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>293</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -4923,14 +4950,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4940,14 +4967,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>295</v>
+        <v>70</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>296</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4956,14 +4983,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4973,11 +5000,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>18</v>
@@ -4989,14 +5016,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>301</v>
+        <v>38</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5006,14 +5033,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5022,14 +5049,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>82</v>
+        <v>302</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5039,14 +5066,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5055,14 +5082,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>82</v>
+        <v>306</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5072,14 +5099,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>184</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>308</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5112,7 +5139,7 @@
         <v>311</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>216</v>
+        <v>61</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5128,7 +5155,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5138,14 +5165,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>314</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>18</v>
+        <v>313</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5154,7 +5181,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5171,14 +5198,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>18</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5187,14 +5214,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>317</v>
+        <v>41</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5204,11 +5231,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>143</v>
+        <v>318</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>144</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
@@ -5220,14 +5247,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5237,11 +5264,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>18</v>
@@ -5253,14 +5280,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5270,11 +5297,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>213</v>
+        <v>148</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>214</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>18</v>
@@ -5286,14 +5313,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>322</v>
+        <v>61</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5303,11 +5330,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>129</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>18</v>
@@ -5326,7 +5353,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>325</v>
+        <v>82</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5336,49 +5363,148 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>143</v>
+        <v>325</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>144</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>6934.0349999999999</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
-        <v>326</v>
-      </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
         <v>327</v>
       </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
         <v>328</v>
       </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>55</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>217</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>329</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>330</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>331</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>55</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>332</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>333</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>334</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>55</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>148</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>7205.0349999999999</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>335</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>336</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>337</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5952,10 +6078,25 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -1016,7 +1016,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 9:49 PM</t>
+    <t>Sunday, 31 August, 2025 9:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -839,13 +839,10 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>6:2</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>50.4900</t>
+    <t>84.1500</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -950,7 +947,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>23:0</t>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>25:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1016,7 +1016,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 9:55 PM</t>
+    <t>Sunday, 31 August, 2025 9:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4759,7 +4759,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>276</v>
+        <v>111</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4769,14 +4769,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>96</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4785,14 +4785,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4802,11 +4802,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>41</v>
@@ -4818,7 +4818,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4835,11 +4835,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4851,7 +4851,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4868,7 +4868,7 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4901,11 +4901,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4934,7 +4934,7 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
@@ -4950,7 +4950,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4983,14 +4983,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5000,11 +5000,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>18</v>
@@ -5016,7 +5016,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5033,11 +5033,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>61</v>
@@ -5049,14 +5049,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5066,11 +5066,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>41</v>
@@ -5082,14 +5082,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5099,11 +5099,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>18</v>
@@ -5115,7 +5115,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5132,11 +5132,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>61</v>
@@ -5148,7 +5148,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5165,11 +5165,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>188</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>313</v>
@@ -5264,11 +5264,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>18</v>
@@ -5330,11 +5330,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>18</v>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="123" ht="24.75" customHeight="1">
       <c r="P123" s="13">
-        <v>7205.0349999999999</v>
+        <v>7242.6949999999997</v>
       </c>
       <c r="Q123" s="13"/>
     </row>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -1016,7 +1016,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 9:57 PM</t>
+    <t>Sunday, 31 August, 2025 9:58 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -893,87 +893,93 @@
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
-    <t>24:0</t>
+    <t>23:0</t>
   </si>
   <si>
     <t>25.00</t>
   </si>
   <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>بودره نلج اكياس</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>بيبرونه ALGO كبيره</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>71:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>حلمة ببرونه</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>سيتي بيبي رقم 5</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>200.0000</t>
+  </si>
+  <si>
+    <t>شامبو جونسون 100 مل</t>
+  </si>
+  <si>
     <t>25.0000</t>
   </si>
   <si>
-    <t>بودره نلج اكياس</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>71:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>حلمة ببرونه</t>
-  </si>
-  <si>
-    <t>19:0</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>25:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>سيتي بيبي رقم 5</t>
-  </si>
-  <si>
-    <t>200.00</t>
-  </si>
-  <si>
-    <t>200.0000</t>
-  </si>
-  <si>
-    <t>شامبو جونسون 100 مل</t>
-  </si>
-  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -1005,9 +1011,6 @@
   </si>
   <si>
     <t>11:0</t>
-  </si>
-  <si>
-    <t>35.00</t>
   </si>
   <si>
     <t>مناديل FINE</t>
@@ -5007,7 +5010,7 @@
         <v>296</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5056,7 +5059,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>301</v>
+        <v>18</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5066,14 +5069,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>303</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5082,14 +5085,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5099,14 +5102,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5115,14 +5118,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>82</v>
+        <v>307</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5132,14 +5135,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5148,7 +5151,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5165,14 +5168,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
         <v>312</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>313</v>
+        <v>61</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5181,7 +5184,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5198,14 +5201,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>111</v>
+        <v>314</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5214,14 +5217,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5231,14 +5234,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>18</v>
+        <v>111</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5247,14 +5250,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5264,11 +5267,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>18</v>
@@ -5287,7 +5290,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>322</v>
+        <v>82</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5297,11 +5300,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>148</v>
+        <v>295</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>149</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>18</v>
@@ -5320,7 +5323,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>61</v>
+        <v>324</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5330,11 +5333,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>295</v>
+        <v>148</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>296</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>18</v>
@@ -5346,14 +5349,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5363,11 +5366,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>18</v>
@@ -5379,14 +5382,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>328</v>
+        <v>82</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5396,14 +5399,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>217</v>
+        <v>327</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5412,14 +5415,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5429,14 +5432,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>332</v>
+        <v>217</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>134</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5445,14 +5448,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5462,49 +5465,82 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>148</v>
+        <v>301</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>334</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>335</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>55</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>148</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
         <v>149</v>
       </c>
-      <c t="s" r="Q122" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>7242.6949999999997</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
-        <v>335</v>
-      </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
+      <c t="s" r="Q123" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>7302.6949999999997</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
         <v>336</v>
       </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
         <v>337</v>
       </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>338</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6093,10 +6129,15 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -1019,7 +1019,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 9:58 PM</t>
+    <t>Sunday, 31 August, 2025 9:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -509,6 +509,15 @@
     <t>59.0000</t>
   </si>
   <si>
+    <t>FUSI 2% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -620,6 +629,15 @@
     <t>151.0000</t>
   </si>
   <si>
+    <t>NERHASILDA 75 MG 8 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
     <t>NEUROGLOPENTIN 100 MG 30 CAPS.</t>
   </si>
   <si>
@@ -947,9 +965,6 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>16.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -1019,7 +1034,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 9:59 PM</t>
+    <t>Sunday, 31 August, 2025 10:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3211,7 +3226,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3221,11 +3236,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -3237,14 +3252,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3254,11 +3269,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -3277,7 +3292,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3310,7 +3325,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3320,11 +3335,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>57</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -3336,14 +3351,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3353,14 +3368,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3369,14 +3384,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>61</v>
+        <v>178</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3386,14 +3401,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3402,14 +3417,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3419,7 +3434,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3459,7 +3474,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3485,11 +3500,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3501,14 +3516,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3518,11 +3533,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>68</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3534,14 +3549,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3551,14 +3566,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3567,14 +3582,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3584,14 +3599,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3607,7 +3622,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3617,14 +3632,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>108</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3633,14 +3648,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3650,7 +3665,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>108</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3673,7 +3688,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3690,7 +3705,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3749,11 +3764,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>145</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>146</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3765,14 +3780,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3782,14 +3797,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>48</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>206</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3798,14 +3813,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3815,14 +3830,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>145</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3838,24 +3853,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>48</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q73" s="12">
         <v>212</v>
-      </c>
-      <c t="s" r="Q73" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3871,13 +3886,13 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3888,7 +3903,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3904,13 +3919,13 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3921,7 +3936,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3937,21 +3952,21 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3963,14 +3978,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3980,11 +3995,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>154</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3996,14 +4011,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4013,11 +4028,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -4029,14 +4044,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4046,11 +4061,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -4062,14 +4077,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>41</v>
+        <v>226</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4079,11 +4094,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>154</v>
+        <v>223</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -4095,14 +4110,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4112,14 +4127,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>44</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>152</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4128,14 +4143,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4145,11 +4160,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>154</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -4161,14 +4176,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4178,14 +4193,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4201,7 +4216,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4211,11 +4226,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -4227,7 +4242,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4244,11 +4259,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4260,14 +4275,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4277,14 +4292,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>174</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4300,7 +4315,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4310,14 +4325,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4326,14 +4341,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4343,14 +4358,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4359,14 +4374,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4376,7 +4391,7 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>247</v>
+        <v>67</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
@@ -4399,7 +4414,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4413,10 +4428,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>142</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4425,14 +4440,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4442,11 +4457,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>126</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4458,14 +4473,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4475,11 +4490,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>255</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4491,14 +4506,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4508,11 +4523,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>86</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>257</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4524,14 +4539,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4541,14 +4556,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4557,14 +4572,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4574,14 +4589,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>214</v>
+        <v>86</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4590,7 +4605,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4607,14 +4622,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4623,7 +4638,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4640,11 +4655,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4673,11 +4688,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>126</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4689,14 +4704,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4706,11 +4721,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>18</v>
@@ -4722,14 +4737,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4739,14 +4754,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>274</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4762,7 +4777,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4779,7 +4794,7 @@
         <v>277</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4795,7 +4810,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>279</v>
+        <v>61</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4805,14 +4820,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4821,14 +4836,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4838,14 +4853,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4854,20 +4869,20 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>82</v>
+        <v>285</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
@@ -4875,10 +4890,10 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>209</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4887,14 +4902,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4904,14 +4919,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4920,28 +4935,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -4953,28 +4968,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>70</v>
+        <v>294</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>71</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>18</v>
@@ -4986,31 +5001,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>294</v>
+        <v>75</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>296</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5019,14 +5034,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5036,14 +5051,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>298</v>
+        <v>70</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>299</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5052,14 +5067,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>18</v>
+        <v>300</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5073,10 +5088,10 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>134</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5085,14 +5100,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>303</v>
+        <v>38</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5109,7 +5124,7 @@
         <v>305</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5125,7 +5140,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>307</v>
+        <v>18</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5135,11 +5150,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>309</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>18</v>
@@ -5151,14 +5166,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>82</v>
+        <v>309</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5168,14 +5183,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5184,14 +5199,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>82</v>
+        <v>313</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5201,14 +5216,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>314</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5217,7 +5232,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5234,14 +5249,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>317</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>111</v>
+        <v>61</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5257,7 +5272,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5267,14 +5282,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>18</v>
+        <v>319</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5283,7 +5298,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5300,14 +5315,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
         <v>322</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>18</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5323,7 +5338,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>324</v>
+        <v>41</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5333,11 +5348,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>148</v>
+        <v>324</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>149</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>18</v>
@@ -5349,14 +5364,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5366,11 +5381,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>18</v>
@@ -5382,14 +5397,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>82</v>
+        <v>329</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5399,11 +5414,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>327</v>
+        <v>148</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>328</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>18</v>
@@ -5415,14 +5430,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>330</v>
+        <v>61</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5432,14 +5447,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>217</v>
+        <v>301</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5448,14 +5463,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>333</v>
+        <v>82</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5465,11 +5480,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>134</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>18</v>
@@ -5498,49 +5513,115 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>148</v>
+        <v>223</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
+        <v>336</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>337</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>338</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>55</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>307</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>339</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>340</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>55</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>148</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
         <v>149</v>
       </c>
-      <c t="s" r="Q123" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="124" ht="25.5" customHeight="1">
-      <c r="P124" s="13">
-        <v>7302.6949999999997</v>
-      </c>
-      <c r="Q124" s="13"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="14">
-        <v>336</v>
-      </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c t="s" r="G125" s="15">
-        <v>337</v>
-      </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="16"/>
-      <c t="s" r="K125" s="17">
-        <v>338</v>
-      </c>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="17"/>
-      <c r="Q125" s="17"/>
+      <c t="s" r="Q125" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="P126" s="13">
+        <v>7356.6949999999997</v>
+      </c>
+      <c r="Q126" s="13"/>
+    </row>
+    <row r="127" ht="16.5" customHeight="1">
+      <c t="s" r="A127" s="14">
+        <v>341</v>
+      </c>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c t="s" r="G127" s="15">
+        <v>342</v>
+      </c>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="16"/>
+      <c t="s" r="K127" s="17">
+        <v>343</v>
+      </c>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="17"/>
+      <c r="P127" s="17"/>
+      <c r="Q127" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="597">
+  <mergeCells count="607">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6134,10 +6215,20 @@
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
     <mergeCell ref="N123:O123"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="P126:Q126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="K127:Q127"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -1034,7 +1034,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 10:05 PM</t>
+    <t>Sunday, 31 August, 2025 10:14 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -161,6 +161,15 @@
     <t>21.7800</t>
   </si>
   <si>
+    <t>BRUFEN 400MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>BUDELIZER 400MCG 60 INH. CAPS. +INHALER DEVICE</t>
   </si>
   <si>
@@ -212,9 +221,6 @@
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>39.0000</t>
   </si>
   <si>
@@ -755,9 +761,6 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
-    <t>25.7400</t>
-  </si>
-  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -1034,7 +1037,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 10:14 PM</t>
+    <t>Sunday, 31 August, 2025 10:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2005,7 +2008,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2015,11 +2018,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -2031,31 +2034,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2064,20 +2067,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -2088,7 +2091,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2097,14 +2100,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2114,14 +2117,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>64</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>65</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2130,14 +2133,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2147,14 +2150,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>68</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2170,24 +2173,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2196,31 +2199,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2236,24 +2239,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2262,31 +2265,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2295,14 +2298,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2312,14 +2315,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2328,14 +2331,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2345,14 +2348,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2361,14 +2364,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2378,11 +2381,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2394,14 +2397,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2411,14 +2414,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2427,14 +2430,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2444,14 +2447,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2460,14 +2463,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2481,10 +2484,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2493,31 +2496,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2526,31 +2529,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2559,28 +2562,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>18</v>
@@ -2592,31 +2595,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2625,14 +2628,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2642,14 +2645,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2658,14 +2661,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2675,14 +2678,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2691,14 +2694,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2708,14 +2711,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2724,14 +2727,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2741,14 +2744,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2764,7 +2767,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2774,14 +2777,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2790,14 +2793,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2807,11 +2810,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2830,7 +2833,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2844,7 +2847,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>18</v>
@@ -2856,14 +2859,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2873,14 +2876,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2889,14 +2892,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2906,11 +2909,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2922,14 +2925,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2939,14 +2942,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2955,14 +2958,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2972,14 +2975,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2988,28 +2991,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>18</v>
@@ -3021,28 +3024,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -3054,14 +3057,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3071,11 +3074,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -3087,14 +3090,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3104,11 +3107,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>18</v>
@@ -3120,31 +3123,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3153,28 +3156,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3186,14 +3189,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3203,14 +3206,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3219,14 +3222,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3236,11 +3239,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -3252,14 +3255,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3269,11 +3272,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -3285,14 +3288,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3302,11 +3305,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -3318,14 +3321,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3335,11 +3338,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -3351,14 +3354,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3368,11 +3371,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>56</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>57</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3384,14 +3387,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3401,14 +3404,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3424,7 +3427,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3434,14 +3437,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3457,7 +3460,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3467,11 +3470,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3483,7 +3486,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3500,14 +3503,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3516,7 +3519,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3533,7 +3536,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>90</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3556,7 +3559,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3566,11 +3569,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>68</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3582,14 +3585,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3599,14 +3602,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3622,7 +3625,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3632,14 +3635,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>127</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3648,14 +3651,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3665,14 +3668,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>108</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3688,7 +3691,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3698,11 +3701,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>110</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3714,14 +3717,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3731,14 +3734,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3747,14 +3750,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3764,11 +3767,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3780,14 +3783,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3797,14 +3800,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3813,14 +3816,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3830,14 +3833,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3846,14 +3849,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3863,14 +3866,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>212</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3879,14 +3882,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3896,14 +3899,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>48</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3912,7 +3915,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3925,18 +3928,18 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3945,31 +3948,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3978,28 +3981,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -4011,14 +4014,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>226</v>
+        <v>64</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4028,11 +4031,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -4051,7 +4054,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>82</v>
+        <v>228</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4061,11 +4064,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>154</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>155</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -4077,14 +4080,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4094,11 +4097,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>223</v>
+        <v>156</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -4110,14 +4113,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>25</v>
+        <v>228</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4127,11 +4130,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>44</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -4150,7 +4153,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4160,11 +4163,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>155</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -4176,14 +4179,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>178</v>
+        <v>41</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4193,14 +4196,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>156</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4216,7 +4219,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4230,10 +4233,10 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4242,14 +4245,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4259,11 +4262,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4275,14 +4278,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4292,11 +4295,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>175</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4308,14 +4311,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4325,11 +4328,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4341,14 +4344,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>178</v>
+        <v>84</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4358,14 +4361,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4374,14 +4377,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4391,7 +4394,7 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>67</v>
+        <v>247</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
@@ -4414,7 +4417,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4424,14 +4427,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4440,14 +4443,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4457,14 +4460,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4473,14 +4476,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4490,11 +4493,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>142</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4506,14 +4509,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4523,11 +4526,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4539,14 +4542,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4556,11 +4559,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4572,14 +4575,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4589,11 +4592,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>86</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4605,14 +4608,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4622,14 +4625,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>265</v>
+        <v>88</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4638,14 +4641,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4655,11 +4658,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>221</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4678,7 +4681,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4688,14 +4691,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>222</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4704,14 +4707,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4721,14 +4724,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4737,14 +4740,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4754,14 +4757,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>126</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4777,7 +4780,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4787,14 +4790,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>277</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4803,14 +4806,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4820,11 +4823,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4836,14 +4839,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4853,14 +4856,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4869,14 +4872,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>285</v>
+        <v>113</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4886,14 +4889,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4902,14 +4905,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>286</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4919,14 +4922,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4935,31 +4938,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>215</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4968,28 +4971,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>295</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>18</v>
@@ -5001,14 +5004,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5018,11 +5021,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>91</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>18</v>
@@ -5034,28 +5037,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>70</v>
+        <v>298</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>18</v>
@@ -5074,24 +5077,24 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>300</v>
+        <v>84</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>301</v>
+        <v>72</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>302</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5100,31 +5103,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>38</v>
+        <v>301</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5133,31 +5136,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>134</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5166,31 +5169,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>309</v>
+        <v>18</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>311</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5199,31 +5202,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5232,31 +5235,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>82</v>
+        <v>314</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>208</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5265,31 +5268,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>302</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>319</v>
+        <v>64</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5298,31 +5301,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>111</v>
+        <v>320</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5331,31 +5334,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>18</v>
+        <v>113</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5364,28 +5367,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>18</v>
@@ -5397,28 +5400,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>329</v>
+        <v>84</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>148</v>
+        <v>302</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>149</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>18</v>
@@ -5430,28 +5433,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>61</v>
+        <v>330</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>301</v>
+        <v>150</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>327</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>18</v>
@@ -5470,21 +5473,21 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>18</v>
@@ -5496,31 +5499,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>335</v>
+        <v>84</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>223</v>
+        <v>333</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5529,31 +5532,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>307</v>
+        <v>225</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>134</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5562,66 +5565,99 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>148</v>
+        <v>308</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
-      <c r="P126" s="13">
-        <v>7356.6949999999997</v>
-      </c>
-      <c r="Q126" s="13"/>
-    </row>
-    <row r="127" ht="16.5" customHeight="1">
-      <c t="s" r="A127" s="14">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>340</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
         <v>341</v>
       </c>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c t="s" r="G127" s="15">
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>58</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>150</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="P127" s="13">
+        <v>7382.4350000000004</v>
+      </c>
+      <c r="Q127" s="13"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="14">
         <v>342</v>
       </c>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="16"/>
-      <c t="s" r="K127" s="17">
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c t="s" r="G128" s="15">
         <v>343</v>
       </c>
-      <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
-      <c r="N127" s="17"/>
-      <c r="O127" s="17"/>
-      <c r="P127" s="17"/>
-      <c r="Q127" s="17"/>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c t="s" r="K128" s="17">
+        <v>344</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="607">
+  <mergeCells count="612">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6225,10 +6261,15 @@
     <mergeCell ref="H125:K125"/>
     <mergeCell ref="L125:M125"/>
     <mergeCell ref="N125:O125"/>
-    <mergeCell ref="P126:Q126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="K127:Q127"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="K128:Q128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -1037,7 +1037,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 10:20 PM</t>
+    <t>Sunday, 31 August, 2025 10:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -467,6 +467,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>FLEXOLYTE ORAL REHYDRATION SOL. 240 ML</t>
   </si>
   <si>
@@ -692,6 +701,12 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -812,9 +827,6 @@
     <t>90.00</t>
   </si>
   <si>
-    <t>90.0000</t>
-  </si>
-  <si>
     <t>TOPRO 10 SACHETS</t>
   </si>
   <si>
@@ -1037,7 +1049,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 10:24 PM</t>
+    <t>Sunday, 31 August, 2025 10:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3097,7 +3109,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3114,7 +3126,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3130,7 +3142,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3163,13 +3175,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3180,7 +3192,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3196,21 +3208,21 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3222,14 +3234,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3246,7 +3258,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3262,7 +3274,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3295,7 +3307,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3305,11 +3317,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -3321,14 +3333,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3338,11 +3350,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -3361,7 +3373,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3394,7 +3406,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3404,11 +3416,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -3420,14 +3432,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>113</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3437,14 +3449,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>98</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3453,14 +3465,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3470,14 +3482,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3486,14 +3498,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3503,7 +3515,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3543,7 +3555,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3569,11 +3581,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3585,14 +3597,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3602,11 +3614,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3618,14 +3630,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3635,14 +3647,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3651,14 +3663,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3668,14 +3680,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3691,7 +3703,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3701,14 +3713,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>110</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3717,14 +3729,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3734,7 +3746,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3757,7 +3769,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3774,7 +3786,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3823,7 +3835,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3840,7 +3852,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3856,7 +3868,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3866,14 +3878,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>147</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>148</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3882,14 +3894,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3899,14 +3911,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>214</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3922,7 +3934,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3932,14 +3944,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>48</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q75" s="12">
         <v>217</v>
-      </c>
-      <c t="s" r="Q75" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3961,7 +3973,7 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3972,7 +3984,7 @@
         <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3988,7 +4000,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4005,7 +4017,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4021,13 +4033,13 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -4054,7 +4066,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>228</v>
+        <v>64</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4064,11 +4076,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -4080,14 +4092,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4097,14 +4109,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>157</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4113,14 +4125,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4130,11 +4142,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -4146,14 +4158,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4163,11 +4175,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -4179,14 +4191,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4196,11 +4208,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>156</v>
+        <v>228</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>157</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -4212,14 +4224,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4229,14 +4241,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>44</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>154</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4245,14 +4257,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4262,11 +4274,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>159</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4285,7 +4297,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>84</v>
+        <v>183</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4299,10 +4311,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4311,14 +4323,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4328,11 +4340,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4344,7 +4356,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4361,11 +4373,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4377,14 +4389,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>180</v>
+        <v>68</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4394,14 +4406,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>247</v>
+        <v>179</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4410,14 +4422,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4427,14 +4439,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>51</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>52</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4443,14 +4455,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>38</v>
+        <v>183</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4460,14 +4472,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4476,14 +4488,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4493,11 +4505,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>254</v>
+        <v>51</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>255</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4509,14 +4521,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4526,14 +4538,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>144</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4549,7 +4561,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4563,7 +4575,7 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>128</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4575,14 +4587,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4592,11 +4604,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4615,7 +4627,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4625,11 +4637,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>88</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>264</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4648,7 +4660,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4665,7 +4677,7 @@
         <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4681,7 +4693,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4691,14 +4703,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>222</v>
+        <v>88</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4707,7 +4719,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4724,14 +4736,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>271</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4757,11 +4769,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>273</v>
+        <v>225</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4773,7 +4785,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4790,11 +4802,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>128</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4813,7 +4825,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4846,7 +4858,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4856,14 +4868,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>281</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4872,14 +4884,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4889,14 +4901,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4905,14 +4917,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>286</v>
+        <v>64</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4922,14 +4934,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4938,14 +4950,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4955,14 +4967,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4971,31 +4983,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>84</v>
+        <v>290</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>217</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5004,14 +5016,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5021,14 +5033,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5037,28 +5049,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>93</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>18</v>
@@ -5070,28 +5082,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>72</v>
+        <v>299</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>73</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>18</v>
@@ -5103,20 +5115,20 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
@@ -5124,10 +5136,10 @@
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>303</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5136,14 +5148,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5153,14 +5165,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>305</v>
+        <v>72</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>306</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>64</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5169,14 +5181,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>18</v>
+        <v>305</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5186,14 +5198,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>136</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5202,14 +5214,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>310</v>
+        <v>38</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5219,14 +5231,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5235,14 +5247,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>314</v>
+        <v>18</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5252,11 +5264,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>316</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
@@ -5268,14 +5280,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>84</v>
+        <v>314</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5285,14 +5297,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>210</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5301,14 +5313,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>84</v>
+        <v>318</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5318,14 +5330,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>320</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5355,10 +5367,10 @@
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>323</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>113</v>
+        <v>64</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5367,14 +5379,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5384,14 +5396,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>18</v>
+        <v>324</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5400,7 +5412,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5417,14 +5429,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>18</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5433,14 +5445,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>330</v>
+        <v>41</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5450,11 +5462,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>150</v>
+        <v>329</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>151</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>18</v>
@@ -5473,7 +5485,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5483,11 +5495,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>18</v>
@@ -5499,14 +5511,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>84</v>
+        <v>334</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5516,11 +5528,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>333</v>
+        <v>150</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>334</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>18</v>
@@ -5539,7 +5551,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>336</v>
+        <v>64</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5549,14 +5561,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>225</v>
+        <v>306</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5565,14 +5577,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>339</v>
+        <v>84</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5582,11 +5594,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>136</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>18</v>
@@ -5598,14 +5610,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5615,49 +5627,115 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>150</v>
+        <v>228</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
+        <v>341</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>342</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>343</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>58</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>312</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>344</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>345</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>58</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>150</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
         <v>151</v>
       </c>
-      <c t="s" r="Q126" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="127" ht="25.5" customHeight="1">
-      <c r="P127" s="13">
-        <v>7382.4350000000004</v>
-      </c>
-      <c r="Q127" s="13"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="14">
-        <v>342</v>
-      </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c t="s" r="G128" s="15">
-        <v>343</v>
-      </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="16"/>
-      <c t="s" r="K128" s="17">
-        <v>344</v>
-      </c>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
-      <c r="Q128" s="17"/>
+      <c t="s" r="Q128" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="P129" s="13">
+        <v>7547.4350000000004</v>
+      </c>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="14">
+        <v>346</v>
+      </c>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c t="s" r="G130" s="15">
+        <v>347</v>
+      </c>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c t="s" r="K130" s="17">
+        <v>348</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="612">
+  <mergeCells count="622">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6266,10 +6344,20 @@
     <mergeCell ref="H126:K126"/>
     <mergeCell ref="L126:M126"/>
     <mergeCell ref="N126:O126"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="K130:Q130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -62,12 +62,24 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AGNATIX SYRUP 60 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALKAPRESS 5MG 20 TAB.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>58.00</t>
   </si>
   <si>
@@ -122,6 +134,36 @@
     <t>18.2400</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>2:9</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
     <t>BETADERM 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -134,9 +176,6 @@
     <t>36.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>BI-KETOGESIC 150 MG 30 TAB.</t>
   </si>
   <si>
@@ -230,9 +269,6 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>60.0000</t>
-  </si>
-  <si>
     <t>CETAFEN PLUS 30 TAB.</t>
   </si>
   <si>
@@ -263,9 +299,6 @@
     <t>CIPROFAR 750MG 10 F.C. TAB.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>86.00</t>
   </si>
   <si>
@@ -293,6 +326,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
     <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
   </si>
   <si>
@@ -305,9 +347,6 @@
     <t>COSMOFER 50MG/ML FOR INF. 5 AMPS.</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>470.00</t>
   </si>
   <si>
@@ -329,6 +368,15 @@
     <t>82.1700</t>
   </si>
   <si>
+    <t>CRANBERRY 20 CAPSULES</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>CYNCHOLINE PLUS 20 CAPS.</t>
   </si>
   <si>
@@ -341,9 +389,6 @@
     <t>DALOLIFE 10 SACHET</t>
   </si>
   <si>
-    <t>120.00</t>
-  </si>
-  <si>
     <t>120.0000</t>
   </si>
   <si>
@@ -440,12 +485,18 @@
     <t>7:1</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>31.6800</t>
   </si>
   <si>
+    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>130.6800</t>
+  </si>
+  <si>
     <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
   </si>
   <si>
@@ -518,12 +569,6 @@
     <t>FUNGIBACID 28% NAIL SOLN. 5 ML</t>
   </si>
   <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>59.0000</t>
-  </si>
-  <si>
     <t>FUSI 2% OINT. 15 GM</t>
   </si>
   <si>
@@ -545,6 +590,12 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
   </si>
   <si>
@@ -566,9 +617,6 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>15.8400</t>
-  </si>
-  <si>
     <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
   </si>
   <si>
@@ -698,9 +746,6 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>OSTEOCARE 30 TABS</t>
   </si>
   <si>
@@ -725,6 +770,15 @@
     <t>81.0000</t>
   </si>
   <si>
+    <t>PRIANIL C.R. 400MG 30 CONTROLLED REL. TAB.</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
     <t>PRIDOCAINE CREAM 15 GM</t>
   </si>
   <si>
@@ -854,12 +908,15 @@
     <t>TRIOCOBAVIT 30 CAPS.</t>
   </si>
   <si>
-    <t>105.00</t>
-  </si>
-  <si>
     <t>105.0000</t>
   </si>
   <si>
+    <t>TRITTICO 100MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>21.5000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -959,9 +1016,6 @@
     <t>20.00</t>
   </si>
   <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>حلمة ببرونه</t>
   </si>
   <si>
@@ -983,7 +1037,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>25:0</t>
+    <t>29:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1049,7 +1103,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 10:34 PM</t>
+    <t>Sunday, 31 August, 2025 10:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1740,7 +1794,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1749,14 +1803,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1766,14 +1820,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1782,14 +1836,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1855,7 +1909,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1865,11 +1919,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1881,14 +1935,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1898,14 +1952,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1938,7 +1992,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1947,14 +2001,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1964,14 +2018,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>45</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>46</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1980,14 +2034,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2004,7 +2058,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2013,14 +2067,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2030,14 +2084,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2046,14 +2100,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2063,14 +2117,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2079,7 +2133,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -2092,18 +2146,18 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2112,14 +2166,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2129,14 +2183,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2145,14 +2199,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2162,14 +2216,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2178,31 +2232,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2211,31 +2265,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2244,14 +2298,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2261,14 +2315,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2277,31 +2331,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2310,31 +2364,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2343,14 +2397,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2360,14 +2414,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2376,31 +2430,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2409,14 +2463,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2426,11 +2480,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2442,14 +2496,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2459,14 +2513,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2475,14 +2529,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2496,10 +2550,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2508,14 +2562,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2525,14 +2579,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2541,28 +2595,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2574,14 +2628,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2591,14 +2645,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2607,31 +2661,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2640,14 +2694,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2657,14 +2711,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2673,31 +2727,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2706,14 +2760,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2723,14 +2777,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2739,14 +2793,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2756,14 +2810,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2772,31 +2826,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2805,14 +2859,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2822,14 +2876,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2838,14 +2892,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2855,14 +2909,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2871,14 +2925,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2888,14 +2942,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2904,14 +2958,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2921,14 +2975,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2937,14 +2991,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2954,11 +3008,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2977,7 +3031,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2987,14 +3041,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3003,14 +3057,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3020,14 +3074,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3043,13 +3097,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -3060,7 +3114,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3076,7 +3130,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3093,7 +3147,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3109,7 +3163,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3119,11 +3173,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3135,14 +3189,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3152,14 +3206,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>43</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3168,31 +3222,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3201,31 +3255,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3234,31 +3288,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3267,14 +3321,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3284,14 +3338,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3300,14 +3354,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3317,14 +3371,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3333,14 +3387,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3350,14 +3404,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3373,7 +3427,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3390,7 +3444,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3406,13 +3460,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3423,7 +3477,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3439,7 +3493,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>113</v>
+        <v>182</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3449,14 +3503,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>60</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3465,14 +3519,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3482,14 +3536,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3498,14 +3552,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3515,14 +3569,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3531,14 +3585,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3548,14 +3602,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3564,14 +3618,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3581,14 +3635,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3597,14 +3651,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3614,14 +3668,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3630,14 +3684,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3647,14 +3701,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>70</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3663,14 +3717,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3680,14 +3734,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3696,14 +3750,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>98</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3713,14 +3767,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>85</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3729,14 +3783,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3746,11 +3800,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3769,7 +3823,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3802,7 +3856,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3819,7 +3873,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3835,7 +3889,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3845,14 +3899,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>103</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3861,14 +3915,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3878,14 +3932,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3894,14 +3948,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3911,14 +3965,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>148</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3927,14 +3981,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3944,14 +3998,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>48</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>217</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3960,14 +4014,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3977,11 +4031,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>48</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3993,31 +4047,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4026,7 +4080,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4039,18 +4093,18 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4059,14 +4113,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4076,14 +4130,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4092,14 +4146,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4109,14 +4163,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>101</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4125,14 +4179,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4142,14 +4196,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4158,14 +4212,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>84</v>
+        <v>182</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4175,14 +4229,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>159</v>
+        <v>61</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>160</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4191,14 +4245,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>233</v>
+        <v>33</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4208,14 +4262,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4224,31 +4278,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>44</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4257,31 +4311,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>159</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>160</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4290,14 +4344,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4307,14 +4361,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4323,14 +4377,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4340,14 +4394,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>114</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4356,14 +4410,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>84</v>
+        <v>248</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4373,14 +4427,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4389,14 +4443,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4406,14 +4460,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4422,14 +4476,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>84</v>
+        <v>248</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4439,14 +4493,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4462,7 +4516,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4472,14 +4526,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>57</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4488,14 +4542,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4505,11 +4559,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>51</v>
+        <v>254</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>52</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4521,14 +4575,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4538,14 +4592,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>256</v>
+        <v>176</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>257</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4554,14 +4608,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>29</v>
+        <v>200</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4571,11 +4625,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4587,14 +4641,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4604,14 +4658,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4620,14 +4674,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4637,14 +4691,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>128</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4660,7 +4714,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4670,14 +4724,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>266</v>
+        <v>196</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4686,14 +4740,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4703,14 +4757,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>88</v>
+        <v>267</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4719,14 +4773,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4736,14 +4790,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>154</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4759,7 +4813,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4769,14 +4823,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>225</v>
+        <v>64</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>226</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4792,7 +4846,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4809,7 +4863,7 @@
         <v>275</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4825,7 +4879,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4842,7 +4896,7 @@
         <v>278</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4858,7 +4912,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4868,11 +4922,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4884,14 +4938,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4901,14 +4955,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>282</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4924,7 +4978,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4941,7 +4995,7 @@
         <v>285</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4957,7 +5011,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4967,14 +5021,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>287</v>
+        <v>99</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4983,14 +5037,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>290</v>
+        <v>21</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5000,14 +5054,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>292</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5016,14 +5070,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5033,14 +5087,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>294</v>
+        <v>241</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>295</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5049,31 +5103,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>220</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5082,7 +5136,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5099,14 +5153,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5115,14 +5169,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5132,14 +5186,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5148,31 +5202,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>73</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5181,31 +5235,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>305</v>
+        <v>33</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>306</v>
+        <v>79</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5214,31 +5268,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5247,31 +5301,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>136</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5280,31 +5334,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5313,31 +5367,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>318</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5346,31 +5400,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5379,31 +5433,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>324</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5412,31 +5466,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>327</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>113</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5445,31 +5499,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>329</v>
+        <v>85</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5478,31 +5532,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>84</v>
+        <v>324</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5511,31 +5565,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>334</v>
+        <v>52</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>150</v>
+        <v>328</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>151</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>18</v>
+        <v>77</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5544,31 +5598,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>332</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5577,31 +5631,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>84</v>
+        <v>333</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>338</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5610,31 +5664,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>228</v>
+        <v>337</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5643,31 +5697,31 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>343</v>
+        <v>18</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>136</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>18</v>
+        <v>77</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5676,66 +5730,363 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>345</v>
+        <v>18</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>343</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>18</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>71</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>344</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>345</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>346</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>42</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>71</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>347</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>348</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>349</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>18</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>71</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>325</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>350</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>351</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>352</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>71</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>167</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>353</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>77</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>71</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>325</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>350</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>354</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>18</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>71</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>355</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>356</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>357</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>358</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>71</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>244</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>359</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>360</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>361</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>71</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>331</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
         <v>151</v>
       </c>
-      <c t="s" r="Q128" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="129" ht="25.5" customHeight="1">
-      <c r="P129" s="13">
-        <v>7547.4350000000004</v>
-      </c>
-      <c r="Q129" s="13"/>
-    </row>
-    <row r="130" ht="16.5" customHeight="1">
-      <c t="s" r="A130" s="14">
-        <v>346</v>
-      </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c t="s" r="G130" s="15">
-        <v>347</v>
-      </c>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="16"/>
-      <c t="s" r="K130" s="17">
-        <v>348</v>
-      </c>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="17"/>
-      <c r="Q130" s="17"/>
+      <c t="s" r="Q136" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>362</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>363</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>71</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>167</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="P138" s="13">
+        <v>7994.5649999999996</v>
+      </c>
+      <c r="Q138" s="13"/>
+    </row>
+    <row r="139" ht="16.5" customHeight="1">
+      <c t="s" r="A139" s="14">
+        <v>364</v>
+      </c>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c t="s" r="G139" s="15">
+        <v>365</v>
+      </c>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="16"/>
+      <c t="s" r="K139" s="17">
+        <v>366</v>
+      </c>
+      <c r="L139" s="17"/>
+      <c r="M139" s="17"/>
+      <c r="N139" s="17"/>
+      <c r="O139" s="17"/>
+      <c r="P139" s="17"/>
+      <c r="Q139" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="622">
+  <mergeCells count="667">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6354,10 +6705,55 @@
     <mergeCell ref="H128:K128"/>
     <mergeCell ref="L128:M128"/>
     <mergeCell ref="N128:O128"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="P138:Q138"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="G139:I139"/>
+    <mergeCell ref="K139:Q139"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -1007,6 +1007,15 @@
     <t>35.00</t>
   </si>
   <si>
+    <t>بيبي جوي رقم 1</t>
+  </si>
+  <si>
+    <t>285.00</t>
+  </si>
+  <si>
+    <t>285.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -1103,7 +1112,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 10:35 PM</t>
+    <t>Sunday, 31 August, 2025 10:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5638,7 +5647,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>333</v>
+        <v>81</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5648,14 +5657,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>121</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5685,10 +5694,10 @@
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>338</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5697,14 +5706,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>18</v>
+        <v>339</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5718,10 +5727,10 @@
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>229</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5730,7 +5739,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5747,14 +5756,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>342</v>
+        <v>77</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5763,7 +5772,7 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -5780,14 +5789,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q129" s="12">
         <v>345</v>
-      </c>
-      <c t="s" r="Q129" s="12">
-        <v>128</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5803,7 +5812,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5820,7 +5829,7 @@
         <v>348</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>21</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5836,7 +5845,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5846,11 +5855,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>21</v>
@@ -5862,14 +5871,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>352</v>
+        <v>18</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5879,11 +5888,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>167</v>
+        <v>325</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>168</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>21</v>
@@ -5895,14 +5904,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>77</v>
+        <v>355</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5912,11 +5921,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>325</v>
+        <v>167</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>350</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>21</v>
@@ -5928,14 +5937,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5945,11 +5954,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>21</v>
@@ -5968,7 +5977,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>358</v>
+        <v>18</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5978,14 +5987,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>244</v>
+        <v>358</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
         <v>359</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6011,14 +6020,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>331</v>
+        <v>244</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>151</v>
+        <v>362</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6027,14 +6036,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6044,49 +6053,82 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>167</v>
+        <v>331</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
+        <v>365</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>366</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>71</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>167</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
         <v>168</v>
       </c>
-      <c t="s" r="Q137" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="138" ht="24.75" customHeight="1">
-      <c r="P138" s="13">
-        <v>7994.5649999999996</v>
-      </c>
-      <c r="Q138" s="13"/>
-    </row>
-    <row r="139" ht="16.5" customHeight="1">
-      <c t="s" r="A139" s="14">
-        <v>364</v>
-      </c>
-      <c r="B139" s="14"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c t="s" r="G139" s="15">
-        <v>365</v>
-      </c>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="16"/>
-      <c t="s" r="K139" s="17">
-        <v>366</v>
-      </c>
-      <c r="L139" s="17"/>
-      <c r="M139" s="17"/>
-      <c r="N139" s="17"/>
-      <c r="O139" s="17"/>
-      <c r="P139" s="17"/>
-      <c r="Q139" s="17"/>
+      <c t="s" r="Q138" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="P139" s="13">
+        <v>8279.5650000000005</v>
+      </c>
+      <c r="Q139" s="13"/>
+    </row>
+    <row r="140" ht="16.5" customHeight="1">
+      <c t="s" r="A140" s="14">
+        <v>367</v>
+      </c>
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c t="s" r="G140" s="15">
+        <v>368</v>
+      </c>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="16"/>
+      <c t="s" r="K140" s="17">
+        <v>369</v>
+      </c>
+      <c r="L140" s="17"/>
+      <c r="M140" s="17"/>
+      <c r="N140" s="17"/>
+      <c r="O140" s="17"/>
+      <c r="P140" s="17"/>
+      <c r="Q140" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="667">
+  <mergeCells count="672">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6750,10 +6792,15 @@
     <mergeCell ref="H137:K137"/>
     <mergeCell ref="L137:M137"/>
     <mergeCell ref="N137:O137"/>
-    <mergeCell ref="P138:Q138"/>
-    <mergeCell ref="A139:F139"/>
-    <mergeCell ref="G139:I139"/>
-    <mergeCell ref="K139:Q139"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="P139:Q139"/>
+    <mergeCell ref="A140:F140"/>
+    <mergeCell ref="G140:I140"/>
+    <mergeCell ref="K140:Q140"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -804,6 +804,9 @@
   </si>
   <si>
     <t>220.0000</t>
+  </si>
+  <si>
+    <t>SILVIRBURN CREAM 250 GM</t>
   </si>
   <si>
     <t>SINEMET 25/250 MG 20 TABS.</t>
@@ -4723,7 +4726,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4733,11 +4736,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4756,7 +4759,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4766,11 +4769,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>267</v>
+        <v>196</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>268</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4782,14 +4785,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4799,14 +4802,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4815,14 +4818,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4832,11 +4835,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>64</v>
+        <v>271</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>65</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4855,7 +4858,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4865,14 +4868,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>274</v>
+        <v>64</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>275</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4881,14 +4884,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4898,14 +4901,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4914,14 +4917,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4931,11 +4934,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>158</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4947,14 +4950,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4964,11 +4967,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4980,14 +4983,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4997,11 +5000,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>285</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -5013,14 +5016,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5030,11 +5033,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>99</v>
+        <v>285</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -5046,14 +5049,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5063,14 +5066,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>289</v>
+        <v>99</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>171</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5079,14 +5082,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5096,11 +5099,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>241</v>
+        <v>290</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>242</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>21</v>
@@ -5119,7 +5122,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5129,14 +5132,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>293</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5145,14 +5148,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5162,14 +5165,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5178,14 +5181,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5195,14 +5198,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>143</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5218,7 +5221,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5228,14 +5231,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>106</v>
+        <v>283</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>299</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5244,14 +5247,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5261,14 +5264,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5277,14 +5280,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5294,14 +5297,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>303</v>
+        <v>79</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5310,14 +5313,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5327,14 +5330,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5343,14 +5346,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>309</v>
+        <v>128</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5360,14 +5363,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5376,14 +5379,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>16</v>
+        <v>310</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5393,14 +5396,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5409,31 +5412,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>236</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5442,28 +5445,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>319</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>21</v>
@@ -5475,14 +5478,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5492,11 +5495,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>104</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>21</v>
@@ -5508,28 +5511,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>85</v>
+        <v>322</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>21</v>
@@ -5548,7 +5551,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>324</v>
+        <v>18</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5558,14 +5561,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>325</v>
+        <v>85</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>326</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5574,14 +5577,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>52</v>
+        <v>325</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5591,14 +5594,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>77</v>
+        <v>42</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5607,14 +5610,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5624,14 +5627,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>151</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5640,14 +5643,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5657,11 +5660,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>334</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>21</v>
@@ -5673,14 +5676,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>336</v>
+        <v>81</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5690,14 +5693,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>121</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5706,14 +5709,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5723,14 +5726,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>341</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5739,14 +5742,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>18</v>
+        <v>340</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5756,14 +5759,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>229</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5772,7 +5775,7 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -5789,14 +5792,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>345</v>
+        <v>77</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5805,7 +5808,7 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -5822,14 +5825,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>348</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>128</v>
+        <v>346</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5838,14 +5841,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5855,14 +5858,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>21</v>
+        <v>128</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5871,14 +5874,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5888,11 +5891,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>21</v>
@@ -5904,14 +5907,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>355</v>
+        <v>18</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5921,11 +5924,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>167</v>
+        <v>326</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>168</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>21</v>
@@ -5937,14 +5940,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>77</v>
+        <v>356</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5954,11 +5957,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>325</v>
+        <v>167</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>353</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>21</v>
@@ -5977,7 +5980,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5987,11 +5990,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>21</v>
@@ -6003,14 +6006,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>361</v>
+        <v>18</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6020,14 +6023,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>244</v>
+        <v>359</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6036,14 +6039,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6053,14 +6056,14 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>331</v>
+        <v>244</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>151</v>
+        <v>363</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6069,14 +6072,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6086,49 +6089,82 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>167</v>
+        <v>332</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
+        <v>366</v>
+      </c>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>367</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>71</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>167</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
         <v>168</v>
       </c>
-      <c t="s" r="Q138" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="139" ht="25.5" customHeight="1">
-      <c r="P139" s="13">
-        <v>8279.5650000000005</v>
-      </c>
-      <c r="Q139" s="13"/>
-    </row>
-    <row r="140" ht="16.5" customHeight="1">
-      <c t="s" r="A140" s="14">
-        <v>367</v>
-      </c>
-      <c r="B140" s="14"/>
-      <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
-      <c t="s" r="G140" s="15">
+      <c t="s" r="Q139" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="P140" s="13">
+        <v>8317.5650000000005</v>
+      </c>
+      <c r="Q140" s="13"/>
+    </row>
+    <row r="141" ht="16.5" customHeight="1">
+      <c t="s" r="A141" s="14">
         <v>368</v>
       </c>
-      <c r="H140" s="15"/>
-      <c r="I140" s="15"/>
-      <c r="J140" s="16"/>
-      <c t="s" r="K140" s="17">
+      <c r="B141" s="14"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
+      <c t="s" r="G141" s="15">
         <v>369</v>
       </c>
-      <c r="L140" s="17"/>
-      <c r="M140" s="17"/>
-      <c r="N140" s="17"/>
-      <c r="O140" s="17"/>
-      <c r="P140" s="17"/>
-      <c r="Q140" s="17"/>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
+      <c r="J141" s="16"/>
+      <c t="s" r="K141" s="17">
+        <v>370</v>
+      </c>
+      <c r="L141" s="17"/>
+      <c r="M141" s="17"/>
+      <c r="N141" s="17"/>
+      <c r="O141" s="17"/>
+      <c r="P141" s="17"/>
+      <c r="Q141" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="672">
+  <mergeCells count="677">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6797,10 +6833,15 @@
     <mergeCell ref="H138:K138"/>
     <mergeCell ref="L138:M138"/>
     <mergeCell ref="N138:O138"/>
-    <mergeCell ref="P139:Q139"/>
-    <mergeCell ref="A140:F140"/>
-    <mergeCell ref="G140:I140"/>
-    <mergeCell ref="K140:Q140"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="P140:Q140"/>
+    <mergeCell ref="A141:F141"/>
+    <mergeCell ref="G141:I141"/>
+    <mergeCell ref="K141:Q141"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ADWIFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>AGNATIX SYRUP 60 ML</t>
   </si>
   <si>
@@ -146,9 +158,6 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>BECOZYME I.M./I.V. 12 AMP</t>
   </si>
   <si>
@@ -173,9 +182,6 @@
     <t>18.00</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
     <t>BI-KETOGESIC 150 MG 30 TAB.</t>
   </si>
   <si>
@@ -1049,7 +1055,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>29:0</t>
+    <t>64.0000</t>
+  </si>
+  <si>
+    <t>32:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1115,7 +1124,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 10:37 PM</t>
+    <t>Sunday, 31 August, 2025 10:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1806,7 +1815,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1815,14 +1824,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1839,7 +1848,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1848,14 +1857,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1865,14 +1874,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1881,14 +1890,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1954,7 +1963,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1964,11 +1973,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1980,14 +1989,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1997,14 +2006,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -2037,7 +2046,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -2046,14 +2055,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2063,14 +2072,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2079,14 +2088,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2096,14 +2105,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2112,14 +2121,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2129,14 +2138,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2145,14 +2154,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2162,14 +2171,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2178,14 +2187,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2195,11 +2204,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -2211,14 +2220,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2228,11 +2237,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -2244,31 +2253,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2277,31 +2286,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>77</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2310,14 +2319,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2327,14 +2336,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2343,14 +2352,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2360,14 +2369,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>83</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2383,24 +2392,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2416,24 +2425,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2449,24 +2458,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2475,31 +2484,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2508,14 +2517,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2525,14 +2534,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2541,14 +2550,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2558,14 +2567,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2574,14 +2583,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2591,11 +2600,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2607,14 +2616,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2624,11 +2633,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2640,14 +2649,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2657,14 +2666,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2673,14 +2682,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2690,14 +2699,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2713,7 +2722,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2727,7 +2736,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>33</v>
@@ -2739,31 +2748,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2772,31 +2781,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2805,14 +2814,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2822,14 +2831,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2838,31 +2847,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2878,24 +2887,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2904,14 +2913,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2921,14 +2930,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2937,14 +2946,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2954,14 +2963,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2970,14 +2979,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2987,14 +2996,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3003,14 +3012,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3020,14 +3029,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3043,7 +3052,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3053,14 +3062,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3069,14 +3078,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3086,14 +3095,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3109,7 +3118,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3123,10 +3132,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3135,14 +3144,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3152,14 +3161,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3168,14 +3177,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>46</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3185,11 +3194,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3201,14 +3210,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3218,14 +3227,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3234,31 +3243,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3267,31 +3276,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3300,31 +3309,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3333,31 +3342,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3366,14 +3375,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3383,14 +3392,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3399,14 +3408,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3416,14 +3425,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3432,14 +3441,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3449,14 +3458,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3465,31 +3474,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3498,28 +3507,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3531,14 +3540,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3548,14 +3557,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3564,14 +3573,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3581,14 +3590,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>23</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3597,14 +3606,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3614,14 +3623,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>123</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>124</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3630,14 +3639,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3647,14 +3656,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>125</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3663,14 +3672,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3680,14 +3689,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>43</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3703,7 +3712,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3713,14 +3722,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>47</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3729,14 +3738,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3746,14 +3755,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>72</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>73</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3762,14 +3771,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3779,14 +3788,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3802,7 +3811,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3812,14 +3821,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3828,14 +3837,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3845,11 +3854,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>47</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3861,14 +3870,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3878,14 +3887,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3894,14 +3903,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3911,14 +3920,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>103</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3934,7 +3943,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3944,14 +3953,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>83</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3960,14 +3969,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3977,14 +3986,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4000,7 +4009,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4010,14 +4019,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>144</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4026,14 +4035,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4043,14 +4052,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>48</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4066,7 +4075,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4076,11 +4085,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>51</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4092,14 +4101,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4109,14 +4118,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4125,14 +4134,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4142,14 +4151,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4158,14 +4167,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4175,14 +4184,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4191,14 +4200,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4208,14 +4217,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>165</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4224,14 +4233,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>182</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4241,14 +4250,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>233</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4257,14 +4266,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4274,14 +4283,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>63</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4290,31 +4299,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4323,31 +4332,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4356,31 +4365,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>44</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4396,7 +4405,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4406,14 +4415,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4429,7 +4438,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>248</v>
+        <v>25</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4439,14 +4448,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>116</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>44</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4462,7 +4471,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>250</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4472,14 +4481,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4488,14 +4497,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>248</v>
+        <v>22</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4505,14 +4514,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>244</v>
+        <v>178</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4521,14 +4530,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4538,14 +4547,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>57</v>
+        <v>246</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4561,7 +4570,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4571,14 +4580,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>254</v>
+        <v>59</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4587,14 +4596,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4604,14 +4613,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>176</v>
+        <v>256</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>177</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4620,14 +4629,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>200</v>
+        <v>46</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4637,14 +4646,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>258</v>
+        <v>178</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4660,7 +4669,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4674,10 +4683,10 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>261</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4686,14 +4695,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4703,14 +4712,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4719,14 +4728,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4736,14 +4745,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>187</v>
+        <v>265</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>188</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4752,14 +4761,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4769,14 +4778,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4785,14 +4794,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4802,14 +4811,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>268</v>
+        <v>198</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>269</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4818,14 +4827,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>200</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4835,14 +4844,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4851,14 +4860,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4868,11 +4877,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>64</v>
+        <v>273</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>65</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4884,14 +4893,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4901,14 +4910,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>275</v>
+        <v>66</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>276</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4917,14 +4926,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4934,14 +4943,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4950,14 +4959,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4967,11 +4976,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>158</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4990,7 +4999,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5004,7 +5013,7 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -5023,7 +5032,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5037,7 +5046,7 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>286</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -5049,14 +5058,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5066,7 +5075,7 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>99</v>
+        <v>287</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
@@ -5089,7 +5098,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5099,14 +5108,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>290</v>
+        <v>101</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>171</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5122,7 +5131,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5132,14 +5141,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>242</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5148,14 +5157,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5165,14 +5174,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>294</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5181,14 +5190,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5198,14 +5207,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5214,14 +5223,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5231,14 +5240,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>143</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5247,14 +5256,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5264,14 +5273,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>106</v>
+        <v>285</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>300</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5297,14 +5306,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
         <v>302</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5320,7 +5329,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5330,14 +5339,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>304</v>
+        <v>81</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5346,14 +5355,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5363,14 +5372,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5379,14 +5388,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>310</v>
+        <v>130</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5396,14 +5405,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5412,14 +5421,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>16</v>
+        <v>312</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5429,14 +5438,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5445,31 +5454,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>236</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5485,13 +5494,13 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
@@ -5499,10 +5508,10 @@
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>320</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5511,14 +5520,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5528,14 +5537,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>104</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5551,24 +5560,24 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>85</v>
+        <v>324</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5577,31 +5586,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>325</v>
+        <v>22</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>326</v>
+        <v>87</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>327</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5610,31 +5619,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>52</v>
+        <v>327</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5643,31 +5652,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>151</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5683,13 +5692,13 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
@@ -5697,10 +5706,10 @@
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5709,31 +5718,31 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>337</v>
+        <v>83</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>121</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5742,31 +5751,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>342</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5775,31 +5784,31 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>18</v>
+        <v>342</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>229</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>77</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5815,24 +5824,24 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>346</v>
+        <v>79</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5848,24 +5857,24 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
+        <v>348</v>
+      </c>
+      <c t="s" r="Q131" s="12">
         <v>349</v>
-      </c>
-      <c t="s" r="Q131" s="12">
-        <v>128</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5881,13 +5890,13 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
@@ -5898,7 +5907,7 @@
         <v>352</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>21</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5914,24 +5923,24 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5940,31 +5949,31 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>356</v>
+        <v>22</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>167</v>
+        <v>328</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>168</v>
+        <v>357</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5973,31 +5982,31 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>326</v>
+        <v>169</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>354</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6006,31 +6015,31 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c t="s" r="L136" s="10">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6046,24 +6055,24 @@
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>362</v>
+        <v>22</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
       <c t="s" r="L137" s="10">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>244</v>
+        <v>362</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
         <v>363</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6085,18 +6094,18 @@
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
       <c t="s" r="L138" s="10">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>332</v>
+        <v>246</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>151</v>
+        <v>366</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6105,66 +6114,99 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
       <c r="K139" s="9"/>
       <c t="s" r="L139" s="10">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>167</v>
+        <v>334</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q139" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
-      <c r="P140" s="13">
-        <v>8317.5650000000005</v>
-      </c>
-      <c r="Q140" s="13"/>
-    </row>
-    <row r="141" ht="16.5" customHeight="1">
-      <c t="s" r="A141" s="14">
-        <v>368</v>
-      </c>
-      <c r="B141" s="14"/>
-      <c r="C141" s="14"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
-      <c t="s" r="G141" s="15">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
         <v>369</v>
       </c>
-      <c r="H141" s="15"/>
-      <c r="I141" s="15"/>
-      <c r="J141" s="16"/>
-      <c t="s" r="K141" s="17">
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
         <v>370</v>
       </c>
-      <c r="L141" s="17"/>
-      <c r="M141" s="17"/>
-      <c r="N141" s="17"/>
-      <c r="O141" s="17"/>
-      <c r="P141" s="17"/>
-      <c r="Q141" s="17"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>73</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>169</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="P141" s="13">
+        <v>8359.5650000000005</v>
+      </c>
+      <c r="Q141" s="13"/>
+    </row>
+    <row r="142" ht="16.5" customHeight="1">
+      <c t="s" r="A142" s="14">
+        <v>371</v>
+      </c>
+      <c r="B142" s="14"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
+      <c t="s" r="G142" s="15">
+        <v>372</v>
+      </c>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="16"/>
+      <c t="s" r="K142" s="17">
+        <v>373</v>
+      </c>
+      <c r="L142" s="17"/>
+      <c r="M142" s="17"/>
+      <c r="N142" s="17"/>
+      <c r="O142" s="17"/>
+      <c r="P142" s="17"/>
+      <c r="Q142" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="677">
+  <mergeCells count="682">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6838,10 +6880,15 @@
     <mergeCell ref="H139:K139"/>
     <mergeCell ref="L139:M139"/>
     <mergeCell ref="N139:O139"/>
-    <mergeCell ref="P140:Q140"/>
-    <mergeCell ref="A141:F141"/>
-    <mergeCell ref="G141:I141"/>
-    <mergeCell ref="K141:Q141"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="P141:Q141"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="G142:I142"/>
+    <mergeCell ref="K142:Q142"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -503,6 +503,12 @@
     <t>130.6800</t>
   </si>
   <si>
+    <t>EXAMIDE 5MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
   </si>
   <si>
@@ -920,6 +926,12 @@
     <t>105.0000</t>
   </si>
   <si>
+    <t>TRITACE 5MG 14 TAB</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
     <t>TRITTICO 100MG 20 TAB.</t>
   </si>
   <si>
@@ -968,9 +980,6 @@
     <t>WITHSTAND CREAM</t>
   </si>
   <si>
-    <t>76.00</t>
-  </si>
-  <si>
     <t>ZISROCIN 500MG 3 CAP</t>
   </si>
   <si>
@@ -1124,7 +1133,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 10:40 PM</t>
+    <t>Sunday, 31 August, 2025 10:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3316,7 +3325,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3326,11 +3335,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -3342,28 +3351,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -3375,28 +3384,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>25</v>
@@ -3408,14 +3417,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3425,14 +3434,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3441,14 +3450,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3458,14 +3467,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3474,14 +3483,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3491,11 +3500,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>25</v>
@@ -3507,31 +3516,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3540,28 +3549,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>58</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3573,14 +3582,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3590,14 +3599,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>24</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3606,14 +3615,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3623,11 +3632,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>23</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>25</v>
@@ -3639,14 +3648,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3656,11 +3665,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>125</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>126</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>25</v>
@@ -3672,14 +3681,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3689,11 +3698,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>125</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>25</v>
@@ -3705,14 +3714,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3722,14 +3731,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>47</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3745,7 +3754,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3755,14 +3764,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>47</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3771,14 +3780,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3788,11 +3797,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>74</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>25</v>
@@ -3804,14 +3813,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3821,14 +3830,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3844,7 +3853,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3854,14 +3863,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>196</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3870,14 +3879,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3887,11 +3896,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>47</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3903,7 +3912,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3920,14 +3929,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3936,7 +3945,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3953,7 +3962,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3976,7 +3985,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3986,11 +3995,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>85</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>25</v>
@@ -4002,14 +4011,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4019,14 +4028,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4042,7 +4051,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4052,14 +4061,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>144</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4068,14 +4077,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4085,14 +4094,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>51</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4108,7 +4117,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4118,11 +4127,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>51</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4134,14 +4143,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4151,14 +4160,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4167,7 +4176,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4184,11 +4193,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>25</v>
@@ -4200,14 +4209,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4217,14 +4226,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4233,14 +4242,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4250,14 +4259,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4266,14 +4275,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4283,14 +4292,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>235</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4299,14 +4308,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>37</v>
+        <v>186</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4316,14 +4325,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>63</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4332,7 +4341,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4345,18 +4354,18 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4365,14 +4374,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4382,14 +4391,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4398,28 +4407,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>48</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>25</v>
@@ -4438,7 +4447,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4448,14 +4457,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>116</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4471,7 +4480,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4481,14 +4490,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>116</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>48</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4504,7 +4513,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>22</v>
+        <v>252</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4514,11 +4523,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>178</v>
+        <v>248</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>179</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>25</v>
@@ -4530,14 +4539,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>250</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4547,11 +4556,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>246</v>
+        <v>180</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>48</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>25</v>
@@ -4563,14 +4572,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>33</v>
+        <v>252</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4580,11 +4589,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>59</v>
+        <v>248</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>254</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>25</v>
@@ -4603,7 +4612,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4613,14 +4622,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>256</v>
+        <v>59</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4629,14 +4638,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4646,14 +4655,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>178</v>
+        <v>258</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>179</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4662,14 +4671,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4679,14 +4688,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4702,7 +4711,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4716,10 +4725,10 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>263</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4728,14 +4737,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4745,11 +4754,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>25</v>
@@ -4761,7 +4770,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4778,11 +4787,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>189</v>
+        <v>267</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>190</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>25</v>
@@ -4794,14 +4803,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4811,11 +4820,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>25</v>
@@ -4827,14 +4836,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4844,11 +4853,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>271</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>25</v>
@@ -4860,14 +4869,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>202</v>
+        <v>22</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4877,14 +4886,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4893,14 +4902,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4910,11 +4919,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>66</v>
+        <v>275</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>67</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4926,14 +4935,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4943,14 +4952,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>277</v>
+        <v>66</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>278</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4959,14 +4968,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4976,14 +4985,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4992,14 +5001,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5009,11 +5018,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>160</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -5032,7 +5041,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5046,7 +5055,7 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -5065,7 +5074,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5079,7 +5088,7 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>288</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5091,14 +5100,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5108,7 +5117,7 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>101</v>
+        <v>289</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
@@ -5131,7 +5140,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5141,14 +5150,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>292</v>
+        <v>101</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>173</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5164,7 +5173,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5174,11 +5183,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>243</v>
+        <v>294</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>244</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>25</v>
@@ -5190,14 +5199,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5207,14 +5216,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>295</v>
+        <v>245</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5223,14 +5232,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5240,14 +5249,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5256,14 +5265,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5273,14 +5282,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>145</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5289,14 +5298,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5306,14 +5315,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>108</v>
+        <v>287</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>302</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5329,7 +5338,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5339,14 +5348,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
         <v>304</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5362,7 +5371,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5376,7 +5385,7 @@
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>307</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>25</v>
@@ -5388,14 +5397,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5405,14 +5414,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>309</v>
+        <v>81</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5421,14 +5430,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5438,14 +5447,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5454,14 +5463,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5471,14 +5480,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5487,31 +5496,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>22</v>
+        <v>316</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>238</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5520,14 +5529,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5537,14 +5546,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5553,28 +5562,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>25</v>
@@ -5586,28 +5595,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>87</v>
+        <v>324</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>52</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>25</v>
@@ -5626,24 +5635,24 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>327</v>
+        <v>91</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>329</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5652,14 +5661,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5669,14 +5678,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>331</v>
+        <v>87</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>332</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>79</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5685,14 +5694,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>25</v>
+        <v>330</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5702,14 +5711,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>153</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5718,14 +5727,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5735,14 +5744,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>25</v>
+        <v>79</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5751,14 +5760,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>339</v>
+        <v>25</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5768,14 +5777,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5784,14 +5793,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>342</v>
+        <v>83</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5801,11 +5810,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>25</v>
@@ -5817,14 +5826,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>22</v>
+        <v>342</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5834,14 +5843,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>231</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>79</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5850,14 +5859,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>22</v>
+        <v>345</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5867,14 +5876,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>349</v>
+        <v>25</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5883,7 +5892,7 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
@@ -5900,14 +5909,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>352</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>130</v>
+        <v>79</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5916,14 +5925,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5933,14 +5942,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>354</v>
+        <v>317</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>25</v>
+        <v>352</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5949,7 +5958,7 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
@@ -5966,14 +5975,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>25</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5982,14 +5991,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>359</v>
+        <v>46</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5999,11 +6008,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>169</v>
+        <v>357</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>170</v>
+        <v>358</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>25</v>
@@ -6015,14 +6024,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6032,11 +6041,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>25</v>
@@ -6055,7 +6064,7 @@
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>22</v>
+        <v>362</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6065,11 +6074,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>362</v>
+        <v>171</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>363</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>25</v>
@@ -6081,14 +6090,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6098,14 +6107,14 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>246</v>
+        <v>331</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6114,14 +6123,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>368</v>
+        <v>22</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6131,11 +6140,11 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>153</v>
+        <v>366</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>25</v>
@@ -6147,14 +6156,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6164,49 +6173,115 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>169</v>
+        <v>248</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>170</v>
+        <v>369</v>
       </c>
       <c t="s" r="Q140" s="12">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
-      <c r="P141" s="13">
-        <v>8359.5650000000005</v>
-      </c>
-      <c r="Q141" s="13"/>
-    </row>
-    <row r="142" ht="16.5" customHeight="1">
-      <c t="s" r="A142" s="14">
+      <c r="A141" s="7">
+        <v>135</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c t="s" r="C141" s="8">
+        <v>370</v>
+      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
         <v>371</v>
       </c>
-      <c r="B142" s="14"/>
-      <c r="C142" s="14"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
-      <c t="s" r="G142" s="15">
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c t="s" r="L141" s="10">
+        <v>73</v>
+      </c>
+      <c r="M141" s="10"/>
+      <c t="s" r="N141" s="8">
+        <v>337</v>
+      </c>
+      <c r="O141" s="8"/>
+      <c t="s" r="P141" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q141" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="A142" s="7">
+        <v>136</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c t="s" r="C142" s="8">
         <v>372</v>
       </c>
-      <c r="H142" s="15"/>
-      <c r="I142" s="15"/>
-      <c r="J142" s="16"/>
-      <c t="s" r="K142" s="17">
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c t="s" r="H142" s="9">
         <v>373</v>
       </c>
-      <c r="L142" s="17"/>
-      <c r="M142" s="17"/>
-      <c r="N142" s="17"/>
-      <c r="O142" s="17"/>
-      <c r="P142" s="17"/>
-      <c r="Q142" s="17"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c t="s" r="L142" s="10">
+        <v>73</v>
+      </c>
+      <c r="M142" s="10"/>
+      <c t="s" r="N142" s="8">
+        <v>171</v>
+      </c>
+      <c r="O142" s="8"/>
+      <c t="s" r="P142" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q142" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="143" ht="24.75" customHeight="1">
+      <c r="P143" s="13">
+        <v>8501.5650000000005</v>
+      </c>
+      <c r="Q143" s="13"/>
+    </row>
+    <row r="144" ht="16.5" customHeight="1">
+      <c t="s" r="A144" s="14">
+        <v>374</v>
+      </c>
+      <c r="B144" s="14"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="14"/>
+      <c t="s" r="G144" s="15">
+        <v>375</v>
+      </c>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="16"/>
+      <c t="s" r="K144" s="17">
+        <v>376</v>
+      </c>
+      <c r="L144" s="17"/>
+      <c r="M144" s="17"/>
+      <c r="N144" s="17"/>
+      <c r="O144" s="17"/>
+      <c r="P144" s="17"/>
+      <c r="Q144" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="682">
+  <mergeCells count="692">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6885,10 +6960,20 @@
     <mergeCell ref="H140:K140"/>
     <mergeCell ref="L140:M140"/>
     <mergeCell ref="N140:O140"/>
-    <mergeCell ref="P141:Q141"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="G142:I142"/>
-    <mergeCell ref="K142:Q142"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="P143:Q143"/>
+    <mergeCell ref="A144:F144"/>
+    <mergeCell ref="G144:I144"/>
+    <mergeCell ref="K144:Q144"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-31_00-00.xlsx
+++ b/DaySale_2025-08-31_00-00.xlsx
@@ -278,7 +278,10 @@
     <t>CETAFEN PLUS 30 TAB.</t>
   </si>
   <si>
-    <t>26.7300</t>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>53.4600</t>
   </si>
   <si>
     <t>CEVA-FRESH TAB</t>
@@ -332,6 +335,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
@@ -479,12 +491,6 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -671,6 +677,9 @@
     <t>100.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
     <t>MYOGREL 75MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -788,9 +797,6 @@
     <t>162.00</t>
   </si>
   <si>
-    <t>53.4600</t>
-  </si>
-  <si>
     <t>PRIDOCAINE CREAM 15 GM</t>
   </si>
   <si>
@@ -980,6 +986,12 @@
     <t>WITHSTAND CREAM</t>
   </si>
   <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
     <t>ZISROCIN 500MG 3 CAP</t>
   </si>
   <si>
@@ -1064,10 +1076,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>64.0000</t>
-  </si>
-  <si>
-    <t>32:0</t>
+    <t>33:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1076,9 +1085,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>سيتي بيبي رقم 5</t>
   </si>
   <si>
@@ -1109,9 +1115,6 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -1133,7 +1136,7 @@
     <t>35:0</t>
   </si>
   <si>
-    <t>Sunday, 31 August, 2025 10:42 PM</t>
+    <t>Sunday, 31 August, 2025 10:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2467,7 +2470,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2481,10 +2484,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2493,14 +2496,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2510,11 +2513,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -2526,7 +2529,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2543,11 +2546,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2559,7 +2562,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2576,11 +2579,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>25</v>
@@ -2592,7 +2595,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2609,11 +2612,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2625,14 +2628,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2642,11 +2645,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2658,7 +2661,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2675,11 +2678,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2691,14 +2694,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2708,14 +2711,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2724,14 +2727,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2741,14 +2744,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2757,14 +2760,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2774,14 +2777,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2790,31 +2793,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2823,7 +2826,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2836,18 +2839,18 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2856,7 +2859,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2873,11 +2876,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>25</v>
@@ -2889,7 +2892,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2902,15 +2905,15 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2922,31 +2925,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2955,14 +2958,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2972,14 +2975,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2988,14 +2991,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3005,14 +3008,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3021,14 +3024,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3038,14 +3041,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3054,14 +3057,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>46</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3071,14 +3074,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3087,14 +3090,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3104,14 +3107,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3120,7 +3123,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3137,11 +3140,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>25</v>
@@ -3153,14 +3156,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3170,11 +3173,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>25</v>
@@ -3186,14 +3189,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3203,14 +3206,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3219,14 +3222,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>46</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3269,14 +3272,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3285,31 +3288,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>47</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3318,31 +3321,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>63</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3358,7 +3361,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3368,11 +3371,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -3384,28 +3387,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>25</v>
@@ -3417,28 +3420,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>25</v>
@@ -3450,14 +3453,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3467,14 +3470,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3483,14 +3486,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3500,14 +3503,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3516,14 +3519,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3533,11 +3536,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3549,31 +3552,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3582,28 +3585,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>58</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3615,14 +3618,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3632,14 +3635,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>23</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>24</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3648,14 +3651,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3665,11 +3668,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>23</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>25</v>
@@ -3681,14 +3684,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3698,11 +3701,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>126</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>25</v>
@@ -3714,14 +3717,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3731,11 +3734,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3747,14 +3750,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3764,14 +3767,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>47</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3787,7 +3790,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3797,14 +3800,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>47</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3813,14 +3816,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3830,11 +3833,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>75</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>25</v>
@@ -3846,14 +3849,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3863,14 +3866,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3886,7 +3889,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3896,14 +3899,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3912,14 +3915,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3929,11 +3932,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>47</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3945,7 +3948,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3962,14 +3965,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3978,7 +3981,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3995,7 +3998,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>105</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -4018,7 +4021,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4028,11 +4031,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>85</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>25</v>
@@ -4044,14 +4047,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4061,14 +4064,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4084,7 +4087,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4094,14 +4097,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>148</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4110,14 +4113,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4127,14 +4130,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>51</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4150,21 +4153,21 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>66</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4176,14 +4179,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4193,14 +4196,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>51</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4209,14 +4212,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4226,14 +4229,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4242,14 +4245,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4259,14 +4262,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4275,7 +4278,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4292,11 +4295,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>25</v>
@@ -4308,14 +4311,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4325,14 +4328,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>63</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>237</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4341,14 +4344,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4358,14 +4361,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4374,31 +4377,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>37</v>
+        <v>188</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>63</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>33</v>
+        <v>240</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4407,31 +4410,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4440,31 +4443,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>48</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4473,7 +4476,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4486,18 +4489,18 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>116</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4506,14 +4509,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4523,7 +4526,7 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
@@ -4539,14 +4542,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4556,14 +4559,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4579,7 +4582,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4589,7 +4592,7 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
@@ -4605,14 +4608,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4622,11 +4625,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>59</v>
+        <v>182</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>256</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>25</v>
@@ -4645,7 +4648,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>58</v>
+        <v>255</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4655,14 +4658,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4671,14 +4674,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4688,11 +4691,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>181</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>25</v>
@@ -4704,14 +4707,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>204</v>
+        <v>58</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4721,11 +4724,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>178</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4737,14 +4740,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4754,11 +4757,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>264</v>
+        <v>182</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>265</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>25</v>
@@ -4770,14 +4773,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4787,14 +4790,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>268</v>
+        